--- a/PR1.xlsx
+++ b/PR1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675"/>
   </bookViews>
   <sheets>
     <sheet name="Sec. O0" sheetId="2" r:id="rId1"/>
@@ -694,11 +694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265949184"/>
-        <c:axId val="265951104"/>
+        <c:axId val="161422336"/>
+        <c:axId val="161428224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265949184"/>
+        <c:axId val="161422336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265951104"/>
+        <c:crossAx val="161428224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265951104"/>
+        <c:axId val="161428224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265949184"/>
+        <c:crossAx val="161422336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -784,7 +784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1295,11 +1294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136912896"/>
-        <c:axId val="136915584"/>
+        <c:axId val="174265856"/>
+        <c:axId val="174267392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136912896"/>
+        <c:axId val="174265856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136915584"/>
+        <c:crossAx val="174267392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136915584"/>
+        <c:axId val="174267392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,14 +1327,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136912896"/>
+        <c:crossAx val="174265856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1446,25 +1444,25 @@
                   <c:v>252.72678903963822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>382.74427646223427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>510.8903633927635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428.87711127541422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>485.73896307900606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>466.16467708080859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>519.9620660349118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>573.2701856609882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,11 +1889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276817792"/>
-        <c:axId val="276819328"/>
+        <c:axId val="174291968"/>
+        <c:axId val="174301952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276817792"/>
+        <c:axId val="174291968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276819328"/>
+        <c:crossAx val="174301952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276819328"/>
+        <c:axId val="174301952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276817792"/>
+        <c:crossAx val="174291968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,25 +2040,25 @@
                   <c:v>1024.8112189859762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1320.935082992961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1556.2746485994539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1234.4451295106637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1464.95534152655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1185.3469284307803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1358.1205141355288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1401.0862469638012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,11 +2485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136572288"/>
-        <c:axId val="136830336"/>
+        <c:axId val="185864960"/>
+        <c:axId val="185866496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136572288"/>
+        <c:axId val="185864960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136830336"/>
+        <c:crossAx val="185866496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136830336"/>
+        <c:axId val="185866496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136572288"/>
+        <c:crossAx val="185864960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3083,11 +3081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276135296"/>
-        <c:axId val="276161664"/>
+        <c:axId val="185907456"/>
+        <c:axId val="185925632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276135296"/>
+        <c:axId val="185907456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276161664"/>
+        <c:crossAx val="185925632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,7 +3103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276161664"/>
+        <c:axId val="185925632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +3114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276135296"/>
+        <c:crossAx val="185907456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3601,11 +3599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184164352"/>
-        <c:axId val="184377728"/>
+        <c:axId val="185945472"/>
+        <c:axId val="185955456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184164352"/>
+        <c:axId val="185945472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +3612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184377728"/>
+        <c:crossAx val="185955456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3622,7 +3620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184377728"/>
+        <c:axId val="185955456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,7 +3631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184164352"/>
+        <c:crossAx val="185945472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3690,7 +3688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4123,11 +4120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279760896"/>
-        <c:axId val="279762432"/>
+        <c:axId val="185980032"/>
+        <c:axId val="185981568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279760896"/>
+        <c:axId val="185980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,7 +4133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279762432"/>
+        <c:crossAx val="185981568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4144,7 +4141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279762432"/>
+        <c:axId val="185981568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,14 +4152,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279760896"/>
+        <c:crossAx val="185980032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4645,11 +4641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183666944"/>
-        <c:axId val="183776000"/>
+        <c:axId val="186006144"/>
+        <c:axId val="186012032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183666944"/>
+        <c:axId val="186006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4658,7 +4654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183776000"/>
+        <c:crossAx val="186012032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4666,7 +4662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183776000"/>
+        <c:axId val="186012032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183666944"/>
+        <c:crossAx val="186006144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4729,7 +4725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5162,11 +5157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265134080"/>
-        <c:axId val="265135616"/>
+        <c:axId val="186040704"/>
+        <c:axId val="186042240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265134080"/>
+        <c:axId val="186040704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,7 +5170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265135616"/>
+        <c:crossAx val="186042240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5183,7 +5178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265135616"/>
+        <c:axId val="186042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,14 +5189,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265134080"/>
+        <c:crossAx val="186040704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5685,11 +5679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265951872"/>
-        <c:axId val="279009536"/>
+        <c:axId val="161452800"/>
+        <c:axId val="161454336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265951872"/>
+        <c:axId val="161452800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5699,7 +5693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279009536"/>
+        <c:crossAx val="161454336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5707,7 +5701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279009536"/>
+        <c:axId val="161454336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265951872"/>
+        <c:crossAx val="161452800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6281,11 +6275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136475008"/>
-        <c:axId val="136476544"/>
+        <c:axId val="161552640"/>
+        <c:axId val="161554432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136475008"/>
+        <c:axId val="161552640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6295,7 +6289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136476544"/>
+        <c:crossAx val="161554432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6303,7 +6297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136476544"/>
+        <c:axId val="161554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6314,7 +6308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136475008"/>
+        <c:crossAx val="161552640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6882,11 +6876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136952064"/>
-        <c:axId val="137125888"/>
+        <c:axId val="161579392"/>
+        <c:axId val="161580928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136952064"/>
+        <c:axId val="161579392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6896,7 +6890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137125888"/>
+        <c:crossAx val="161580928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6904,7 +6898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137125888"/>
+        <c:axId val="161580928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,7 +6909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136952064"/>
+        <c:crossAx val="161579392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7406,11 +7400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137164672"/>
-        <c:axId val="137166208"/>
+        <c:axId val="161597312"/>
+        <c:axId val="161598848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137164672"/>
+        <c:axId val="161597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7420,7 +7414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137166208"/>
+        <c:crossAx val="161598848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7428,7 +7422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137166208"/>
+        <c:axId val="161598848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7439,7 +7433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137164672"/>
+        <c:crossAx val="161597312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7935,11 +7929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136193152"/>
-        <c:axId val="136616960"/>
+        <c:axId val="163938304"/>
+        <c:axId val="163939840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136193152"/>
+        <c:axId val="163938304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7949,7 +7943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136616960"/>
+        <c:crossAx val="163939840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7957,7 +7951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136616960"/>
+        <c:axId val="163939840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7968,7 +7962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136193152"/>
+        <c:crossAx val="163938304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8536,11 +8530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159169536"/>
-        <c:axId val="159180672"/>
+        <c:axId val="164254848"/>
+        <c:axId val="164256384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159169536"/>
+        <c:axId val="164254848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8550,7 +8544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159180672"/>
+        <c:crossAx val="164256384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8558,7 +8552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159180672"/>
+        <c:axId val="164256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8569,7 +8563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159169536"/>
+        <c:crossAx val="164254848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9137,11 +9131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160425856"/>
-        <c:axId val="160440320"/>
+        <c:axId val="164280192"/>
+        <c:axId val="164281728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160425856"/>
+        <c:axId val="164280192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9151,7 +9145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160440320"/>
+        <c:crossAx val="164281728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9159,7 +9153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160440320"/>
+        <c:axId val="164281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9170,7 +9164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160425856"/>
+        <c:crossAx val="164280192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9222,7 +9216,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9733,11 +9726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136640768"/>
-        <c:axId val="136709632"/>
+        <c:axId val="174158208"/>
+        <c:axId val="174159744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136640768"/>
+        <c:axId val="174158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9747,7 +9740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136709632"/>
+        <c:crossAx val="174159744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9755,7 +9748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136709632"/>
+        <c:axId val="174159744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9766,14 +9759,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136640768"/>
+        <c:crossAx val="174158208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10593,8 +10585,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10882,31 +10874,31 @@
         <v>271907816</v>
       </c>
       <c r="J8" s="1">
-        <f>SUM(A2,J2,A5,J5,A8)/5</f>
+        <f t="shared" ref="J8:P8" si="0">SUM(A2,J2,A5,J5,A8)/5</f>
         <v>751</v>
       </c>
       <c r="K8" s="1">
-        <f>SUM(B2,K2,B5,K5,B8)/5</f>
+        <f t="shared" si="0"/>
         <v>7717.2</v>
       </c>
       <c r="L8" s="1">
-        <f>SUM(C2,L2,C5,L5,C8)/5</f>
+        <f t="shared" si="0"/>
         <v>30120.400000000001</v>
       </c>
       <c r="M8" s="1">
-        <f>SUM(D2,M2,D5,M5,D8)/5</f>
+        <f t="shared" si="0"/>
         <v>87027</v>
       </c>
       <c r="N8" s="1">
-        <f>SUM(E2,N2,E5,N5,E8)/5</f>
+        <f t="shared" si="0"/>
         <v>205275.2</v>
       </c>
       <c r="O8" s="1">
-        <f>SUM(F2,O2,F5,O5,F8)/5</f>
+        <f t="shared" si="0"/>
         <v>413013.2</v>
       </c>
       <c r="P8" s="1">
-        <f>SUM(G2,P2,G5,P5,G8)/5</f>
+        <f t="shared" si="0"/>
         <v>5595340.5999999996</v>
       </c>
       <c r="Q8" s="1">
@@ -10919,35 +10911,35 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f>J1*100&amp;"^2"</f>
+        <f t="shared" ref="J10:Q10" si="1">J1*100&amp;"^2"</f>
         <v>100^2</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f>K1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>400^2</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f>L1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>900^2</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f>M1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>1400^2</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f>N1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>2300^2</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>O1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>3200^2</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>P1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>12400^2</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f>Q1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>90000^2</v>
       </c>
     </row>
@@ -10956,35 +10948,35 @@
         <v>3</v>
       </c>
       <c r="J11" s="1">
-        <f>J8</f>
+        <f t="shared" ref="J11:Q11" si="2">J8</f>
         <v>751</v>
       </c>
       <c r="K11" s="1">
-        <f>K8</f>
+        <f t="shared" si="2"/>
         <v>7717.2</v>
       </c>
       <c r="L11" s="1">
-        <f>L8</f>
+        <f t="shared" si="2"/>
         <v>30120.400000000001</v>
       </c>
       <c r="M11" s="1">
-        <f>M8</f>
+        <f t="shared" si="2"/>
         <v>87027</v>
       </c>
       <c r="N11" s="1">
-        <f>N8</f>
+        <f t="shared" si="2"/>
         <v>205275.2</v>
       </c>
       <c r="O11" s="1">
-        <f>O8</f>
+        <f t="shared" si="2"/>
         <v>413013.2</v>
       </c>
       <c r="P11" s="1">
-        <f>P8</f>
+        <f t="shared" si="2"/>
         <v>5595340.5999999996</v>
       </c>
       <c r="Q11" s="1">
-        <f>Q8</f>
+        <f t="shared" si="2"/>
         <v>267597797.33333334</v>
       </c>
     </row>
@@ -10993,36 +10985,36 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f>19*J1*100^2</f>
+        <f>19*J1*J1*100^2</f>
         <v>190000</v>
       </c>
       <c r="K12" s="1">
-        <f>19*K1*100^2</f>
-        <v>760000</v>
+        <f t="shared" ref="K12:Q12" si="3">19*K1*K1*100^2</f>
+        <v>3040000</v>
       </c>
       <c r="L12" s="1">
-        <f>19*L1*100^2</f>
-        <v>1710000</v>
+        <f t="shared" si="3"/>
+        <v>15390000</v>
       </c>
       <c r="M12" s="1">
-        <f>19*M1*100^2</f>
-        <v>2660000</v>
+        <f t="shared" si="3"/>
+        <v>37240000</v>
       </c>
       <c r="N12" s="1">
-        <f>19*N1*100^2</f>
-        <v>4370000</v>
+        <f t="shared" si="3"/>
+        <v>100510000</v>
       </c>
       <c r="O12" s="1">
-        <f>19*O1*100^2</f>
-        <v>6080000</v>
+        <f t="shared" si="3"/>
+        <v>194560000</v>
       </c>
       <c r="P12" s="1">
-        <f>19*P1*100^2</f>
-        <v>23560000</v>
+        <f t="shared" si="3"/>
+        <v>2921440000</v>
       </c>
       <c r="Q12" s="1">
-        <f>19*Q1*100^2</f>
-        <v>171000000</v>
+        <f t="shared" si="3"/>
+        <v>153900000000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -11034,31 +11026,31 @@
         <v>7.5100000000000004E-4</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:Q13" si="0">K11/1000000</f>
+        <f t="shared" ref="K13:Q13" si="4">K11/1000000</f>
         <v>7.7171999999999996E-3</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ref="L13:P13" si="1">L11/1000000</f>
+        <f t="shared" ref="L13:P13" si="5">L11/1000000</f>
         <v>3.0120400000000002E-2</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.7026999999999993E-2</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.20527520000000002</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.41301320000000002</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.5953405999999992</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>267.59779733333335</v>
       </c>
     </row>
@@ -11071,32 +11063,32 @@
         <v>252.99600532623168</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ref="K14:Q14" si="2">(K12/K13)/10^6</f>
-        <v>98.481314466386777</v>
+        <f t="shared" ref="K14:Q14" si="6">(K12/K13)/10^6</f>
+        <v>393.92525786554711</v>
       </c>
       <c r="L14" s="2">
         <f>(L12/L13)/10^6</f>
-        <v>56.772154420260023</v>
+        <v>510.94938978234018</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>30.565226883610837</v>
+        <f t="shared" si="6"/>
+        <v>427.9131763705517</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>21.28849466472326</v>
+        <f t="shared" si="6"/>
+        <v>489.63537728863491</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="2"/>
-        <v>14.721079132579781</v>
+        <f t="shared" si="6"/>
+        <v>471.074532242553</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2106462652157406</v>
+        <f t="shared" si="6"/>
+        <v>522.12013688675188</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.63901871279976852</v>
+        <f t="shared" si="6"/>
+        <v>575.11684151979159</v>
       </c>
     </row>
   </sheetData>
@@ -11114,7 +11106,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11406,31 +11398,31 @@
         <v>111478281</v>
       </c>
       <c r="J8" s="1">
-        <f>SUM(A2,J2,A5,J5,A8)/5</f>
+        <f t="shared" ref="J8:P8" si="0">SUM(A2,J2,A5,J5,A8)/5</f>
         <v>185.4</v>
       </c>
       <c r="K8" s="1">
-        <f>SUM(B2,K2,B5,K5,B8)/5</f>
+        <f t="shared" si="0"/>
         <v>2301.4</v>
       </c>
       <c r="L8" s="1">
-        <f>SUM(C2,L2,C5,L5,C8)/5</f>
+        <f t="shared" si="0"/>
         <v>9889</v>
       </c>
       <c r="M8" s="1">
-        <f>SUM(D2,M2,D5,M5,D8)/5</f>
+        <f t="shared" si="0"/>
         <v>30167.4</v>
       </c>
       <c r="N8" s="1">
-        <f>SUM(E2,N2,E5,N5,E8)/5</f>
+        <f t="shared" si="0"/>
         <v>68609.600000000006</v>
       </c>
       <c r="O8" s="1">
-        <f>SUM(F2,O2,F5,O5,F8)/5</f>
+        <f t="shared" si="0"/>
         <v>164137.60000000001</v>
       </c>
       <c r="P8" s="1">
-        <f>SUM(G2,P2,G5,P5,G8)/5</f>
+        <f t="shared" si="0"/>
         <v>2151090.4</v>
       </c>
       <c r="Q8" s="1">
@@ -11443,35 +11435,35 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="str">
-        <f>J1*100&amp;"^2"</f>
+        <f t="shared" ref="J13:Q13" si="1">J1*100&amp;"^2"</f>
         <v>100^2</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>K1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>400^2</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>L1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>900^2</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f>M1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>1400^2</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f>N1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>2300^2</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f>O1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>3200^2</v>
       </c>
       <c r="P13" s="3" t="str">
-        <f>P1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>12400^2</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f>Q1*100&amp;"^2"</f>
+        <f t="shared" si="1"/>
         <v>90000^2</v>
       </c>
     </row>
@@ -11480,35 +11472,35 @@
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <f>J8</f>
+        <f t="shared" ref="J14:Q14" si="2">J8</f>
         <v>185.4</v>
       </c>
       <c r="K14" s="3">
-        <f>K8</f>
+        <f t="shared" si="2"/>
         <v>2301.4</v>
       </c>
       <c r="L14" s="3">
-        <f>L8</f>
+        <f t="shared" si="2"/>
         <v>9889</v>
       </c>
       <c r="M14" s="3">
-        <f>M8</f>
+        <f t="shared" si="2"/>
         <v>30167.4</v>
       </c>
       <c r="N14" s="3">
-        <f>N8</f>
+        <f t="shared" si="2"/>
         <v>68609.600000000006</v>
       </c>
       <c r="O14" s="3">
-        <f>O8</f>
+        <f t="shared" si="2"/>
         <v>164137.60000000001</v>
       </c>
       <c r="P14" s="3">
-        <f>P8</f>
+        <f t="shared" si="2"/>
         <v>2151090.4</v>
       </c>
       <c r="Q14" s="3">
-        <f>Q8</f>
+        <f t="shared" si="2"/>
         <v>108709251.33333333</v>
       </c>
     </row>
@@ -11517,35 +11509,35 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>19*J1*100^2</f>
+        <f t="shared" ref="J15:Q15" si="3">19*J1*100^2</f>
         <v>190000</v>
       </c>
       <c r="K15" s="3">
-        <f>19*K1*100^2</f>
+        <f t="shared" si="3"/>
         <v>760000</v>
       </c>
       <c r="L15" s="3">
-        <f>19*L1*100^2</f>
+        <f t="shared" si="3"/>
         <v>1710000</v>
       </c>
       <c r="M15" s="3">
-        <f>19*M1*100^2</f>
+        <f t="shared" si="3"/>
         <v>2660000</v>
       </c>
       <c r="N15" s="3">
-        <f>19*N1*100^2</f>
+        <f t="shared" si="3"/>
         <v>4370000</v>
       </c>
       <c r="O15" s="3">
-        <f>19*O1*100^2</f>
+        <f t="shared" si="3"/>
         <v>6080000</v>
       </c>
       <c r="P15" s="3">
-        <f>19*P1*100^2</f>
+        <f t="shared" si="3"/>
         <v>23560000</v>
       </c>
       <c r="Q15" s="3">
-        <f>19*Q1*100^2</f>
+        <f t="shared" si="3"/>
         <v>171000000</v>
       </c>
     </row>
@@ -11558,31 +11550,31 @@
         <v>1.8540000000000001E-4</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" ref="K16:Q16" si="0">K14/1000000</f>
+        <f t="shared" ref="K16:Q16" si="4">K14/1000000</f>
         <v>2.3013999999999999E-3</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" ref="L16:P16" si="1">L14/1000000</f>
+        <f t="shared" ref="L16:P16" si="5">L14/1000000</f>
         <v>9.8890000000000002E-3</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.01674E-2</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.8609600000000007E-2</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.16413759999999999</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1510903999999997</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>108.70925133333333</v>
       </c>
     </row>
@@ -11595,31 +11587,31 @@
         <v>1024.8112189859762</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17:Q17" si="2">(K15/K16)/10^6</f>
+        <f t="shared" ref="K17:Q17" si="6">(K15/K16)/10^6</f>
         <v>330.23377074824026</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>172.91940539993934</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>88.174652107904549</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>63.693710501154349</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>37.042091513461884</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.952584791415555</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5730031980044239</v>
       </c>
     </row>
@@ -11633,7 +11625,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
@@ -12642,35 +12634,35 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f>SUM(B2,L2,B10,L10,B18)/5</f>
+        <f t="shared" ref="L18:Q23" si="4">SUM(B2,L2,B10,L10,B18)/5</f>
         <v>751.8</v>
       </c>
       <c r="M18" s="1">
-        <f>SUM(C2,M2,C10,M10,C18)/5</f>
+        <f t="shared" si="4"/>
         <v>7942.6399999999994</v>
       </c>
       <c r="N18" s="1">
-        <f>SUM(D2,N2,D10,N10,D18)/5</f>
+        <f t="shared" si="4"/>
         <v>30123.879999999997</v>
       </c>
       <c r="O18" s="1">
-        <f>SUM(E2,O2,E10,O10,E18)/5</f>
+        <f t="shared" si="4"/>
         <v>86831.4</v>
       </c>
       <c r="P18" s="1">
-        <f>SUM(F2,P2,F10,P10,F18)/5</f>
+        <f t="shared" si="4"/>
         <v>206921.84</v>
       </c>
       <c r="Q18" s="1">
-        <f>SUM(G2,Q2,G10,Q10,G18)/5</f>
+        <f t="shared" si="4"/>
         <v>417363.24</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18:S18" si="4">SUM(H2,R2,H10,R10,H18)/5</f>
+        <f t="shared" ref="R18:S18" si="5">SUM(H2,R2,H10,R10,H18)/5</f>
         <v>5618563.7200000007</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>268459801.06666672</v>
       </c>
       <c r="U18" s="1">
@@ -12690,27 +12682,27 @@
         <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <f>SUM(V2,AD2,V10,AD10,V18)/5</f>
+        <f t="shared" ref="AD18:AE23" si="6">SUM(V2,AD2,V10,AD10,V18)/5</f>
         <v>3447174.44</v>
       </c>
       <c r="AE18" s="1">
-        <f>SUM(W2,AE2,W10,AE10,W18)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" ref="AF18:AI18" si="5">SUM(X2,AF2,X10,AF10,X18)/5</f>
+        <f t="shared" ref="AF18:AI18" si="7">SUM(X2,AF2,X10,AF10,X18)/5</f>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12730,42 +12722,42 @@
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <f>SUM(B3,L3,B11,L11,B19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f>SUM(C3,M3,C11,M11,C19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f>SUM(D3,N3,D11,N11,D19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(E3,O3,E11,O11,E19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f>SUM(F3,P3,F11,P11,F19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f>SUM(G3,Q3,G11,Q11,G19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ref="R19:S19" si="6">SUM(H3,R3,H11,R11,H19)/5</f>
+        <f t="shared" ref="R19:S19" si="8">SUM(H3,R3,H11,R11,H19)/5</f>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>2</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V23" si="7">H19</f>
+        <f t="shared" ref="V19:V23" si="9">H19</f>
         <v>0</v>
       </c>
       <c r="W19" s="1"/>
@@ -12778,27 +12770,27 @@
         <v>2</v>
       </c>
       <c r="AD19" s="1">
-        <f>SUM(V3,AD3,V11,AD11,V19)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f>SUM(W3,AE3,W11,AE11,W19)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f>SUM(X3,AF3,X11,AF11,X19)/5</f>
+        <f t="shared" ref="AF19:AI23" si="10">SUM(X3,AF3,X11,AF11,X19)/5</f>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <f>SUM(Y3,AG3,Y11,AG11,Y19)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <f>SUM(Z3,AH3,Z11,AH11,Z19)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f>SUM(AA3,AI3,AA11,AI11,AA19)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12818,42 +12810,42 @@
         <v>4</v>
       </c>
       <c r="L20" s="1">
-        <f>SUM(B4,L4,B12,L12,B20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f>SUM(C4,M4,C12,M12,C20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <f>SUM(D4,N4,D12,N12,D20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <f>SUM(E4,O4,E12,O12,E20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <f>SUM(F4,P4,F12,P12,F20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <f>SUM(G4,Q4,G12,Q12,G20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ref="R20:S20" si="8">SUM(H4,R4,H12,R12,H20)/5</f>
+        <f t="shared" ref="R20:S20" si="11">SUM(H4,R4,H12,R12,H20)/5</f>
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>4</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W20" s="1"/>
@@ -12866,27 +12858,27 @@
         <v>8</v>
       </c>
       <c r="AD20" s="1">
-        <f>SUM(V4,AD4,V12,AD12,V20)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <f>SUM(W4,AE4,W12,AE12,W20)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <f>SUM(X4,AF4,X12,AF12,X20)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <f>SUM(Y4,AG4,Y12,AG12,Y20)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <f>SUM(Z4,AH4,Z12,AH12,Z20)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <f>SUM(AA4,AI4,AA12,AI12,AA20)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12906,42 +12898,42 @@
         <v>8</v>
       </c>
       <c r="L21" s="1">
-        <f>SUM(B5,L5,B13,L13,B21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f>SUM(C5,M5,C13,M13,C21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <f>SUM(D5,N5,D13,N13,D21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <f>SUM(E5,O5,E13,O13,E21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <f>SUM(F5,P5,F13,P13,F21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f>SUM(G5,Q5,G13,Q13,G21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" ref="R21:S21" si="9">SUM(H5,R5,H13,R13,H21)/5</f>
+        <f t="shared" ref="R21:S21" si="12">SUM(H5,R5,H13,R13,H21)/5</f>
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>8</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="1"/>
@@ -12954,27 +12946,27 @@
         <v>32</v>
       </c>
       <c r="AD21" s="1">
-        <f>SUM(V5,AD5,V13,AD13,V21)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <f>SUM(W5,AE5,W13,AE13,W21)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <f>SUM(X5,AF5,X13,AF13,X21)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <f>SUM(Y5,AG5,Y13,AG13,Y21)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <f>SUM(Z5,AH5,Z13,AH13,Z21)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <f>SUM(AA5,AI5,AA13,AI13,AA21)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12994,42 +12986,42 @@
         <v>12</v>
       </c>
       <c r="L22" s="1">
-        <f>SUM(B6,L6,B14,L14,B22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f>SUM(C6,M6,C14,M14,C22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <f>SUM(D6,N6,D14,N14,D22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <f>SUM(E6,O6,E14,O14,E22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <f>SUM(F6,P6,F14,P14,F22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f>SUM(G6,Q6,G14,Q14,G22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ref="R22:S22" si="10">SUM(H6,R6,H14,R14,H22)/5</f>
+        <f t="shared" ref="R22:S22" si="13">SUM(H6,R6,H14,R14,H22)/5</f>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>12</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W22" s="1"/>
@@ -13042,27 +13034,27 @@
         <v>128</v>
       </c>
       <c r="AD22" s="1">
-        <f>SUM(V6,AD6,V14,AD14,V22)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <f>SUM(W6,AE6,W14,AE14,W22)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <f>SUM(X6,AF6,X14,AF14,X22)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <f>SUM(Y6,AG6,Y14,AG14,Y22)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <f>SUM(Z6,AH6,Z14,AH14,Z22)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <f>SUM(AA6,AI6,AA14,AI14,AA22)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13082,42 +13074,42 @@
         <v>24</v>
       </c>
       <c r="L23" s="1">
-        <f>SUM(B7,L7,B15,L15,B23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f>SUM(C7,M7,C15,M15,C23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <f>SUM(D7,N7,D15,N15,D23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f>SUM(E7,O7,E15,O15,E23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <f>SUM(F7,P7,F15,P15,F23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f>SUM(G7,Q7,G15,Q15,G23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" ref="R23:S23" si="11">SUM(H7,R7,H15,R15,H23)/5</f>
+        <f t="shared" ref="R23:S23" si="14">SUM(H7,R7,H15,R15,H23)/5</f>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>24</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W23" s="1"/>
@@ -13130,27 +13122,27 @@
         <v>512</v>
       </c>
       <c r="AD23" s="1">
-        <f>SUM(V7,AD7,V15,AD15,V23)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <f>SUM(W7,AE7,W15,AE15,W23)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <f>SUM(X7,AF7,X15,AF15,X23)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <f>SUM(Y7,AG7,Y15,AG15,Y23)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <f>SUM(Z7,AH7,Z15,AH15,Z23)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <f>SUM(AA7,AI7,AA15,AI15,AA23)/5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14182,35 +14174,35 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f>SUM(B2,L2,B10,L10,B18)/5</f>
+        <f t="shared" ref="L18:Q23" si="4">SUM(B2,L2,B10,L10,B18)/5</f>
         <v>185.4</v>
       </c>
       <c r="M18" s="1">
-        <f>SUM(C2,M2,C10,M10,C18)/5</f>
+        <f t="shared" si="4"/>
         <v>2301.4</v>
       </c>
       <c r="N18" s="1">
-        <f>SUM(D2,N2,D10,N10,D18)/5</f>
+        <f t="shared" si="4"/>
         <v>9889</v>
       </c>
       <c r="O18" s="1">
-        <f>SUM(E2,O2,E10,O10,E18)/5</f>
+        <f t="shared" si="4"/>
         <v>30167.4</v>
       </c>
       <c r="P18" s="1">
-        <f>SUM(F2,P2,F10,P10,F18)/5</f>
+        <f t="shared" si="4"/>
         <v>68609.600000000006</v>
       </c>
       <c r="Q18" s="1">
-        <f>SUM(G2,Q2,G10,Q10,G18)/5</f>
+        <f t="shared" si="4"/>
         <v>164137.60000000001</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18:S23" si="4">SUM(H2,R2,H10,R10,H18)/5</f>
+        <f t="shared" ref="R18:S23" si="5">SUM(H2,R2,H10,R10,H18)/5</f>
         <v>2151090.4</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109843345</v>
       </c>
       <c r="U18" s="1">
@@ -14230,27 +14222,27 @@
         <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <f>SUM(V2,AD2,V10,AD10,V18)/5</f>
+        <f t="shared" ref="AD18:AE23" si="6">SUM(V2,AD2,V10,AD10,V18)/5</f>
         <v>1317219.8</v>
       </c>
       <c r="AE18" s="1">
-        <f>SUM(W2,AE2,W10,AE10,W18)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" ref="AF18:AI18" si="5">SUM(X2,AF2,X10,AF10,X18)/5</f>
+        <f t="shared" ref="AF18:AI18" si="7">SUM(X2,AF2,X10,AF10,X18)/5</f>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14270,42 +14262,42 @@
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <f>SUM(B3,L3,B11,L11,B19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f>SUM(C3,M3,C11,M11,C19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f>SUM(D3,N3,D11,N11,D19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f>SUM(E3,O3,E11,O11,E19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f>SUM(F3,P3,F11,P11,F19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f>SUM(G3,Q3,G11,Q11,G19)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>2</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V23" si="6">H19</f>
+        <f t="shared" ref="V19:V23" si="8">H19</f>
         <v>0</v>
       </c>
       <c r="W19" s="1"/>
@@ -14318,27 +14310,27 @@
         <v>2</v>
       </c>
       <c r="AD19" s="1">
-        <f>SUM(V3,AD3,V11,AD11,V19)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f>SUM(W3,AE3,W11,AE11,W19)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f>SUM(X3,AF3,X11,AF11,X19)/5</f>
+        <f t="shared" ref="AF19:AI23" si="9">SUM(X3,AF3,X11,AF11,X19)/5</f>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <f>SUM(Y3,AG3,Y11,AG11,Y19)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <f>SUM(Z3,AH3,Z11,AH11,Z19)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f>SUM(AA3,AI3,AA11,AI11,AA19)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14358,42 +14350,42 @@
         <v>4</v>
       </c>
       <c r="L20" s="1">
-        <f>SUM(B4,L4,B12,L12,B20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f>SUM(C4,M4,C12,M12,C20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <f>SUM(D4,N4,D12,N12,D20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <f>SUM(E4,O4,E12,O12,E20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <f>SUM(F4,P4,F12,P12,F20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <f>SUM(G4,Q4,G12,Q12,G20)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>4</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W20" s="1"/>
@@ -14406,27 +14398,27 @@
         <v>8</v>
       </c>
       <c r="AD20" s="1">
-        <f>SUM(V4,AD4,V12,AD12,V20)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <f>SUM(W4,AE4,W12,AE12,W20)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <f>SUM(X4,AF4,X12,AF12,X20)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <f>SUM(Y4,AG4,Y12,AG12,Y20)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <f>SUM(Z4,AH4,Z12,AH12,Z20)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <f>SUM(AA4,AI4,AA12,AI12,AA20)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14446,42 +14438,42 @@
         <v>8</v>
       </c>
       <c r="L21" s="1">
-        <f>SUM(B5,L5,B13,L13,B21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f>SUM(C5,M5,C13,M13,C21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <f>SUM(D5,N5,D13,N13,D21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <f>SUM(E5,O5,E13,O13,E21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <f>SUM(F5,P5,F13,P13,F21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f>SUM(G5,Q5,G13,Q13,G21)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>8</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W21" s="1"/>
@@ -14494,27 +14486,27 @@
         <v>32</v>
       </c>
       <c r="AD21" s="1">
-        <f>SUM(V5,AD5,V13,AD13,V21)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <f>SUM(W5,AE5,W13,AE13,W21)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <f>SUM(X5,AF5,X13,AF13,X21)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <f>SUM(Y5,AG5,Y13,AG13,Y21)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <f>SUM(Z5,AH5,Z13,AH13,Z21)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <f>SUM(AA5,AI5,AA13,AI13,AA21)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14534,42 +14526,42 @@
         <v>12</v>
       </c>
       <c r="L22" s="1">
-        <f>SUM(B6,L6,B14,L14,B22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f>SUM(C6,M6,C14,M14,C22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <f>SUM(D6,N6,D14,N14,D22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <f>SUM(E6,O6,E14,O14,E22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <f>SUM(F6,P6,F14,P14,F22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f>SUM(G6,Q6,G14,Q14,G22)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>12</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W22" s="1"/>
@@ -14582,27 +14574,27 @@
         <v>128</v>
       </c>
       <c r="AD22" s="1">
-        <f>SUM(V6,AD6,V14,AD14,V22)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <f>SUM(W6,AE6,W14,AE14,W22)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <f>SUM(X6,AF6,X14,AF14,X22)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <f>SUM(Y6,AG6,Y14,AG14,Y22)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <f>SUM(Z6,AH6,Z14,AH14,Z22)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <f>SUM(AA6,AI6,AA14,AI14,AA22)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14622,42 +14614,42 @@
         <v>24</v>
       </c>
       <c r="L23" s="1">
-        <f>SUM(B7,L7,B15,L15,B23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f>SUM(C7,M7,C15,M15,C23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <f>SUM(D7,N7,D15,N15,D23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f>SUM(E7,O7,E15,O15,E23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <f>SUM(F7,P7,F15,P15,F23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f>SUM(G7,Q7,G15,Q15,G23)/5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>24</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W23" s="1"/>
@@ -14670,27 +14662,27 @@
         <v>512</v>
       </c>
       <c r="AD23" s="1">
-        <f>SUM(V7,AD7,V15,AD15,V23)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <f>SUM(W7,AE7,W15,AE15,W23)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <f>SUM(X7,AF7,X15,AF15,X23)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <f>SUM(Y7,AG7,Y15,AG15,Y23)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <f>SUM(Z7,AH7,Z15,AH15,Z23)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <f>SUM(AA7,AI7,AA15,AI15,AA23)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14717,8 +14709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX71"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ46" sqref="AQ46"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17183,7 +17175,36 @@
         <v>0</v>
       </c>
       <c r="D49">
+        <f>19*D48*D48</f>
         <v>190000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:K49" si="51">19*E48*E48</f>
+        <v>3040000</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="51"/>
+        <v>15390000</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="51"/>
+        <v>37240000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="51"/>
+        <v>100510000</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="51"/>
+        <v>194560000</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="51"/>
+        <v>2921440000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="51"/>
+        <v>153900000000</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>33</v>
@@ -17193,31 +17214,31 @@
         <v>1</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" ref="O49:U49" si="51">E1</f>
+        <f t="shared" ref="O49:U49" si="52">E1</f>
         <v>4</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>23</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>32</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>124</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>900</v>
       </c>
     </row>
@@ -17231,32 +17252,32 @@
         <v>252.72678903963822</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ref="E50:K50" si="52">E$49/(E2/1000000)/10^6</f>
-        <v>0</v>
+        <f t="shared" ref="E50:K50" si="53">E$49/(E2/1000000)/10^6</f>
+        <v>382.74427646223427</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>510.8903633927635</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>428.87711127541422</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>485.73896307900606</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>466.16467708080859</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>519.9620660349118</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>573.2701856609882</v>
       </c>
       <c r="M50" s="1" t="str">
         <f>C10</f>
@@ -17267,37 +17288,37 @@
         <v>4.0550161812297727</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" ref="O50:W50" si="53">E2/E10</f>
+        <f t="shared" ref="O50:U50" si="54">E2/E10</f>
         <v>3.4512209959155293</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.046200829204166</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.8783189800910916</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.0159312982439772</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.5427643635583803</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.6119607618536165</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.4440242698969765</v>
       </c>
     </row>
     <row r="51" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="str">
-        <f t="shared" ref="C51:C55" si="54">"MOPS "&amp;C3</f>
+        <f t="shared" ref="C51:C55" si="55">"MOPS "&amp;C3</f>
         <v>MOPS 2 procesadores</v>
       </c>
       <c r="D51" s="1" t="e">
@@ -17305,73 +17326,73 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="1" t="e">
-        <f t="shared" ref="E51:K51" si="55">E$49/(E3/1000000)/10^6</f>
+        <f t="shared" ref="E51:K51" si="56">E$49/(E3/1000000)/10^6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="1" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G51" s="1" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H51" s="1" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I51" s="1" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J51" s="1" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K51" s="1" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" ref="M51:M55" si="56">C11</f>
+        <f t="shared" ref="M51:M55" si="57">C11</f>
         <v>2 procesadores</v>
       </c>
       <c r="N51" s="1" t="e">
-        <f t="shared" ref="N51:N55" si="57">D3/D11</f>
+        <f t="shared" ref="N51:N55" si="58">D3/D11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="1" t="e">
-        <f t="shared" ref="O51:O55" si="58">E3/E11</f>
+        <f t="shared" ref="O51:O55" si="59">E3/E11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P51" s="1" t="e">
-        <f t="shared" ref="P51:P55" si="59">F3/F11</f>
+        <f t="shared" ref="P51:P55" si="60">F3/F11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="1" t="e">
-        <f t="shared" ref="Q51:Q55" si="60">G3/G11</f>
+        <f t="shared" ref="Q51:Q55" si="61">G3/G11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R51" s="1" t="e">
-        <f t="shared" ref="R51:R55" si="61">H3/H11</f>
+        <f t="shared" ref="R51:R55" si="62">H3/H11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S51" s="1" t="e">
-        <f t="shared" ref="S51:S55" si="62">I3/I11</f>
+        <f t="shared" ref="S51:S55" si="63">I3/I11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T51" s="1" t="e">
-        <f t="shared" ref="T51:T55" si="63">J3/J11</f>
+        <f t="shared" ref="T51:T55" si="64">J3/J11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U51" s="1" t="e">
-        <f t="shared" ref="U51:U55" si="64">K3/K11</f>
+        <f t="shared" ref="U51:U55" si="65">K3/K11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MOPS 4 procesadores</v>
       </c>
       <c r="D52" s="1" t="e">
@@ -17379,73 +17400,73 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="1" t="e">
-        <f t="shared" ref="E52:K52" si="65">E$49/(E4/1000000)/10^6</f>
+        <f t="shared" ref="E52:K52" si="66">E$49/(E4/1000000)/10^6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="1" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="57"/>
+        <v>4 procesadores</v>
+      </c>
+      <c r="N52" s="1" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="1" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" s="1" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="1" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="1" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="1" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="1" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U52" s="1" t="e">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="1" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="1" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="1" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J52" s="1" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="1" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="1" t="str">
-        <f t="shared" si="56"/>
-        <v>4 procesadores</v>
-      </c>
-      <c r="N52" s="1" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" s="1" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P52" s="1" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q52" s="1" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R52" s="1" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S52" s="1" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T52" s="1" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U52" s="1" t="e">
-        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MOPS 8 procesadores</v>
       </c>
       <c r="D53" s="1" t="e">
@@ -17453,73 +17474,73 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="1" t="e">
-        <f t="shared" ref="E53:K53" si="66">E$49/(E5/1000000)/10^6</f>
+        <f t="shared" ref="E53:K53" si="67">E$49/(E5/1000000)/10^6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="1" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G53" s="1" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="1" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="1" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J53" s="1" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="1" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8 procesadores</v>
       </c>
       <c r="N53" s="1" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="1" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P53" s="1" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="1" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R53" s="1" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S53" s="1" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T53" s="1" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U53" s="1" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MOPS 12 procesadores</v>
       </c>
       <c r="D54" s="1" t="e">
@@ -17527,141 +17548,141 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="1" t="e">
-        <f t="shared" ref="E54:K54" si="67">E$49/(E6/1000000)/10^6</f>
+        <f t="shared" ref="E54:K54" si="68">E$49/(E6/1000000)/10^6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="1" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="1" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="1" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="1" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J54" s="1" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="1" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>12 procesadores</v>
       </c>
       <c r="N54" s="1" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="1" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" s="1" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="1" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R54" s="1" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S54" s="1" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T54" s="1" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U54" s="1" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>MOPS 24 procesadores</v>
       </c>
       <c r="D55" s="1" t="e">
-        <f t="shared" ref="D55:K55" si="68">D$49/(D7/1000000)/10^6</f>
+        <f t="shared" ref="D55:K55" si="69">D$49/(D7/1000000)/10^6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="1" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24 procesadores</v>
       </c>
       <c r="N55" s="1" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="1" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P55" s="1" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="1" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R55" s="1" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S55" s="1" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T55" s="1" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U55" s="1" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17695,32 +17716,32 @@
         <v>1024.8112189859762</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ref="E57:K57" si="69">E$49/(E10/1000000)/10^6</f>
-        <v>0</v>
+        <f t="shared" ref="E57:K57" si="70">E$49/(E10/1000000)/10^6</f>
+        <v>1320.935082992961</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1556.2746485994539</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1234.4451295106637</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1464.95534152655</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1185.3469284307803</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1358.1205141355288</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1401.0862469638012</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>34</v>
@@ -17757,61 +17778,61 @@
         <v>1 procesador</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f t="shared" ref="W57:AA57" si="70">O57</f>
+        <f t="shared" ref="W57:AA57" si="71">O57</f>
         <v>2 procesadores</v>
       </c>
       <c r="X57" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4 procesadores</v>
       </c>
       <c r="Y57" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8 procesadores</v>
       </c>
       <c r="Z57" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>12 procesadores</v>
       </c>
       <c r="AA57" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>24 procesadores</v>
       </c>
     </row>
     <row r="58" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="str">
-        <f t="shared" ref="C58:C62" si="71">"MOPS "&amp;C12</f>
+        <f t="shared" ref="C58:C62" si="72">"MOPS "&amp;C12</f>
         <v>MOPS 4 procesadores</v>
       </c>
       <c r="D58" s="1" t="e">
-        <f t="shared" ref="D58:K62" si="72">D$49/(D11/1000000)/10^6</f>
+        <f t="shared" ref="D58:K62" si="73">D$49/(D11/1000000)/10^6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="1" t="str">
@@ -17823,23 +17844,23 @@
         <v>1</v>
       </c>
       <c r="O58" s="1" t="e">
-        <f t="shared" ref="O58:U58" si="73">$N$2/O2</f>
+        <f t="shared" ref="O58:S58" si="74">$N$2/O2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P58" s="1" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="1" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R58" s="1" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S58" s="1" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="1" t="str">
@@ -17851,457 +17872,457 @@
         <v>1</v>
       </c>
       <c r="W58" s="1" t="e">
-        <f t="shared" ref="W58:AA63" si="74">O58/W$56</f>
+        <f t="shared" ref="W58:AA63" si="75">O58/W$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X58" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y58" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z58" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA58" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MOPS 8 procesadores</v>
       </c>
       <c r="D59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" ref="M59:M63" si="75">M3</f>
+        <f t="shared" ref="M59:M63" si="76">M3</f>
         <v>2 bloques por hilo</v>
       </c>
       <c r="N59" s="1" t="e">
-        <f t="shared" ref="N59:S59" si="76">$N$2/N3</f>
+        <f t="shared" ref="N59:S59" si="77">$N$2/N3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="1" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P59" s="1" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="1" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="1" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S59" s="1" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="1" t="str">
-        <f t="shared" ref="U59:U63" si="77">M59</f>
+        <f t="shared" ref="U59:U63" si="78">M59</f>
         <v>2 bloques por hilo</v>
       </c>
       <c r="V59" s="1" t="e">
-        <f t="shared" ref="V59:V63" si="78">N59/V$56</f>
+        <f t="shared" ref="V59:V63" si="79">N59/V$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X59" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y59" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z59" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA59" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MOPS 12 procesadores</v>
       </c>
       <c r="D60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" s="1" t="str">
+        <f t="shared" si="76"/>
+        <v>8 bloques por hilo</v>
+      </c>
+      <c r="N60" s="1" t="e">
+        <f t="shared" ref="N60:S60" si="80">$N$2/N4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="1" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P60" s="1" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q60" s="1" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R60" s="1" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S60" s="1" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U60" s="1" t="str">
+        <f t="shared" si="78"/>
+        <v>8 bloques por hilo</v>
+      </c>
+      <c r="V60" s="1" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W60" s="1" t="e">
         <f t="shared" si="75"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="N60" s="1" t="e">
-        <f t="shared" ref="N60:S60" si="79">$N$2/N4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="1" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P60" s="1" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q60" s="1" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R60" s="1" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60" s="1" t="e">
-        <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U60" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="V60" s="1" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60" s="1" t="e">
-        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X60" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y60" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z60" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA60" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MOPS 24 procesadores</v>
       </c>
       <c r="D61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="1" t="str">
+        <f t="shared" si="76"/>
+        <v>32 bloques por hilo</v>
+      </c>
+      <c r="N61" s="1" t="e">
+        <f t="shared" ref="N61:S61" si="81">$N$2/N5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="1" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P61" s="1" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q61" s="1" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R61" s="1" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S61" s="1" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="78"/>
+        <v>32 bloques por hilo</v>
+      </c>
+      <c r="V61" s="1" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W61" s="1" t="e">
         <f t="shared" si="75"/>
-        <v>32 bloques por hilo</v>
-      </c>
-      <c r="N61" s="1" t="e">
-        <f t="shared" ref="N61:S61" si="80">$N$2/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="1" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P61" s="1" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q61" s="1" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R61" s="1" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S61" s="1" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U61" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>32 bloques por hilo</v>
-      </c>
-      <c r="V61" s="1" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61" s="1" t="e">
-        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X61" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y61" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z61" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA61" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">MOPS </v>
       </c>
       <c r="D62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="1" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="1" t="str">
+        <f t="shared" si="76"/>
+        <v>128 bloques por hilo</v>
+      </c>
+      <c r="N62" s="1" t="e">
+        <f t="shared" ref="N62:S62" si="82">$N$2/N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="1" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P62" s="1" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q62" s="1" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R62" s="1" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S62" s="1" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U62" s="1" t="str">
+        <f t="shared" si="78"/>
+        <v>128 bloques por hilo</v>
+      </c>
+      <c r="V62" s="1" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W62" s="1" t="e">
         <f t="shared" si="75"/>
-        <v>128 bloques por hilo</v>
-      </c>
-      <c r="N62" s="1" t="e">
-        <f t="shared" ref="N62:S62" si="81">$N$2/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="1" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P62" s="1" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q62" s="1" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R62" s="1" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S62" s="1" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U62" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>128 bloques por hilo</v>
-      </c>
-      <c r="V62" s="1" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62" s="1" t="e">
-        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X62" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y62" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z62" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA62" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="3:27" x14ac:dyDescent="0.25">
       <c r="M63" s="1" t="str">
+        <f t="shared" si="76"/>
+        <v>512 bloques por hilo</v>
+      </c>
+      <c r="N63" s="1" t="e">
+        <f t="shared" ref="N63:S63" si="83">$N$2/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="1" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P63" s="1" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q63" s="1" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R63" s="1" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S63" s="1" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U63" s="1" t="str">
+        <f t="shared" si="78"/>
+        <v>512 bloques por hilo</v>
+      </c>
+      <c r="V63" s="1" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W63" s="1" t="e">
         <f t="shared" si="75"/>
-        <v>512 bloques por hilo</v>
-      </c>
-      <c r="N63" s="1" t="e">
-        <f t="shared" ref="N63:S63" si="82">$N$2/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="1" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P63" s="1" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q63" s="1" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R63" s="1" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S63" s="1" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U63" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>512 bloques por hilo</v>
-      </c>
-      <c r="V63" s="1" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63" s="1" t="e">
-        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X63" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y63" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z63" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA63" s="1" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18314,23 +18335,23 @@
         <v>1 procesador</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f t="shared" ref="O65:S65" si="83">O57</f>
+        <f t="shared" ref="O65:S65" si="84">O57</f>
         <v>2 procesadores</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4 procesadores</v>
       </c>
       <c r="Q65" s="1" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>8 procesadores</v>
       </c>
       <c r="R65" s="1" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>12 procesadores</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>24 procesadores</v>
       </c>
       <c r="U65" s="1" t="s">
@@ -18341,23 +18362,23 @@
         <v>1 procesador</v>
       </c>
       <c r="W65" s="1" t="str">
-        <f t="shared" ref="W65" si="84">O65</f>
+        <f t="shared" ref="W65" si="85">O65</f>
         <v>2 procesadores</v>
       </c>
       <c r="X65" s="1" t="str">
-        <f t="shared" ref="X65" si="85">P65</f>
+        <f t="shared" ref="X65" si="86">P65</f>
         <v>4 procesadores</v>
       </c>
       <c r="Y65" s="1" t="str">
-        <f t="shared" ref="Y65" si="86">Q65</f>
+        <f t="shared" ref="Y65" si="87">Q65</f>
         <v>8 procesadores</v>
       </c>
       <c r="Z65" s="1" t="str">
-        <f t="shared" ref="Z65" si="87">R65</f>
+        <f t="shared" ref="Z65" si="88">R65</f>
         <v>12 procesadores</v>
       </c>
       <c r="AA65" s="1" t="str">
-        <f t="shared" ref="AA65" si="88">S65</f>
+        <f t="shared" ref="AA65" si="89">S65</f>
         <v>24 procesadores</v>
       </c>
     </row>
@@ -18371,23 +18392,23 @@
         <v>1</v>
       </c>
       <c r="O66" s="1" t="e">
-        <f t="shared" ref="O66:S66" si="89">$N$10/O10</f>
+        <f t="shared" ref="O66:S66" si="90">$N$10/O10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="1" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="1" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" s="1" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="1" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="1" t="str">
@@ -18399,313 +18420,313 @@
         <v>1</v>
       </c>
       <c r="W66" s="1" t="e">
-        <f t="shared" ref="W66:W71" si="90">O66/W$56</f>
+        <f t="shared" ref="W66:W71" si="91">O66/W$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X66" s="1" t="e">
-        <f t="shared" ref="X66:X71" si="91">P66/X$56</f>
+        <f t="shared" ref="X66:X71" si="92">P66/X$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y66" s="1" t="e">
-        <f t="shared" ref="Y66:Y71" si="92">Q66/Y$56</f>
+        <f t="shared" ref="Y66:Y71" si="93">Q66/Y$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z66" s="1" t="e">
-        <f t="shared" ref="Z66:Z71" si="93">R66/Z$56</f>
+        <f t="shared" ref="Z66:Z71" si="94">R66/Z$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA66" s="1" t="e">
-        <f t="shared" ref="AA66:AA71" si="94">S66/AA$56</f>
+        <f t="shared" ref="AA66:AA71" si="95">S66/AA$56</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M67" s="1" t="str">
-        <f t="shared" ref="M67:M71" si="95">M11</f>
+        <f t="shared" ref="M67:M71" si="96">M11</f>
         <v>2 bloques por hilo</v>
       </c>
       <c r="N67" s="1" t="e">
-        <f t="shared" ref="N67:S67" si="96">$N$10/N11</f>
+        <f t="shared" ref="N67:S67" si="97">$N$10/N11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="1" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="1" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="1" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R67" s="1" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S67" s="1" t="e">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U67" s="1" t="str">
-        <f t="shared" ref="U67:U71" si="97">M67</f>
+        <f t="shared" ref="U67:U71" si="98">M67</f>
         <v>2 bloques por hilo</v>
       </c>
       <c r="V67" s="1" t="e">
-        <f t="shared" ref="V67:V71" si="98">N67/V$56</f>
+        <f t="shared" ref="V67:V71" si="99">N67/V$56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W67" s="1" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X67" s="1" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y67" s="1" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z67" s="1" t="e">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA67" s="1" t="e">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M68" s="1" t="str">
+        <f t="shared" si="96"/>
+        <v>8 bloques por hilo</v>
+      </c>
+      <c r="N68" s="1" t="e">
+        <f t="shared" ref="N68:S68" si="100">$N$10/N12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="1" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P68" s="1" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="1" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R68" s="1" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S68" s="1" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" s="1" t="str">
+        <f t="shared" si="98"/>
+        <v>8 bloques por hilo</v>
+      </c>
+      <c r="V68" s="1" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W68" s="1" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X68" s="1" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y68" s="1" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z68" s="1" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA68" s="1" t="e">
         <f t="shared" si="95"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="N68" s="1" t="e">
-        <f t="shared" ref="N68:S68" si="99">$N$10/N12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="1" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P68" s="1" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q68" s="1" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R68" s="1" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S68" s="1" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U68" s="1" t="str">
-        <f t="shared" si="97"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="V68" s="1" t="e">
-        <f t="shared" si="98"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68" s="1" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X68" s="1" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y68" s="1" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z68" s="1" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA68" s="1" t="e">
-        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M69" s="1" t="str">
+        <f t="shared" si="96"/>
+        <v>32 bloques por hilo</v>
+      </c>
+      <c r="N69" s="1" t="e">
+        <f t="shared" ref="N69:S69" si="101">$N$10/N13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="1" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" s="1" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" s="1" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R69" s="1" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S69" s="1" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U69" s="1" t="str">
+        <f t="shared" si="98"/>
+        <v>32 bloques por hilo</v>
+      </c>
+      <c r="V69" s="1" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W69" s="1" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X69" s="1" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y69" s="1" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z69" s="1" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA69" s="1" t="e">
         <f t="shared" si="95"/>
-        <v>32 bloques por hilo</v>
-      </c>
-      <c r="N69" s="1" t="e">
-        <f t="shared" ref="N69:S69" si="100">$N$10/N13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O69" s="1" t="e">
-        <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P69" s="1" t="e">
-        <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q69" s="1" t="e">
-        <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R69" s="1" t="e">
-        <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S69" s="1" t="e">
-        <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U69" s="1" t="str">
-        <f t="shared" si="97"/>
-        <v>32 bloques por hilo</v>
-      </c>
-      <c r="V69" s="1" t="e">
-        <f t="shared" si="98"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W69" s="1" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X69" s="1" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y69" s="1" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z69" s="1" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA69" s="1" t="e">
-        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M70" s="1" t="str">
+        <f t="shared" si="96"/>
+        <v>128 bloques por hilo</v>
+      </c>
+      <c r="N70" s="1" t="e">
+        <f t="shared" ref="N70:S70" si="102">$N$10/N14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" s="1" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P70" s="1" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q70" s="1" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R70" s="1" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S70" s="1" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U70" s="1" t="str">
+        <f t="shared" si="98"/>
+        <v>128 bloques por hilo</v>
+      </c>
+      <c r="V70" s="1" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W70" s="1" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X70" s="1" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y70" s="1" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z70" s="1" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA70" s="1" t="e">
         <f t="shared" si="95"/>
-        <v>128 bloques por hilo</v>
-      </c>
-      <c r="N70" s="1" t="e">
-        <f t="shared" ref="N70:S70" si="101">$N$10/N14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O70" s="1" t="e">
-        <f t="shared" si="101"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P70" s="1" t="e">
-        <f t="shared" si="101"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q70" s="1" t="e">
-        <f t="shared" si="101"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R70" s="1" t="e">
-        <f t="shared" si="101"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S70" s="1" t="e">
-        <f t="shared" si="101"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U70" s="1" t="str">
-        <f t="shared" si="97"/>
-        <v>128 bloques por hilo</v>
-      </c>
-      <c r="V70" s="1" t="e">
-        <f t="shared" si="98"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W70" s="1" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X70" s="1" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y70" s="1" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z70" s="1" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA70" s="1" t="e">
-        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M71" s="1" t="str">
+        <f t="shared" si="96"/>
+        <v>512 bloques por hilo</v>
+      </c>
+      <c r="N71" s="1" t="e">
+        <f t="shared" ref="N71:S71" si="103">$N$10/N15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="1" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P71" s="1" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q71" s="1" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R71" s="1" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S71" s="1" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U71" s="1" t="str">
+        <f t="shared" si="98"/>
+        <v>512 bloques por hilo</v>
+      </c>
+      <c r="V71" s="1" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W71" s="1" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X71" s="1" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y71" s="1" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z71" s="1" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA71" s="1" t="e">
         <f t="shared" si="95"/>
-        <v>512 bloques por hilo</v>
-      </c>
-      <c r="N71" s="1" t="e">
-        <f t="shared" ref="N71:S71" si="102">$N$10/N15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" s="1" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P71" s="1" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q71" s="1" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R71" s="1" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71" s="1" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U71" s="1" t="str">
-        <f t="shared" si="97"/>
-        <v>512 bloques por hilo</v>
-      </c>
-      <c r="V71" s="1" t="e">
-        <f t="shared" si="98"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W71" s="1" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X71" s="1" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y71" s="1" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z71" s="1" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA71" s="1" t="e">
-        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/PR1.xlsx
+++ b/PR1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sec. O0" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Datos finales" sheetId="10" r:id="rId5"/>
     <sheet name="PROGRESO" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -694,11 +694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161422336"/>
-        <c:axId val="161428224"/>
+        <c:axId val="298511360"/>
+        <c:axId val="298894848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161422336"/>
+        <c:axId val="298511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161428224"/>
+        <c:crossAx val="298894848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161428224"/>
+        <c:axId val="298894848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161422336"/>
+        <c:crossAx val="298511360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -784,6 +784,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1294,11 +1295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174265856"/>
-        <c:axId val="174267392"/>
+        <c:axId val="179489792"/>
+        <c:axId val="179499776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174265856"/>
+        <c:axId val="179489792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174267392"/>
+        <c:crossAx val="179499776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174267392"/>
+        <c:axId val="179499776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,13 +1328,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174265856"/>
+        <c:crossAx val="179489792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1889,11 +1891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174291968"/>
-        <c:axId val="174301952"/>
+        <c:axId val="302351104"/>
+        <c:axId val="302352640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174291968"/>
+        <c:axId val="302351104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174301952"/>
+        <c:crossAx val="302352640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174301952"/>
+        <c:axId val="302352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174291968"/>
+        <c:crossAx val="302351104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2485,11 +2487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185864960"/>
-        <c:axId val="185866496"/>
+        <c:axId val="302377216"/>
+        <c:axId val="304283648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185864960"/>
+        <c:axId val="302377216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185866496"/>
+        <c:crossAx val="304283648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2507,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185866496"/>
+        <c:axId val="304283648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185864960"/>
+        <c:crossAx val="302377216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,11 +3083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185907456"/>
-        <c:axId val="185925632"/>
+        <c:axId val="304308224"/>
+        <c:axId val="304309760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185907456"/>
+        <c:axId val="304308224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185925632"/>
+        <c:crossAx val="304309760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3103,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185925632"/>
+        <c:axId val="304309760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,7 +3116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185907456"/>
+        <c:crossAx val="304308224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3599,11 +3601,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185945472"/>
-        <c:axId val="185955456"/>
+        <c:axId val="304366720"/>
+        <c:axId val="304368256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185945472"/>
+        <c:axId val="304366720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +3614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185955456"/>
+        <c:crossAx val="304368256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3620,7 +3622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185955456"/>
+        <c:axId val="304368256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185945472"/>
+        <c:crossAx val="304366720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3688,6 +3690,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4120,11 +4123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185980032"/>
-        <c:axId val="185981568"/>
+        <c:axId val="304401024"/>
+        <c:axId val="304411008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185980032"/>
+        <c:axId val="304401024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185981568"/>
+        <c:crossAx val="304411008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4141,7 +4144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185981568"/>
+        <c:axId val="304411008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,13 +4155,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185980032"/>
+        <c:crossAx val="304401024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4641,11 +4645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186006144"/>
-        <c:axId val="186012032"/>
+        <c:axId val="304513408"/>
+        <c:axId val="304514944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186006144"/>
+        <c:axId val="304513408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +4658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186012032"/>
+        <c:crossAx val="304514944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4662,7 +4666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186012032"/>
+        <c:axId val="304514944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186006144"/>
+        <c:crossAx val="304513408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4725,6 +4729,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5157,11 +5162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186040704"/>
-        <c:axId val="186042240"/>
+        <c:axId val="305211264"/>
+        <c:axId val="305212800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186040704"/>
+        <c:axId val="305211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5170,7 +5175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186042240"/>
+        <c:crossAx val="305212800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5178,7 +5183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186042240"/>
+        <c:axId val="305212800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,13 +5194,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186040704"/>
+        <c:crossAx val="305211264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5679,11 +5685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161452800"/>
-        <c:axId val="161454336"/>
+        <c:axId val="299271680"/>
+        <c:axId val="300167936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161452800"/>
+        <c:axId val="299271680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +5699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161454336"/>
+        <c:crossAx val="300167936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5701,7 +5707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161454336"/>
+        <c:axId val="300167936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5712,7 +5718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161452800"/>
+        <c:crossAx val="299271680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6275,11 +6281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161552640"/>
-        <c:axId val="161554432"/>
+        <c:axId val="305552768"/>
+        <c:axId val="309109888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161552640"/>
+        <c:axId val="305552768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6289,7 +6295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161554432"/>
+        <c:crossAx val="309109888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6297,7 +6303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161554432"/>
+        <c:axId val="309109888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6308,7 +6314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161552640"/>
+        <c:crossAx val="305552768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6876,11 +6882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161579392"/>
-        <c:axId val="161580928"/>
+        <c:axId val="331659904"/>
+        <c:axId val="331674752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161579392"/>
+        <c:axId val="331659904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6890,7 +6896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161580928"/>
+        <c:crossAx val="331674752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6898,7 +6904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161580928"/>
+        <c:axId val="331674752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6909,7 +6915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161579392"/>
+        <c:crossAx val="331659904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7400,11 +7406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161597312"/>
-        <c:axId val="161598848"/>
+        <c:axId val="332054528"/>
+        <c:axId val="332056832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161597312"/>
+        <c:axId val="332054528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7414,7 +7420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161598848"/>
+        <c:crossAx val="332056832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7422,7 +7428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161598848"/>
+        <c:axId val="332056832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7433,7 +7439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161597312"/>
+        <c:crossAx val="332054528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7929,11 +7935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163938304"/>
-        <c:axId val="163939840"/>
+        <c:axId val="169227008"/>
+        <c:axId val="169228544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163938304"/>
+        <c:axId val="169227008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7943,7 +7949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163939840"/>
+        <c:crossAx val="169228544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7951,7 +7957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163939840"/>
+        <c:axId val="169228544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7962,7 +7968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163938304"/>
+        <c:crossAx val="169227008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8530,11 +8536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164254848"/>
-        <c:axId val="164256384"/>
+        <c:axId val="169253120"/>
+        <c:axId val="169263104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164254848"/>
+        <c:axId val="169253120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8544,7 +8550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164256384"/>
+        <c:crossAx val="169263104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8552,7 +8558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164256384"/>
+        <c:axId val="169263104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8563,7 +8569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164254848"/>
+        <c:crossAx val="169253120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9131,11 +9137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164280192"/>
-        <c:axId val="164281728"/>
+        <c:axId val="297717120"/>
+        <c:axId val="298435712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164280192"/>
+        <c:axId val="297717120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9145,7 +9151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164281728"/>
+        <c:crossAx val="298435712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9153,7 +9159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164281728"/>
+        <c:axId val="298435712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9164,7 +9170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164280192"/>
+        <c:crossAx val="297717120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9216,6 +9222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9726,11 +9733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174158208"/>
-        <c:axId val="174159744"/>
+        <c:axId val="179447680"/>
+        <c:axId val="179449216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174158208"/>
+        <c:axId val="179447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9740,7 +9747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174159744"/>
+        <c:crossAx val="179449216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9748,7 +9755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174159744"/>
+        <c:axId val="179449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9759,13 +9766,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174158208"/>
+        <c:crossAx val="179447680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10585,8 +10593,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14709,7 +14717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX71"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>

--- a/PR1.xlsx
+++ b/PR1.xlsx
@@ -740,11 +740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159479296"/>
-        <c:axId val="159480832"/>
+        <c:axId val="175153920"/>
+        <c:axId val="175155840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159479296"/>
+        <c:axId val="175153920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159480832"/>
+        <c:crossAx val="175155840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159480832"/>
+        <c:axId val="175155840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159479296"/>
+        <c:crossAx val="175153920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160698368"/>
-        <c:axId val="160699904"/>
+        <c:axId val="163997568"/>
+        <c:axId val="163999104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160698368"/>
+        <c:axId val="163997568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160699904"/>
+        <c:crossAx val="163999104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1363,7 +1363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160699904"/>
+        <c:axId val="163999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160698368"/>
+        <c:crossAx val="163997568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,11 +1937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160724480"/>
-        <c:axId val="160726016"/>
+        <c:axId val="164027776"/>
+        <c:axId val="165287040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160724480"/>
+        <c:axId val="164027776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160726016"/>
+        <c:crossAx val="165287040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1959,7 +1959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160726016"/>
+        <c:axId val="165287040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160724480"/>
+        <c:crossAx val="164027776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2533,11 +2533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160746496"/>
-        <c:axId val="168170240"/>
+        <c:axId val="165299328"/>
+        <c:axId val="165300864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160746496"/>
+        <c:axId val="165299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168170240"/>
+        <c:crossAx val="165300864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168170240"/>
+        <c:axId val="165300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160746496"/>
+        <c:crossAx val="165299328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,11 +3129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168190720"/>
-        <c:axId val="168192256"/>
+        <c:axId val="165321344"/>
+        <c:axId val="165331328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168190720"/>
+        <c:axId val="165321344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,7 +3143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168192256"/>
+        <c:crossAx val="165331328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3151,7 +3151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168192256"/>
+        <c:axId val="165331328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,7 +3162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168190720"/>
+        <c:crossAx val="165321344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3232,7 +3232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 bloque por hilo</c:v>
+                  <c:v>1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3301,7 +3301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 bloques por hilo</c:v>
+                  <c:v>2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3370,7 +3370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 bloques por hilo</c:v>
+                  <c:v>4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3439,7 +3439,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 bloques por hilo</c:v>
+                  <c:v>8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3508,7 +3508,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 bloques por hilo</c:v>
+                  <c:v>12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3577,7 +3577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 bloques por hilo</c:v>
+                  <c:v>24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3647,11 +3647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168224640"/>
-        <c:axId val="168226176"/>
+        <c:axId val="165359616"/>
+        <c:axId val="165361152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168224640"/>
+        <c:axId val="165359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,7 +3660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168226176"/>
+        <c:crossAx val="165361152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3668,7 +3668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168226176"/>
+        <c:axId val="165361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,7 +3679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168224640"/>
+        <c:crossAx val="165359616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,7 +3754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 bloque por hilo</c:v>
+                  <c:v>1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3823,7 +3823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 bloques por hilo</c:v>
+                  <c:v>2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3892,7 +3892,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 bloques por hilo</c:v>
+                  <c:v>4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3961,7 +3961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 bloques por hilo</c:v>
+                  <c:v>8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4030,7 +4030,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 bloques por hilo</c:v>
+                  <c:v>12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4099,7 +4099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 bloques por hilo</c:v>
+                  <c:v>24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4169,11 +4169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182930816"/>
-        <c:axId val="182936704"/>
+        <c:axId val="165393920"/>
+        <c:axId val="165395456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182930816"/>
+        <c:axId val="165393920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182936704"/>
+        <c:crossAx val="165395456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4190,7 +4190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182936704"/>
+        <c:axId val="165395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,7 +4201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182930816"/>
+        <c:crossAx val="165393920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,7 +4276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 bloque por hilo</c:v>
+                  <c:v>1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4345,7 +4345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 bloques por hilo</c:v>
+                  <c:v>2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4414,7 +4414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 bloques por hilo</c:v>
+                  <c:v>4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4483,7 +4483,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 bloques por hilo</c:v>
+                  <c:v>8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4552,7 +4552,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 bloques por hilo</c:v>
+                  <c:v>12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4621,7 +4621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 bloques por hilo</c:v>
+                  <c:v>24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4691,20 +4691,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182961280"/>
-        <c:axId val="182962816"/>
+        <c:axId val="166341632"/>
+        <c:axId val="166466304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182961280"/>
+        <c:axId val="166341632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182962816"/>
+        <c:crossAx val="166466304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4712,7 +4713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182962816"/>
+        <c:axId val="166466304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,7 +4724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182961280"/>
+        <c:crossAx val="166341632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4793,7 +4794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 bloque por hilo</c:v>
+                  <c:v>1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4862,7 +4863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 bloques por hilo</c:v>
+                  <c:v>2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4931,7 +4932,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 bloques por hilo</c:v>
+                  <c:v>4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5000,7 +5001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 bloques por hilo</c:v>
+                  <c:v>8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5069,7 +5070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 bloques por hilo</c:v>
+                  <c:v>12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5138,7 +5139,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 bloques por hilo</c:v>
+                  <c:v>24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5208,11 +5209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184384128"/>
-        <c:axId val="184406400"/>
+        <c:axId val="166482688"/>
+        <c:axId val="166484224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184384128"/>
+        <c:axId val="166482688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5221,7 +5222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184406400"/>
+        <c:crossAx val="166484224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5229,7 +5230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184406400"/>
+        <c:axId val="166484224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5240,7 +5241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184384128"/>
+        <c:crossAx val="166482688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5815,20 +5816,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185061760"/>
-        <c:axId val="189415424"/>
+        <c:axId val="166522880"/>
+        <c:axId val="166524416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185061760"/>
+        <c:axId val="166522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189415424"/>
+        <c:crossAx val="166524416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5836,7 +5838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189415424"/>
+        <c:axId val="166524416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,7 +5849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185061760"/>
+        <c:crossAx val="166522880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,20 +6406,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264039808"/>
-        <c:axId val="264046848"/>
+        <c:axId val="167066624"/>
+        <c:axId val="167072512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264039808"/>
+        <c:axId val="167066624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264046848"/>
+        <c:crossAx val="167072512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6425,7 +6428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264046848"/>
+        <c:axId val="167072512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6436,7 +6439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264039808"/>
+        <c:crossAx val="167066624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6927,11 +6930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159505408"/>
-        <c:axId val="159507200"/>
+        <c:axId val="177579136"/>
+        <c:axId val="177581056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159505408"/>
+        <c:axId val="177579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6941,7 +6944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159507200"/>
+        <c:crossAx val="177581056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6949,7 +6952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159507200"/>
+        <c:axId val="177581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6960,7 +6963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159505408"/>
+        <c:crossAx val="177579136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7523,11 +7526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159593216"/>
-        <c:axId val="159594752"/>
+        <c:axId val="177649920"/>
+        <c:axId val="177676288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159593216"/>
+        <c:axId val="177649920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7537,7 +7540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159594752"/>
+        <c:crossAx val="177676288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7545,7 +7548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159594752"/>
+        <c:axId val="177676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,7 +7559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159593216"/>
+        <c:crossAx val="177649920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8124,11 +8127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159607424"/>
-        <c:axId val="159613312"/>
+        <c:axId val="197277568"/>
+        <c:axId val="197279104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159607424"/>
+        <c:axId val="197277568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8138,7 +8141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159613312"/>
+        <c:crossAx val="197279104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8146,7 +8149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159613312"/>
+        <c:axId val="197279104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8157,7 +8160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159607424"/>
+        <c:crossAx val="197277568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8227,7 +8230,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 bloque por hilo</c:v>
+                  <c:v>1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8245,16 +8248,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8297,7 +8300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 bloques por hilo</c:v>
+                  <c:v>2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8315,16 +8318,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8367,7 +8370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 bloques por hilo</c:v>
+                  <c:v>4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8385,16 +8388,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8437,7 +8440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 bloques por hilo</c:v>
+                  <c:v>8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8455,16 +8458,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8507,7 +8510,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 bloques por hilo</c:v>
+                  <c:v>12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8525,16 +8528,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8577,7 +8580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 bloques por hilo</c:v>
+                  <c:v>24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8595,16 +8598,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8648,11 +8651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159633792"/>
-        <c:axId val="159635328"/>
+        <c:axId val="201180672"/>
+        <c:axId val="201182208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159633792"/>
+        <c:axId val="201180672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8662,7 +8665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159635328"/>
+        <c:crossAx val="201182208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8670,7 +8673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159635328"/>
+        <c:axId val="201182208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8681,7 +8684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159633792"/>
+        <c:crossAx val="201180672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8756,7 +8759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 bloque por hilo</c:v>
+                  <c:v>1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8774,16 +8777,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8826,7 +8829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 bloques por hilo</c:v>
+                  <c:v>2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8844,16 +8847,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8896,7 +8899,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 bloques por hilo</c:v>
+                  <c:v>4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8914,16 +8917,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8966,7 +8969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32 bloques por hilo</c:v>
+                  <c:v>8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8984,16 +8987,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9036,7 +9039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 bloques por hilo</c:v>
+                  <c:v>12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9054,16 +9057,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9106,7 +9109,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 bloques por hilo</c:v>
+                  <c:v>24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9124,16 +9127,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9177,11 +9180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159709056"/>
-        <c:axId val="159710592"/>
+        <c:axId val="161583104"/>
+        <c:axId val="161584640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159709056"/>
+        <c:axId val="161583104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9191,7 +9194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159710592"/>
+        <c:crossAx val="161584640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9199,7 +9202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159710592"/>
+        <c:axId val="161584640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9210,7 +9213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159709056"/>
+        <c:crossAx val="161583104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9778,11 +9781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159948160"/>
-        <c:axId val="159958144"/>
+        <c:axId val="161609216"/>
+        <c:axId val="161610752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159948160"/>
+        <c:axId val="161609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9792,7 +9795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159958144"/>
+        <c:crossAx val="161610752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9800,7 +9803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159958144"/>
+        <c:axId val="161610752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9811,7 +9814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159948160"/>
+        <c:crossAx val="161609216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10379,11 +10382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160571776"/>
-        <c:axId val="160573312"/>
+        <c:axId val="161708672"/>
+        <c:axId val="161710464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160571776"/>
+        <c:axId val="161708672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10393,7 +10396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160573312"/>
+        <c:crossAx val="161710464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10401,7 +10404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160573312"/>
+        <c:axId val="161710464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10412,7 +10415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160571776"/>
+        <c:crossAx val="161708672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10975,11 +10978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160598656"/>
-        <c:axId val="160612736"/>
+        <c:axId val="162698368"/>
+        <c:axId val="162699904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160598656"/>
+        <c:axId val="162698368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10989,7 +10992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160612736"/>
+        <c:crossAx val="162699904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10997,7 +11000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160612736"/>
+        <c:axId val="162699904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11008,7 +11011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160598656"/>
+        <c:crossAx val="162698368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11036,14 +11039,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11065,15 +11068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>480332</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>480332</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12935,8 +12938,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView topLeftCell="W4" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17:AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17405,15 +17408,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="AI13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
     <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.42578125" customWidth="1"/>
     <col min="42" max="42" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -17460,28 +17465,22 @@
         <v>21</v>
       </c>
       <c r="N1" s="1">
-        <f>'OMP O0'!AD17</f>
         <v>1</v>
       </c>
       <c r="O1" s="1">
-        <f>'OMP O0'!AE17</f>
         <v>2</v>
       </c>
       <c r="P1" s="1">
-        <f>'OMP O0'!AF17</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="1">
-        <f>'OMP O0'!AG17</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1">
-        <f>'OMP O0'!AH17</f>
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="S1" s="1">
-        <f>'OMP O0'!AI17</f>
-        <v>24</v>
+        <v>512</v>
       </c>
       <c r="U1" t="str">
         <f>"Log("&amp;C1&amp;")"</f>
@@ -17612,8 +17611,8 @@
         <v>269330870.19999999</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>'OMP O0'!AC18&amp;" bloque por hilo"</f>
-        <v>1 bloque por hilo</v>
+        <f>C2</f>
+        <v>1 procesador</v>
       </c>
       <c r="N2" s="1">
         <f>'OMP O0'!AD18</f>
@@ -17787,8 +17786,8 @@
         <v>147805353</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f>'OMP O0'!AC19&amp;" bloques por hilo"</f>
-        <v>2 bloques por hilo</v>
+        <f t="shared" ref="M3:M7" si="4">C3</f>
+        <v>2 procesadores</v>
       </c>
       <c r="N3" s="1">
         <f>'OMP O0'!AD19</f>
@@ -17815,11 +17814,11 @@
         <v>4835473.5999999996</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U7" si="4">C3</f>
+        <f t="shared" ref="U3:U7" si="5">C3</f>
         <v>2 procesadores</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V7" si="5">LOG10(D3)</f>
+        <f t="shared" ref="V3:V7" si="6">LOG10(D3)</f>
         <v>3.0088555639962125</v>
       </c>
       <c r="W3">
@@ -17854,7 +17853,7 @@
         <v>24</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" ref="AF3:AF7" si="6">D$2/D3</f>
+        <f t="shared" ref="AF3:AF7" si="7">D$2/D3</f>
         <v>0.7358416617675877</v>
       </c>
       <c r="AG3" s="1">
@@ -17892,35 +17891,35 @@
         <v>24</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AQ7" si="7">AF3/$AO3</f>
+        <f t="shared" ref="AQ3:AQ7" si="8">AF3/$AO3</f>
         <v>0.36792083088379385</v>
       </c>
       <c r="AR3" s="1">
-        <f t="shared" ref="AR3:AR7" si="8">AG3/$AO3</f>
+        <f t="shared" ref="AR3:AR7" si="9">AG3/$AO3</f>
         <v>0.54366387691267226</v>
       </c>
       <c r="AS3" s="1">
-        <f t="shared" ref="AS3:AS7" si="9">AH3/$AO3</f>
+        <f t="shared" ref="AS3:AS7" si="10">AH3/$AO3</f>
         <v>0.72897567209115466</v>
       </c>
       <c r="AT3" s="1">
-        <f t="shared" ref="AT3:AT7" si="10">AI3/$AO3</f>
+        <f t="shared" ref="AT3:AT7" si="11">AI3/$AO3</f>
         <v>1.034439721572431</v>
       </c>
       <c r="AU3" s="1">
-        <f t="shared" ref="AU3:AU7" si="11">AJ3/$AO3</f>
+        <f t="shared" ref="AU3:AU7" si="12">AJ3/$AO3</f>
         <v>0.93650863170188703</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV7" si="12">AK3/$AO3</f>
+        <f t="shared" ref="AV3:AV7" si="13">AK3/$AO3</f>
         <v>0.94412216699420082</v>
       </c>
       <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW7" si="13">AL3/$AO3</f>
+        <f t="shared" ref="AW3:AW7" si="14">AL3/$AO3</f>
         <v>1.068205147354846</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX7" si="14">AM3/$AO3</f>
+        <f t="shared" ref="AX3:AX7" si="15">AM3/$AO3</f>
         <v>0.91109985103178226</v>
       </c>
     </row>
@@ -17962,8 +17961,8 @@
         <v>81986493.799999997</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f>'OMP O0'!AC20&amp;" bloques por hilo"</f>
-        <v>8 bloques por hilo</v>
+        <f t="shared" si="4"/>
+        <v>4 procesadores</v>
       </c>
       <c r="N4" s="1">
         <f>'OMP O0'!AD20</f>
@@ -17990,11 +17989,11 @@
         <v>4133369.6</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4 procesadores</v>
       </c>
       <c r="V4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2268060495007274</v>
       </c>
       <c r="W4">
@@ -18029,7 +18028,7 @@
         <v>25</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44548582275477522</v>
       </c>
       <c r="AG4" s="1">
@@ -18067,35 +18066,35 @@
         <v>25</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1113714556886938</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.43764177479357591</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54181177147791049</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.78574291967323229</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74080896151514286</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.84780640050436873</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.80766383159997135</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.82126597234726484</v>
       </c>
     </row>
@@ -18137,8 +18136,8 @@
         <v>47755538</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>'OMP O0'!AC21&amp;" bloques por hilo"</f>
-        <v>32 bloques por hilo</v>
+        <f t="shared" si="4"/>
+        <v>8 procesadores</v>
       </c>
       <c r="N5" s="1">
         <f>'OMP O0'!AD21</f>
@@ -18165,11 +18164,11 @@
         <v>5304184.4000000004</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8 procesadores</v>
       </c>
       <c r="V5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5084219736424691</v>
       </c>
       <c r="W5">
@@ -18204,7 +18203,7 @@
         <v>26</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23292599714657902</v>
       </c>
       <c r="AG5" s="1">
@@ -18242,35 +18241,35 @@
         <v>26</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9115749643322378E-2</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18829787234042553</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33535075530853642</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.51069785456081873</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.50218020980115863</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.59052418680620455</v>
       </c>
       <c r="AW5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.53530930135089871</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70497287194209812</v>
       </c>
     </row>
@@ -18312,8 +18311,8 @@
         <v>32661632.199999999</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>'OMP O0'!AC22&amp;" bloques por hilo"</f>
-        <v>128 bloques por hilo</v>
+        <f t="shared" si="4"/>
+        <v>12 procesadores</v>
       </c>
       <c r="N6" s="1">
         <f>'OMP O0'!AD22</f>
@@ -18340,11 +18339,11 @@
         <v>5629653.4000000004</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12 procesadores</v>
       </c>
       <c r="V6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6859207921945352</v>
       </c>
       <c r="W6">
@@ -18379,7 +18378,7 @@
         <v>27</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15478153338829348</v>
       </c>
       <c r="AG6" s="1">
@@ -18417,35 +18416,35 @@
         <v>27</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2898461115691123E-2</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.9717794455126227E-2</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24504865111132809</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.40264776752501191</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.44196072554906207</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.54243097202989976</v>
       </c>
       <c r="AW6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.51304319393858433</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.68717445123068088</v>
       </c>
     </row>
@@ -18487,8 +18486,8 @@
         <v>24178014.600000001</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>'OMP O0'!AC23&amp;" bloques por hilo"</f>
-        <v>512 bloques por hilo</v>
+        <f t="shared" si="4"/>
+        <v>24 procesadores</v>
       </c>
       <c r="N7" s="1">
         <f>'OMP O0'!AD23</f>
@@ -18515,11 +18514,11 @@
         <v>9115544.5999999996</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24 procesadores</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9974300737974713</v>
       </c>
       <c r="W7">
@@ -18554,7 +18553,7 @@
         <v>28</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5545719746504369E-2</v>
       </c>
       <c r="AG7" s="1">
@@ -18592,35 +18591,35 @@
         <v>28</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1477383227710154E-3</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6332814675292766E-2</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.448787340226914E-2</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16027213500229837</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21510281752718188</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3365627199047429</v>
       </c>
       <c r="AW7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.37958756735963256</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.46414562061132453</v>
       </c>
     </row>
@@ -18662,28 +18661,28 @@
         <v>22</v>
       </c>
       <c r="N9" s="1">
-        <f>'OMP O2'!AD17</f>
+        <f>N1</f>
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <f>'OMP O2'!AE17</f>
+        <f t="shared" ref="O9:S9" si="16">O1</f>
         <v>2</v>
       </c>
       <c r="P9" s="1">
-        <f>'OMP O2'!AF17</f>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="Q9" s="1">
-        <f>'OMP O2'!AG17</f>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>32</v>
       </c>
       <c r="R9" s="1">
-        <f>'OMP O2'!AH17</f>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>128</v>
       </c>
       <c r="S9" s="1">
-        <f>'OMP O2'!AI17</f>
-        <v>24</v>
+        <f t="shared" si="16"/>
+        <v>512</v>
       </c>
       <c r="U9" t="str">
         <f>"Log("&amp;C9&amp;")"</f>
@@ -18694,31 +18693,31 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <f t="shared" ref="W9" si="15">E9</f>
+        <f t="shared" ref="W9" si="17">E9</f>
         <v>4</v>
       </c>
       <c r="X9">
-        <f t="shared" ref="X9" si="16">F9</f>
+        <f t="shared" ref="X9" si="18">F9</f>
         <v>9</v>
       </c>
       <c r="Y9">
-        <f t="shared" ref="Y9" si="17">G9</f>
+        <f t="shared" ref="Y9" si="19">G9</f>
         <v>14</v>
       </c>
       <c r="Z9">
-        <f t="shared" ref="Z9" si="18">H9</f>
+        <f t="shared" ref="Z9" si="20">H9</f>
         <v>23</v>
       </c>
       <c r="AA9">
-        <f t="shared" ref="AA9" si="19">I9</f>
+        <f t="shared" ref="AA9" si="21">I9</f>
         <v>51</v>
       </c>
       <c r="AB9">
-        <f t="shared" ref="AB9" si="20">J9</f>
+        <f t="shared" ref="AB9" si="22">J9</f>
         <v>124</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9" si="21">K9</f>
+        <f t="shared" ref="AC9" si="23">K9</f>
         <v>888</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -18815,7 +18814,7 @@
       </c>
       <c r="M10" s="1" t="str">
         <f>M2</f>
-        <v>1 bloque por hilo</v>
+        <v>1 procesador</v>
       </c>
       <c r="N10" s="1">
         <f>'OMP O2'!AD18</f>
@@ -18850,31 +18849,31 @@
         <v>2.2681097298084785</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:W15" si="22">LOG10(E10)</f>
+        <f t="shared" ref="W10:W15" si="24">LOG10(E10)</f>
         <v>3.3619921087578137</v>
       </c>
       <c r="X10">
-        <f t="shared" ref="X10:X15" si="23">LOG10(F10)</f>
+        <f t="shared" ref="X10:X15" si="25">LOG10(F10)</f>
         <v>3.9951523768914536</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10:Y15" si="24">LOG10(G10)</f>
+        <f t="shared" ref="Y10:Y15" si="26">LOG10(G10)</f>
         <v>4.4795378817921394</v>
       </c>
       <c r="Z10">
-        <f t="shared" ref="Z10:Z15" si="25">LOG10(H10)</f>
+        <f t="shared" ref="Z10:Z15" si="27">LOG10(H10)</f>
         <v>4.83638488735878</v>
       </c>
       <c r="AA10">
-        <f t="shared" ref="AA10:AA15" si="26">LOG10(I10)</f>
+        <f t="shared" ref="AA10:AA15" si="28">LOG10(I10)</f>
         <v>5.6400883070581704</v>
       </c>
       <c r="AB10">
-        <f t="shared" ref="AB10:AB15" si="27">LOG10(J10)</f>
+        <f t="shared" ref="AB10:AB15" si="29">LOG10(J10)</f>
         <v>6.3326586620825775</v>
       </c>
       <c r="AC10">
-        <f t="shared" ref="AC10:AC15" si="28">LOG10(K10)</f>
+        <f t="shared" ref="AC10:AC15" si="30">LOG10(K10)</f>
         <v>8.0407737497651368</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -18885,31 +18884,31 @@
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" ref="AG10:AM10" si="29">E$10/E10</f>
+        <f t="shared" ref="AG10:AM10" si="31">E$10/E10</f>
         <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AO10">
@@ -18923,37 +18922,37 @@
         <v>1</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" ref="AR10:AR15" si="30">AG10/$AO10</f>
+        <f t="shared" ref="AR10:AR15" si="32">AG10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" ref="AS10:AS15" si="31">AH10/$AO10</f>
+        <f t="shared" ref="AS10:AS15" si="33">AH10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" ref="AT10:AT15" si="32">AI10/$AO10</f>
+        <f t="shared" ref="AT10:AT15" si="34">AI10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" ref="AU10:AU15" si="33">AJ10/$AO10</f>
+        <f t="shared" ref="AU10:AU15" si="35">AJ10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" ref="AV10:AV15" si="34">AK10/$AO10</f>
+        <f t="shared" ref="AV10:AV15" si="36">AK10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AW10" s="1">
-        <f t="shared" ref="AW10:AW15" si="35">AL10/$AO10</f>
+        <f t="shared" ref="AW10:AW15" si="37">AL10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" ref="AX10:AX15" si="36">AM10/$AO10</f>
+        <f t="shared" ref="AX10:AX15" si="38">AM10/$AO10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="str">
-        <f t="shared" ref="C11:C15" si="37">C3</f>
+        <f t="shared" ref="C11:C15" si="39">C3</f>
         <v>2 procesadores</v>
       </c>
       <c r="D11" s="1">
@@ -18989,8 +18988,8 @@
         <v>60393258.399999999</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f t="shared" ref="M11:M15" si="38">M3</f>
-        <v>2 bloques por hilo</v>
+        <f t="shared" ref="M11:M14" si="40">M3</f>
+        <v>2 procesadores</v>
       </c>
       <c r="N11" s="1">
         <f>'OMP O2'!AD19</f>
@@ -19017,62 +19016,62 @@
         <v>2445643.4</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ref="U11:U15" si="39">C11</f>
+        <f t="shared" ref="U11:U15" si="41">C11</f>
         <v>2 procesadores</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:V15" si="40">LOG10(D11)</f>
+        <f t="shared" ref="V11:V15" si="42">LOG10(D11)</f>
         <v>2.553640336231354</v>
       </c>
       <c r="W11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.4234097277330933</v>
       </c>
       <c r="X11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.927903919621254</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.246099555670785</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.6659054181709312</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.3333444826643968</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.068583968094587</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.7809884617488123</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" ref="AF11:AF15" si="41">D$10/D11</f>
+        <f t="shared" ref="AF11:AF15" si="43">D$10/D11</f>
         <v>0.51816657350475126</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" ref="AG11:AG15" si="42">E$10/E11</f>
+        <f t="shared" ref="AG11:AG15" si="44">E$10/E11</f>
         <v>0.8681252357600906</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" ref="AH11:AH15" si="43">F$10/F11</f>
+        <f t="shared" ref="AH11:AH15" si="45">F$10/F11</f>
         <v>1.1674773328296184</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" ref="AI11:AI15" si="44">G$10/G11</f>
+        <f t="shared" ref="AI11:AI15" si="46">G$10/G11</f>
         <v>1.7117420760562423</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" ref="AJ11:AJ15" si="45">H$10/H11</f>
+        <f t="shared" ref="AJ11:AJ15" si="47">H$10/H11</f>
         <v>1.480742253089484</v>
       </c>
       <c r="AK11" s="1">
@@ -19080,11 +19079,11 @@
         <v>2.0264870108471147</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" ref="AL11:AL15" si="46">J$10/J11</f>
+        <f t="shared" ref="AL11:AL15" si="48">J$10/J11</f>
         <v>1.8368542353892541</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" ref="AM11:AM15" si="47">K$10/K11</f>
+        <f t="shared" ref="AM11:AM15" si="49">K$10/K11</f>
         <v>1.8188014343004881</v>
       </c>
       <c r="AO11">
@@ -19094,23 +19093,23 @@
         <v>24</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" ref="AQ11:AQ15" si="48">AF11/$AO11</f>
+        <f t="shared" ref="AQ11:AQ15" si="50">AF11/$AO11</f>
         <v>0.25908328675237563</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.4340626178800453</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.5837386664148092</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.85587103802812114</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.74037112654474202</v>
       </c>
       <c r="AV11" s="1">
@@ -19118,17 +19117,17 @@
         <v>1.0132435054235573</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.91842711769462704</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.90940071715024406</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4 procesadores</v>
       </c>
       <c r="D12" s="1">
@@ -19164,8 +19163,8 @@
         <v>36358419.600000001</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>8 bloques por hilo</v>
+        <f t="shared" si="40"/>
+        <v>4 procesadores</v>
       </c>
       <c r="N12" s="1">
         <f>'OMP O2'!AD20</f>
@@ -19192,62 +19191,62 @@
         <v>2811537.8</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4 procesadores</v>
       </c>
       <c r="V12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.1305267453841634</v>
       </c>
       <c r="W12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.3658996207237877</v>
       </c>
       <c r="X12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.7325224206095422</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.062717327650617</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.4176775813551066</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.0573229441829506</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.783392983222539</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.5606049973795217</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.13727232341181697</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.99104297648781337</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.8307538507109002</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2.6110822600747818</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.6224505397058375</v>
       </c>
       <c r="AK12" s="1">
@@ -19255,11 +19254,11 @@
         <v>3.8261796970987589</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.5421396456626009</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3.0211254011711772</v>
       </c>
       <c r="AO12">
@@ -19269,41 +19268,41 @@
         <v>25</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3.4318080852954243E-2</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.24776074412195334</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.45768846267772506</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.65277056501869546</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.65561263492645938</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.95654492427468973</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.88553491141565022</v>
       </c>
       <c r="AX12" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.75528135029279431</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8 procesadores</v>
       </c>
       <c r="D13" s="1">
@@ -19339,8 +19338,8 @@
         <v>18838726</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>32 bloques por hilo</v>
+        <f t="shared" si="40"/>
+        <v>8 procesadores</v>
       </c>
       <c r="N13" s="1">
         <f>'OMP O2'!AD21</f>
@@ -19367,74 +19366,74 @@
         <v>3651355.2</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8 procesadores</v>
       </c>
       <c r="V13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.4096964782179531</v>
       </c>
       <c r="W13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.5357244028061992</v>
       </c>
       <c r="X13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.8258673289207414</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.9756615331810585</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.3005998311603166</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.916145358254095</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.6842105048773677</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.275051529567361</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7.217939733707078E-2</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.67029766412302672</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.4766754270696452</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3.1906292966684298</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>3.433879540745338</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" ref="AK11:AK15" si="49">I$10/I13</f>
+        <f t="shared" ref="AK13:AK15" si="51">I$10/I13</f>
         <v>5.2959386909974846</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4.4509032822738996</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5.8307204531771415</v>
       </c>
       <c r="AO13">
@@ -19444,41 +19443,41 @@
         <v>26</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.0224246671338475E-3</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8.3787208015378339E-2</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.18458442838370565</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.39882866208355372</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.42923494259316725</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.66199233637468557</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.55636291028423746</v>
       </c>
       <c r="AX13" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.72884005664714269</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12 procesadores</v>
       </c>
       <c r="D14" s="1">
@@ -19514,8 +19513,8 @@
         <v>13113761.800000001</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>128 bloques por hilo</v>
+        <f t="shared" si="40"/>
+        <v>12 procesadores</v>
       </c>
       <c r="N14" s="1">
         <f>'OMP O2'!AD22</f>
@@ -19542,74 +19541,74 @@
         <v>4354875</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12 procesadores</v>
       </c>
       <c r="V14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.5621500592328821</v>
       </c>
       <c r="W14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.7487615372999561</v>
       </c>
       <c r="X14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.8406078790092901</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0063462203469946</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.2441187167216121</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.7970971143452665</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.5170136936597682</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.1177272908231677</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0811225608419205E-2</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.41042194243321328</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.4273960739030023</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2.9729777672658466</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>3.9108050799151832</v>
       </c>
       <c r="AK14" s="1">
+        <f t="shared" si="51"/>
+        <v>6.9661238699713124</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" si="48"/>
+        <v>6.5410123395223527</v>
+      </c>
+      <c r="AM14" s="1">
         <f t="shared" si="49"/>
-        <v>6.9661238699713124</v>
-      </c>
-      <c r="AL14" s="1">
-        <f t="shared" si="46"/>
-        <v>6.5410123395223527</v>
-      </c>
-      <c r="AM14" s="1">
-        <f t="shared" si="47"/>
         <v>8.3761888217307714</v>
       </c>
       <c r="AO14">
@@ -19619,41 +19618,41 @@
         <v>27</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4.2342688007016007E-3</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.4201828536101105E-2</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.11894967282525019</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.24774814727215388</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.32590042332626529</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.58051032249760937</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.54508436162686269</v>
       </c>
       <c r="AX14" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.69801573514423099</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>24 procesadores</v>
       </c>
       <c r="D15" s="1">
@@ -19689,8 +19688,8 @@
         <v>9648851.1999999993</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>512 bloques por hilo</v>
+        <f>M7</f>
+        <v>24 procesadores</v>
       </c>
       <c r="N15" s="1">
         <f>'OMP O2'!AD23</f>
@@ -19717,74 +19716,74 @@
         <v>6757349.4000000004</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>24 procesadores</v>
       </c>
       <c r="V15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.9489701484173123</v>
       </c>
       <c r="W15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9955211224810658</v>
       </c>
       <c r="X15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.0415900468893664</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.2139743893350694</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.4306747807527342</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.846016531528357</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.4294573762843701</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.984475608970695</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.0851609420338757E-2</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.23252571382383255</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.89859154929577467</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.8431619336233442</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.5451307999347113</v>
       </c>
       <c r="AK15" s="1">
+        <f t="shared" si="51"/>
+        <v>6.2240314077909336</v>
+      </c>
+      <c r="AL15" s="1">
+        <f t="shared" si="48"/>
+        <v>8.0020504625072615</v>
+      </c>
+      <c r="AM15" s="1">
         <f t="shared" si="49"/>
-        <v>6.2240314077909336</v>
-      </c>
-      <c r="AL15" s="1">
-        <f t="shared" si="46"/>
-        <v>8.0020504625072615</v>
-      </c>
-      <c r="AM15" s="1">
-        <f t="shared" si="47"/>
         <v>11.384085288826924</v>
       </c>
       <c r="AO15">
@@ -19794,35 +19793,35 @@
         <v>28</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8.688170591807815E-4</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.6885714093263558E-3</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.7441314553990614E-2</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7.6798413900972681E-2</v>
       </c>
       <c r="AU15" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.1060471166639463</v>
       </c>
       <c r="AV15" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.25933464199128892</v>
       </c>
       <c r="AW15" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.3334187692711359</v>
       </c>
       <c r="AX15" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.47433688703445515</v>
       </c>
     </row>
@@ -19835,31 +19834,31 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:K48" si="50">E1*100</f>
+        <f t="shared" ref="E48:K48" si="52">E1*100</f>
         <v>400</v>
       </c>
       <c r="F48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>900</v>
       </c>
       <c r="G48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1400</v>
       </c>
       <c r="H48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2300</v>
       </c>
       <c r="I48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5100</v>
       </c>
       <c r="J48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>12400</v>
       </c>
       <c r="K48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>88800</v>
       </c>
     </row>
@@ -19872,31 +19871,31 @@
         <v>190000</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:K49" si="51">19*E48*E48</f>
+        <f t="shared" ref="E49:K49" si="53">19*E48*E48</f>
         <v>3040000</v>
       </c>
       <c r="F49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>15390000</v>
       </c>
       <c r="G49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>37240000</v>
       </c>
       <c r="H49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100510000</v>
       </c>
       <c r="I49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>494190000</v>
       </c>
       <c r="J49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2921440000</v>
       </c>
       <c r="K49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>149823360000</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -19907,31 +19906,31 @@
         <v>1</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" ref="O49:U49" si="52">E1</f>
+        <f t="shared" ref="O49:U49" si="54">E1</f>
         <v>4</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>23</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>51</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>124</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>888</v>
       </c>
     </row>
@@ -19945,31 +19944,31 @@
         <v>252.99600532623168</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ref="E50:K50" si="53">E$49/(E2/1000000)/10^6</f>
+        <f t="shared" ref="E50:K50" si="55">E$49/(E2/1000000)/10^6</f>
         <v>393.92525786554711</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>510.94938978234018</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>427.9131763705517</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>489.63537728863491</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>460.29352455802263</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>522.12013688675188</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>556.27993883042086</v>
       </c>
       <c r="M50" s="1" t="str">
@@ -19981,37 +19980,37 @@
         <v>4.0507011866235167</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" ref="O50:U50" si="54">E2/E10</f>
+        <f t="shared" ref="O50:U50" si="56">E2/E10</f>
         <v>3.3532632310767356</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>3.0458489230458086</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.8848028003739135</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.9919311583218673</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.4590693730666144</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.6011647860080638</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.4519543737492699</v>
       </c>
     </row>
     <row r="51" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="str">
-        <f t="shared" ref="C51:C55" si="55">"MOPS "&amp;C3</f>
+        <f t="shared" ref="C51:C55" si="57">"MOPS "&amp;C3</f>
         <v>MOPS 2 procesadores</v>
       </c>
       <c r="D51" s="1">
@@ -20019,73 +20018,73 @@
         <v>186.1650009798158</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" ref="E51:K51" si="56">E$49/(E3/1000000)/10^6</f>
+        <f t="shared" ref="E51:K51" si="58">E$49/(E3/1000000)/10^6</f>
         <v>428.32586581001499</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>744.93934964229356</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>885.30077404385599</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>917.09551443483338</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>869.14663971823745</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1115.46283552009</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1013.6531388007307</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" ref="M51:M55" si="57">C11</f>
+        <f t="shared" ref="M51:M55" si="59">C11</f>
         <v>2 procesadores</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" ref="N51:N55" si="58">D3/D11</f>
+        <f t="shared" ref="N51:N55" si="60">D3/D11</f>
         <v>2.8524315259921744</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" ref="O51:O55" si="59">E3/E11</f>
+        <f t="shared" ref="O51:O55" si="61">E3/E11</f>
         <v>2.6772538664654846</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" ref="P51:P55" si="60">F3/F11</f>
+        <f t="shared" ref="P51:P55" si="62">F3/F11</f>
         <v>2.4390111446921043</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" ref="Q51:Q55" si="61">G3/G11</f>
+        <f t="shared" ref="Q51:Q55" si="63">G3/G11</f>
         <v>2.3868178258945294</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" ref="R51:R55" si="62">H3/H11</f>
+        <f t="shared" ref="R51:R55" si="64">H3/H11</f>
         <v>2.3653166316316532</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" ref="S51:S55" si="63">I3/I11</f>
+        <f t="shared" ref="S51:S55" si="65">I3/I11</f>
         <v>2.6391034537175848</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" ref="T51:T55" si="64">J3/J11</f>
+        <f t="shared" ref="T51:T55" si="66">J3/J11</f>
         <v>2.2364433301766842</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" ref="U51:U55" si="65">K3/K11</f>
+        <f t="shared" ref="U51:U55" si="67">K3/K11</f>
         <v>2.4473816600695284</v>
       </c>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>MOPS 4 procesadores</v>
       </c>
       <c r="D52" s="1">
@@ -20093,73 +20092,73 @@
         <v>112.70613358642782</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ref="E52:K52" si="66">E$49/(E4/1000000)/10^6</f>
+        <f t="shared" ref="E52:K52" si="68">E$49/(E4/1000000)/10^6</f>
         <v>689.59259595318031</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="68"/>
+        <v>1107.3535760541083</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="68"/>
+        <v>1344.9189942721762</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="68"/>
+        <v>1450.905101481075</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="68"/>
+        <v>1560.9591849240257</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="68"/>
+        <v>1686.790201253822</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="68"/>
+        <v>1827.4151394433704</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>4 procesadores</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="60"/>
+        <v>1.2481859914112248</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="61"/>
+        <v>1.8983722332271122</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="62"/>
+        <v>2.5729413507109005</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="63"/>
+        <v>2.3966036560033235</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="64"/>
+        <v>2.6478457633856221</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="65"/>
+        <v>2.7744663473251201</v>
+      </c>
+      <c r="T52" s="1">
         <f t="shared" si="66"/>
-        <v>1107.3535760541083</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="66"/>
-        <v>1344.9189942721762</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="66"/>
-        <v>1450.905101481075</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="66"/>
-        <v>1560.9591849240257</v>
-      </c>
-      <c r="J52" s="1">
-        <f t="shared" si="66"/>
-        <v>1686.790201253822</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="66"/>
-        <v>1827.4151394433704</v>
-      </c>
-      <c r="M52" s="1" t="str">
-        <f t="shared" si="57"/>
-        <v>4 procesadores</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="58"/>
-        <v>1.2481859914112248</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="59"/>
-        <v>1.8983722332271122</v>
-      </c>
-      <c r="P52" s="1">
-        <f t="shared" si="60"/>
-        <v>2.5729413507109005</v>
-      </c>
-      <c r="Q52" s="1">
-        <f t="shared" si="61"/>
-        <v>2.3966036560033235</v>
-      </c>
-      <c r="R52" s="1">
-        <f t="shared" si="62"/>
-        <v>2.6478457633856221</v>
-      </c>
-      <c r="S52" s="1">
-        <f t="shared" si="63"/>
-        <v>2.7744663473251201</v>
-      </c>
-      <c r="T52" s="1">
-        <f t="shared" si="64"/>
         <v>2.8519566411586248</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2.2549520771799441</v>
       </c>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>MOPS 8 procesadores</v>
       </c>
       <c r="D53" s="1">
@@ -20167,73 +20166,73 @@
         <v>58.929346814713732</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" ref="E53:K53" si="67">E$49/(E5/1000000)/10^6</f>
+        <f t="shared" ref="E53:K53" si="69">E$49/(E5/1000000)/10^6</f>
         <v>593.40230333788804</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="69"/>
+        <v>1370.7781103035484</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="69"/>
+        <v>1748.2747288859678</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="69"/>
+        <v>1967.0815719430091</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="69"/>
+        <v>2174.5156742543045</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="69"/>
+        <v>2235.9661255846618</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="69"/>
+        <v>3137.2981286484514</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>8 procesadores</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="60"/>
+        <v>1.2552363155026085</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="61"/>
+        <v>1.4921069493796237</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="62"/>
+        <v>1.6765022100107514</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="63"/>
+        <v>2.2528820729772607</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="64"/>
+        <v>2.5573317584408564</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="65"/>
+        <v>2.7566780767915149</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="66"/>
+        <v>2.7034680825089543</v>
+      </c>
+      <c r="U53" s="1">
         <f t="shared" si="67"/>
-        <v>1370.7781103035484</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="67"/>
-        <v>1748.2747288859678</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="67"/>
-        <v>1967.0815719430091</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="67"/>
-        <v>2174.5156742543045</v>
-      </c>
-      <c r="J53" s="1">
-        <f t="shared" si="67"/>
-        <v>2235.9661255846618</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="67"/>
-        <v>3137.2981286484514</v>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f t="shared" si="57"/>
-        <v>8 procesadores</v>
-      </c>
-      <c r="N53" s="1">
-        <f t="shared" si="58"/>
-        <v>1.2552363155026085</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="59"/>
-        <v>1.4921069493796237</v>
-      </c>
-      <c r="P53" s="1">
-        <f t="shared" si="60"/>
-        <v>1.6765022100107514</v>
-      </c>
-      <c r="Q53" s="1">
-        <f t="shared" si="61"/>
-        <v>2.2528820729772607</v>
-      </c>
-      <c r="R53" s="1">
-        <f t="shared" si="62"/>
-        <v>2.5573317584408564</v>
-      </c>
-      <c r="S53" s="1">
-        <f t="shared" si="63"/>
-        <v>2.7566780767915149</v>
-      </c>
-      <c r="T53" s="1">
-        <f t="shared" si="64"/>
-        <v>2.7034680825089543</v>
-      </c>
-      <c r="U53" s="1">
-        <f t="shared" si="65"/>
         <v>2.534966430320182</v>
       </c>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>MOPS 12 procesadores</v>
       </c>
       <c r="D54" s="1">
@@ -20241,141 +20240,141 @@
         <v>39.159109645507009</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" ref="E54:K54" si="68">E$49/(E6/1000000)/10^6</f>
+        <f t="shared" ref="E54:K54" si="70">E$49/(E6/1000000)/10^6</f>
         <v>471.37629473423061</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1502.489505027824</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>2067.5794219216718</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>2596.7952792116862</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>2996.1295673409204</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>3214.4421917763607</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>4587.1363403571731</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>12 procesadores</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.3297522473141854</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.1501230516817063</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.4784930715935334</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.7750118259224219</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>2.2062404523586951</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>2.6316991993668966</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2.7636157415572487</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2.4906379037630528</v>
       </c>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>MOPS 24 procesadores</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55:K55" si="69">D$49/(D7/1000000)/10^6</f>
+        <f t="shared" ref="D55:K55" si="71">D$49/(D7/1000000)/10^6</f>
         <v>19.11276531536063</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>248.95585947096882</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1036.0566566135285</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1645.9814009405609</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>2527.7267811784827</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>3718.023373914928</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>4756.5675031276924</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6196.6775386098079</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>24 procesadores</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.1180466518208607</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.2337583607816194</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.3497864606996819</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.3823256268634829</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.4750419183001202</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.8948084198881796</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2.2847881126742537</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2.5057920470366466</v>
       </c>
     </row>
@@ -20409,31 +20408,31 @@
         <v>1024.8112189859762</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ref="E57:K57" si="70">E$49/(E10/1000000)/10^6</f>
+        <f t="shared" ref="E57:K57" si="72">E$49/(E10/1000000)/10^6</f>
         <v>1320.935082992961</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1556.2746485994539</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1234.4451295106637</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1464.95534152655</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1131.8937088615191</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1358.1205141355288</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1363.9730290442267</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -20471,319 +20470,319 @@
         <v>1 procesador</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f t="shared" ref="W57:AA57" si="71">O57</f>
+        <f t="shared" ref="W57:AA57" si="73">O57</f>
         <v>2 procesadores</v>
       </c>
       <c r="X57" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>4 procesadores</v>
       </c>
       <c r="Y57" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>8 procesadores</v>
       </c>
       <c r="Z57" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>12 procesadores</v>
       </c>
       <c r="AA57" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>24 procesadores</v>
       </c>
     </row>
     <row r="58" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="str">
-        <f t="shared" ref="C58:C62" si="72">"MOPS "&amp;C12</f>
+        <f t="shared" ref="C58:C62" si="74">"MOPS "&amp;C12</f>
         <v>MOPS 4 procesadores</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:K62" si="73">D$49/(D11/1000000)/10^6</f>
+        <f t="shared" ref="D58:K62" si="75">D$49/(D11/1000000)/10^6</f>
         <v>531.02291783119063</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1146.7370803470387</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1816.9153758972423</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2113.0516687661006</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2169.2212730874985</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2293.7678986674341</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2494.6694185588772</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2480.7961015728206</v>
       </c>
       <c r="M58" s="1" t="str">
         <f>M2</f>
-        <v>1 bloque por hilo</v>
+        <v>1 procesador</v>
       </c>
       <c r="N58" s="1">
         <f>$N$2/N2</f>
         <v>1</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" ref="O58:S58" si="74">$N$2/O2</f>
+        <f>$N$2/O2</f>
         <v>0.99284284618207286</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="74"/>
+        <f>$N$2/P2</f>
         <v>0.96283686268854829</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="74"/>
+        <f>$N$2/Q2</f>
         <v>0.95263222053821539</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="74"/>
+        <f>$N$2/R2</f>
         <v>0.90694147443919582</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="74"/>
+        <f>$N$2/S2</f>
         <v>0.87410982137813431</v>
       </c>
       <c r="U58" s="1" t="str">
         <f>M58</f>
-        <v>1 bloque por hilo</v>
+        <v>1 procesador</v>
       </c>
       <c r="V58" s="1">
         <f>N58/V$56</f>
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" ref="W58:AA63" si="75">O58/W$56</f>
+        <f t="shared" ref="W58:AA63" si="76">O58/W$56</f>
         <v>0.49642142309103643</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.24070921567213707</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.11907902756727692</v>
       </c>
       <c r="Z58" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7.5578456203266323E-2</v>
       </c>
       <c r="AA58" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.6421242557422261E-2</v>
       </c>
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>MOPS 8 procesadores</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>140.6782170887013</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1309.1034363965207</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2849.1558056872036</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3223.2377787010105</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3841.7729260312503</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4330.828728119759</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4810.6525167071313</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4120.7335645579051</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" ref="M59:M63" si="76">M3</f>
-        <v>2 bloques por hilo</v>
+        <f t="shared" ref="M59:M63" si="77">M3</f>
+        <v>2 procesadores</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" ref="N59:S59" si="77">$N$2/N3</f>
+        <f>$N$2/N3</f>
         <v>2.1364102947096919</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="O59" si="78">$N$2/O3</f>
         <v>1.9416942119450058</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="77"/>
+        <f>$N$2/P3</f>
         <v>1.7920287470673528</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="77"/>
+        <f>$N$2/Q3</f>
         <v>1.7015948097066804</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="77"/>
+        <f>$N$2/R3</f>
         <v>1.5308062641977398</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="77"/>
+        <f>$N$2/S3</f>
         <v>1.1571442764158613</v>
       </c>
       <c r="U59" s="1" t="str">
-        <f t="shared" ref="U59:U63" si="78">M59</f>
-        <v>2 bloques por hilo</v>
+        <f t="shared" ref="U59:U63" si="79">M59</f>
+        <v>2 procesadores</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ref="V59:V63" si="79">N59/V$56</f>
+        <f t="shared" ref="V59:V62" si="80">N59/V$56</f>
         <v>2.1364102947096919</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.9708471059725029</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.44800718676683821</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.21269935121333505</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.12756718868314498</v>
       </c>
       <c r="AA59" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.8214344850660888E-2</v>
       </c>
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>MOPS 12 procesadores</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>73.970256170676635</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>885.41970058833806</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2298.1125313582606</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3938.6567953463777</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>5030.4801753736201</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>5994.4396868563617</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6044.8630540893409</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7952.9454380301504</v>
       </c>
       <c r="M60" s="1" t="str">
+        <f t="shared" si="77"/>
+        <v>4 procesadores</v>
+      </c>
+      <c r="N60" s="1">
+        <f>$N$2/N4</f>
+        <v>3.2306553263998854</v>
+      </c>
+      <c r="O60" s="1">
+        <f>$N$2/O4</f>
+        <v>3.3719192808649234</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" ref="P60" si="81">$N$2/P4</f>
+        <v>3.4349606013436476</v>
+      </c>
+      <c r="Q60" s="1">
+        <f>$N$2/Q4</f>
+        <v>2.9707913855161205</v>
+      </c>
+      <c r="R60" s="1">
+        <f>$N$2/R4</f>
+        <v>2.2630595867965404</v>
+      </c>
+      <c r="S60" s="1">
+        <f>$N$2/S4</f>
+        <v>1.3536995578619437</v>
+      </c>
+      <c r="U60" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>4 procesadores</v>
+      </c>
+      <c r="V60" s="1">
+        <f t="shared" si="80"/>
+        <v>3.2306553263998854</v>
+      </c>
+      <c r="W60" s="1">
         <f t="shared" si="76"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" ref="N60:S60" si="80">$N$2/N4</f>
-        <v>3.2306553263998854</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="80"/>
-        <v>3.3719192808649234</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="80"/>
-        <v>3.4349606013436476</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="80"/>
-        <v>2.9707913855161205</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="80"/>
-        <v>2.2630595867965404</v>
-      </c>
-      <c r="S60" s="1">
-        <f t="shared" si="80"/>
-        <v>1.3536995578619437</v>
-      </c>
-      <c r="U60" s="1" t="str">
-        <f t="shared" si="78"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="V60" s="1">
-        <f t="shared" si="79"/>
-        <v>3.2306553263998854</v>
-      </c>
-      <c r="W60" s="1">
-        <f t="shared" si="75"/>
         <v>1.6859596404324617</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.85874015033591189</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.37134892318951507</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.18858829889971171</v>
       </c>
       <c r="AA60" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5.6404148244247658E-2</v>
       </c>
     </row>
     <row r="61" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>MOPS 24 procesadores</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>52.071914053935537</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>542.14074259014876</v>
       </c>
       <c r="F61" s="1">
@@ -20791,180 +20790,180 @@
         <v>2221.4203233256349</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3669.9779249448125</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>5729.1547914909142</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7884.9117835705874</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>8883.4830415189354</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>11424.89563902251</v>
       </c>
       <c r="M61" s="1" t="str">
+        <f t="shared" si="77"/>
+        <v>8 procesadores</v>
+      </c>
+      <c r="N61" s="1">
+        <f>$N$2/N5</f>
+        <v>4.2824744108071897</v>
+      </c>
+      <c r="O61" s="1">
+        <f>$N$2/O5</f>
+        <v>4.2992955885073876</v>
+      </c>
+      <c r="P61" s="1">
+        <f>$N$2/P5</f>
+        <v>4.1172962864468916</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" ref="Q61" si="82">$N$2/Q5</f>
+        <v>3.4208687805268734</v>
+      </c>
+      <c r="R61" s="1">
+        <f>$N$2/R5</f>
+        <v>2.3617008039339527</v>
+      </c>
+      <c r="S61" s="1">
+        <f>$N$2/S5</f>
+        <v>1.0548917944858778</v>
+      </c>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>8 procesadores</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="80"/>
+        <v>4.2824744108071897</v>
+      </c>
+      <c r="W61" s="1">
         <f t="shared" si="76"/>
-        <v>32 bloques por hilo</v>
-      </c>
-      <c r="N61" s="1">
-        <f t="shared" ref="N61:S61" si="81">$N$2/N5</f>
-        <v>4.2824744108071897</v>
-      </c>
-      <c r="O61" s="1">
-        <f t="shared" si="81"/>
-        <v>4.2992955885073876</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="81"/>
-        <v>4.1172962864468916</v>
-      </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="81"/>
-        <v>3.4208687805268734</v>
-      </c>
-      <c r="R61" s="1">
-        <f t="shared" si="81"/>
-        <v>2.3617008039339527</v>
-      </c>
-      <c r="S61" s="1">
-        <f t="shared" si="81"/>
-        <v>1.0548917944858778</v>
-      </c>
-      <c r="U61" s="1" t="str">
-        <f t="shared" si="78"/>
-        <v>32 bloques por hilo</v>
-      </c>
-      <c r="V61" s="1">
-        <f t="shared" si="79"/>
-        <v>4.2824744108071897</v>
-      </c>
-      <c r="W61" s="1">
-        <f t="shared" si="75"/>
         <v>2.1496477942536938</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.0293240716117229</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.42760859756585917</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.1968084003278294</v>
       </c>
       <c r="AA61" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.3953824770244905E-2</v>
       </c>
     </row>
     <row r="62" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">MOPS </v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>21.368963267876826</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>307.15137308788167</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1398.4552476147205</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2275.2822718607945</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3728.5029602480968</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7044.9419942350623</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>10867.748888278809</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>15527.585294299079</v>
       </c>
       <c r="M62" s="1" t="str">
+        <f t="shared" si="77"/>
+        <v>12 procesadores</v>
+      </c>
+      <c r="N62" s="1">
+        <f>$N$2/N6</f>
+        <v>6.1565183272630124</v>
+      </c>
+      <c r="O62" s="1">
+        <f>$N$2/O6</f>
+        <v>6.5337932438968505</v>
+      </c>
+      <c r="P62" s="1">
+        <f>$N$2/P6</f>
+        <v>6.1592494517005534</v>
+      </c>
+      <c r="Q62" s="1">
+        <f>$N$2/Q6</f>
+        <v>4.5460739911173738</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" ref="R62" si="83">$N$2/R6</f>
+        <v>2.5391991268046503</v>
+      </c>
+      <c r="S62" s="1">
+        <f>$N$2/S6</f>
+        <v>0.99390498889327705</v>
+      </c>
+      <c r="U62" s="1" t="str">
+        <f t="shared" si="79"/>
+        <v>12 procesadores</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="80"/>
+        <v>6.1565183272630124</v>
+      </c>
+      <c r="W62" s="1">
         <f t="shared" si="76"/>
-        <v>128 bloques por hilo</v>
-      </c>
-      <c r="N62" s="1">
-        <f t="shared" ref="N62:S62" si="82">$N$2/N6</f>
-        <v>6.1565183272630124</v>
-      </c>
-      <c r="O62" s="1">
-        <f t="shared" si="82"/>
-        <v>6.5337932438968505</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="82"/>
-        <v>6.1592494517005534</v>
-      </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="82"/>
-        <v>4.5460739911173738</v>
-      </c>
-      <c r="R62" s="1">
-        <f t="shared" si="82"/>
-        <v>2.5391991268046503</v>
-      </c>
-      <c r="S62" s="1">
-        <f t="shared" si="82"/>
-        <v>0.99390498889327705</v>
-      </c>
-      <c r="U62" s="1" t="str">
-        <f t="shared" si="78"/>
-        <v>128 bloques por hilo</v>
-      </c>
-      <c r="V62" s="1">
-        <f t="shared" si="79"/>
-        <v>6.1565183272630124</v>
-      </c>
-      <c r="W62" s="1">
-        <f t="shared" si="75"/>
         <v>3.2668966219484252</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.5398123629251383</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.56825924888967172</v>
       </c>
       <c r="Z62" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.21159992723372087</v>
       </c>
       <c r="AA62" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4.1412707870553213E-2</v>
       </c>
     </row>
     <row r="63" spans="3:27" x14ac:dyDescent="0.25">
       <c r="M63" s="1" t="str">
-        <f t="shared" si="76"/>
-        <v>512 bloques por hilo</v>
+        <f t="shared" si="77"/>
+        <v>24 procesadores</v>
       </c>
       <c r="N63" s="1">
         <f>$N$2/N7</f>
@@ -20975,47 +20974,47 @@
         <v>6.9438932827661688</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" ref="N63:S63" si="83">$N$2/P7</f>
+        <f>$N$2/P7</f>
         <v>5.4106617295812409</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="83"/>
+        <f>$N$2/Q7</f>
         <v>2.8289231109606487</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="83"/>
+        <f>$N$2/R7</f>
         <v>1.3804190484949808</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="S63" si="84">$N$2/S7</f>
         <v>0.61382406049551885</v>
       </c>
       <c r="U63" s="1" t="str">
-        <f t="shared" si="78"/>
-        <v>512 bloques por hilo</v>
+        <f t="shared" si="79"/>
+        <v>24 procesadores</v>
       </c>
       <c r="V63" s="1">
         <f>N63/V$56</f>
         <v>9.1101016166311819</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.4719466413830844</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.3526654323953102</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.35361538887008109</v>
       </c>
       <c r="Z63" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.11503492070791506</v>
       </c>
       <c r="AA63" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.557600252064662E-2</v>
       </c>
     </row>
@@ -21041,27 +21040,27 @@
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D65" t="str">
-        <f>N65</f>
+        <f t="shared" ref="D65:I65" si="85">N65</f>
         <v>1 procesador</v>
       </c>
       <c r="E65" t="str">
-        <f>O65</f>
+        <f t="shared" si="85"/>
         <v>2 procesadores</v>
       </c>
       <c r="F65" t="str">
-        <f>P65</f>
+        <f t="shared" si="85"/>
         <v>4 procesadores</v>
       </c>
       <c r="G65" t="str">
-        <f>Q65</f>
+        <f t="shared" si="85"/>
         <v>8 procesadores</v>
       </c>
       <c r="H65" t="str">
-        <f>R65</f>
+        <f t="shared" si="85"/>
         <v>12 procesadores</v>
       </c>
       <c r="I65" t="str">
-        <f>S65</f>
+        <f t="shared" si="85"/>
         <v>24 procesadores</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -21072,23 +21071,23 @@
         <v>1 procesador</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f t="shared" ref="O65:S65" si="84">O57</f>
+        <f t="shared" ref="O65:S65" si="86">O57</f>
         <v>2 procesadores</v>
       </c>
       <c r="P65" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>4 procesadores</v>
       </c>
       <c r="Q65" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>8 procesadores</v>
       </c>
       <c r="R65" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>12 procesadores</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>24 procesadores</v>
       </c>
       <c r="U65" s="1" t="s">
@@ -21099,23 +21098,23 @@
         <v>1 procesador</v>
       </c>
       <c r="W65" s="1" t="str">
-        <f t="shared" ref="W65" si="85">O65</f>
+        <f t="shared" ref="W65" si="87">O65</f>
         <v>2 procesadores</v>
       </c>
       <c r="X65" s="1" t="str">
-        <f t="shared" ref="X65" si="86">P65</f>
+        <f t="shared" ref="X65" si="88">P65</f>
         <v>4 procesadores</v>
       </c>
       <c r="Y65" s="1" t="str">
-        <f t="shared" ref="Y65" si="87">Q65</f>
+        <f t="shared" ref="Y65" si="89">Q65</f>
         <v>8 procesadores</v>
       </c>
       <c r="Z65" s="1" t="str">
-        <f t="shared" ref="Z65" si="88">R65</f>
+        <f t="shared" ref="Z65" si="90">R65</f>
         <v>12 procesadores</v>
       </c>
       <c r="AA65" s="1" t="str">
-        <f t="shared" ref="AA65" si="89">S65</f>
+        <f t="shared" ref="AA65" si="91">S65</f>
         <v>24 procesadores</v>
       </c>
     </row>
@@ -21131,79 +21130,79 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:I66" ca="1" si="90">INDIRECT($B66&amp;E$64)</f>
+        <f ca="1">INDIRECT($B66&amp;E$64)</f>
         <v>0.36792083088379385</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ref="E66:I66" ca="1" si="92">INDIRECT($B66&amp;F$64)</f>
         <v>0.1113714556886938</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="92"/>
         <v>2.9115749643322378E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="92"/>
         <v>1.2898461115691123E-2</v>
       </c>
       <c r="I66">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="92"/>
         <v>3.1477383227710154E-3</v>
       </c>
       <c r="M66" s="1" t="str">
         <f>M10</f>
-        <v>1 bloque por hilo</v>
+        <v>1 procesador</v>
       </c>
       <c r="N66" s="1">
         <f>$N$10/N10</f>
         <v>1</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" ref="O66:S66" si="91">$N$10/O10</f>
+        <f>$N$10/O10</f>
         <v>1.0233004910969938</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="91"/>
+        <f>$N$10/P10</f>
         <v>1.0091938339206055</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="91"/>
+        <f>$N$10/Q10</f>
         <v>1.0173816921368732</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="91"/>
+        <f>$N$10/R10</f>
         <v>1.0029483858105226</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="91"/>
+        <f>$N$10/S10</f>
         <v>0.99447831148285226</v>
       </c>
       <c r="U66" s="1" t="str">
         <f>M66</f>
-        <v>1 bloque por hilo</v>
+        <v>1 procesador</v>
       </c>
       <c r="V66" s="1">
         <f>N66/V$56</f>
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" ref="W66:W71" si="92">O66/W$56</f>
+        <f t="shared" ref="W66:W71" si="93">O66/W$56</f>
         <v>0.51165024554849692</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" ref="X66:X71" si="93">P66/X$56</f>
+        <f t="shared" ref="X66:X71" si="94">P66/X$56</f>
         <v>0.25229845848015137</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" ref="Y66:Y71" si="94">Q66/Y$56</f>
+        <f t="shared" ref="Y66:Y71" si="95">Q66/Y$56</f>
         <v>0.12717271151710915</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" ref="Z66:Z71" si="95">R66/Z$56</f>
+        <f t="shared" ref="Z66:Z71" si="96">R66/Z$56</f>
         <v>8.3579032150876878E-2</v>
       </c>
       <c r="AA66" s="1">
-        <f t="shared" ref="AA66:AA71" si="96">S66/AA$56</f>
+        <f t="shared" ref="AA66:AA71" si="97">S66/AA$56</f>
         <v>4.1436596311785513E-2</v>
       </c>
     </row>
@@ -21215,83 +21214,83 @@
         <v>37</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:I73" ca="1" si="97">INDIRECT($B67&amp;D$64)</f>
+        <f t="shared" ref="D67:I73" ca="1" si="98">INDIRECT($B67&amp;D$64)</f>
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.54366387691267226</v>
       </c>
       <c r="F67">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.43764177479357591</v>
       </c>
       <c r="G67">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.18829787234042553</v>
       </c>
       <c r="H67">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>9.9717794455126227E-2</v>
       </c>
       <c r="I67">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>2.6332814675292766E-2</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" ref="M67:M71" si="98">M11</f>
-        <v>2 bloques por hilo</v>
+        <f t="shared" ref="M67:M71" si="99">M11</f>
+        <v>2 procesadores</v>
       </c>
       <c r="N67" s="1">
         <f>$N$10/N11</f>
         <v>1.8368542353892541</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="N67:S67" si="99">$N$10/O11</f>
+        <f t="shared" ref="O67:S67" si="100">$N$10/O11</f>
         <v>2.1412360036639377</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1.8077699409822794</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1.8192553190049807</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1.3418266789594699</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.87956011902634701</v>
       </c>
       <c r="U67" s="1" t="str">
-        <f t="shared" ref="U67:U71" si="100">M67</f>
-        <v>2 bloques por hilo</v>
+        <f t="shared" ref="U67:U71" si="101">M67</f>
+        <v>2 procesadores</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" ref="V67:V71" si="101">N67/V$56</f>
+        <f t="shared" ref="V67:V71" si="102">N67/V$56</f>
         <v>1.8368542353892541</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.0706180018319689</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.45194248524556985</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.22740691487562259</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.11181888991328916</v>
       </c>
       <c r="AA67" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>3.6648338292764461E-2</v>
       </c>
     </row>
@@ -21303,83 +21302,83 @@
         <v>38</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.72897567209115466</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.54181177147791049</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.33535075530853642</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.24504865111132809</v>
       </c>
       <c r="I68">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>8.448787340226914E-2</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="98"/>
-        <v>8 bloques por hilo</v>
+        <f t="shared" si="99"/>
+        <v>4 procesadores</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ref="N68:S68" si="102">$N$10/N12</f>
+        <f>$N$10/N12</f>
         <v>3.5421396456626009</v>
       </c>
       <c r="O68" s="1">
+        <f>$N$10/O12</f>
+        <v>3.5060426575045063</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" ref="N68:S68" si="103">$N$10/P12</f>
+        <v>3.5320382304493232</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="103"/>
+        <v>2.8296523528142741</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" si="103"/>
+        <v>1.7147551709932056</v>
+      </c>
+      <c r="S68" s="1">
+        <f t="shared" si="103"/>
+        <v>0.76509389274439066</v>
+      </c>
+      <c r="U68" s="1" t="str">
+        <f t="shared" si="101"/>
+        <v>4 procesadores</v>
+      </c>
+      <c r="V68" s="1">
         <f t="shared" si="102"/>
-        <v>3.5060426575045063</v>
-      </c>
-      <c r="P68" s="1">
-        <f t="shared" si="102"/>
-        <v>3.5320382304493232</v>
-      </c>
-      <c r="Q68" s="1">
-        <f t="shared" si="102"/>
-        <v>2.8296523528142741</v>
-      </c>
-      <c r="R68" s="1">
-        <f t="shared" si="102"/>
-        <v>1.7147551709932056</v>
-      </c>
-      <c r="S68" s="1">
-        <f t="shared" si="102"/>
-        <v>0.76509389274439066</v>
-      </c>
-      <c r="U68" s="1" t="str">
-        <f t="shared" si="100"/>
-        <v>8 bloques por hilo</v>
-      </c>
-      <c r="V68" s="1">
-        <f t="shared" si="101"/>
         <v>3.5421396456626009</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.7530213287522531</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.8830095576123308</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.35370654410178426</v>
       </c>
       <c r="Z68" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.1428962642494338</v>
       </c>
       <c r="AA68" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>3.1878912197682942E-2</v>
       </c>
     </row>
@@ -21391,83 +21390,83 @@
         <v>39</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1.034439721572431</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.78574291967323229</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.51069785456081873</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.40264776752501191</v>
       </c>
       <c r="I69">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.16027213500229837</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="98"/>
-        <v>32 bloques por hilo</v>
+        <f t="shared" si="99"/>
+        <v>8 procesadores</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" ref="N69:S69" si="103">$N$10/N13</f>
+        <f>$N$10/N13</f>
         <v>4.4509032822738996</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="103"/>
+        <f>$N$10/O13</f>
         <v>4.4578377970627168</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="103"/>
+        <f>$N$10/P13</f>
         <v>4.0838903277568699</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="N69:S69" si="104">$N$10/Q13</f>
         <v>2.8697765857417452</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1.5057430729279611</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.58912110221432301</v>
       </c>
       <c r="U69" s="1" t="str">
-        <f t="shared" si="100"/>
-        <v>32 bloques por hilo</v>
+        <f t="shared" si="101"/>
+        <v>8 procesadores</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>4.4509032822738996</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2.2289188985313584</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1.0209725819392175</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.35872207321771815</v>
       </c>
       <c r="Z69" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.12547858941066342</v>
       </c>
       <c r="AA69" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2.4546712592263459E-2</v>
       </c>
     </row>
@@ -21479,83 +21478,83 @@
         <v>40</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.93650863170188703</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.74080896151514286</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.50218020980115863</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.44196072554906207</v>
       </c>
       <c r="I70">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.21510281752718188</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="98"/>
-        <v>128 bloques por hilo</v>
+        <f t="shared" si="99"/>
+        <v>12 procesadores</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" ref="N70:S70" si="104">$N$10/N14</f>
+        <f>$N$10/N14</f>
         <v>6.5410123395223527</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="104"/>
+        <f>$N$10/O14</f>
         <v>6.6464543845598634</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="104"/>
+        <f>$N$10/P14</f>
         <v>4.114733301503354</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="104"/>
+        <f>$N$10/Q14</f>
         <v>2.9425304589032906</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="N70:S70" si="105">$N$10/R14</f>
         <v>1.4025983035989771</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.49394997560205517</v>
       </c>
       <c r="U70" s="1" t="str">
-        <f t="shared" si="100"/>
-        <v>128 bloques por hilo</v>
+        <f t="shared" si="101"/>
+        <v>12 procesadores</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>6.5410123395223527</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3.3232271922799317</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1.0286833253758385</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.36781630736291132</v>
       </c>
       <c r="Z70" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.11688319196658142</v>
       </c>
       <c r="AA70" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2.0581248983418964E-2</v>
       </c>
     </row>
@@ -21567,83 +21566,83 @@
         <v>41</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.94412216699420082</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.84780640050436873</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.59052418680620455</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.54243097202989976</v>
       </c>
       <c r="I71">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.3365627199047429</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="98"/>
-        <v>512 bloques por hilo</v>
+        <f t="shared" si="99"/>
+        <v>24 procesadores</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" ref="N71:S71" si="105">$N$10/N15</f>
+        <f>$N$10/N15</f>
         <v>8.0020504625072615</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="105"/>
+        <f>$N$10/O15</f>
         <v>6.6168828931696702</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="105"/>
+        <f>$N$10/P15</f>
         <v>2.9943078525798965</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="105"/>
+        <f>$N$10/Q15</f>
         <v>1.499640338476421</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="105"/>
+        <f>$N$10/R15</f>
         <v>0.76868543590637139</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="N71:S71" si="106">$N$10/S15</f>
         <v>0.318333457790417</v>
       </c>
       <c r="U71" s="1" t="str">
-        <f t="shared" si="100"/>
-        <v>512 bloques por hilo</v>
+        <f t="shared" si="101"/>
+        <v>24 procesadores</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>8.0020504625072615</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3.3084414465848351</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.74857696314497413</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.18745504230955262</v>
       </c>
       <c r="Z71" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>6.4057119658864278E-2</v>
       </c>
       <c r="AA71" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1.3263894074600708E-2</v>
       </c>
     </row>
@@ -21655,27 +21654,27 @@
         <v>35</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1.068205147354846</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.80766383159997135</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.53530930135089871</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.51304319393858433</v>
       </c>
       <c r="I72">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.37958756735963256</v>
       </c>
     </row>
@@ -21687,27 +21686,27 @@
         <v>42</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.91109985103178226</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.82126597234726484</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.70497287194209812</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.68717445123068088</v>
       </c>
       <c r="I73">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="98"/>
         <v>0.46414562061132453</v>
       </c>
     </row>
@@ -21737,19 +21736,19 @@
         <v>1 procesador</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ref="E75:H75" si="106">O65</f>
+        <f t="shared" ref="E75:H75" si="107">O65</f>
         <v>2 procesadores</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>4 procesadores</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8 procesadores</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>12 procesadores</v>
       </c>
       <c r="I75" t="str">
@@ -21769,23 +21768,23 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76:I76" ca="1" si="107">INDIRECT($B76&amp;E$74)</f>
+        <f t="shared" ref="E76:I76" ca="1" si="108">INDIRECT($B76&amp;E$74)</f>
         <v>0.25908328675237563</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v>3.4318080852954243E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v>9.0224246671338475E-3</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v>4.2342688007016007E-3</v>
       </c>
       <c r="I76">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="108"/>
         <v>8.688170591807815E-4</v>
       </c>
     </row>
@@ -21797,27 +21796,27 @@
         <v>37</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:I83" ca="1" si="108">INDIRECT($B77&amp;D$74)</f>
+        <f t="shared" ref="D77:I83" ca="1" si="109">INDIRECT($B77&amp;D$74)</f>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.4340626178800453</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.24776074412195334</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>8.3787208015378339E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>3.4201828536101105E-2</v>
       </c>
       <c r="I77">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>9.6885714093263558E-3</v>
       </c>
     </row>
@@ -21829,27 +21828,27 @@
         <v>38</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.5837386664148092</v>
       </c>
       <c r="F78">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.45768846267772506</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.18458442838370565</v>
       </c>
       <c r="H78">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.11894967282525019</v>
       </c>
       <c r="I78">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>3.7441314553990614E-2</v>
       </c>
     </row>
@@ -21861,27 +21860,27 @@
         <v>39</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.85587103802812114</v>
       </c>
       <c r="F79">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.65277056501869546</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.39882866208355372</v>
       </c>
       <c r="H79">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.24774814727215388</v>
       </c>
       <c r="I79">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>7.6798413900972681E-2</v>
       </c>
     </row>
@@ -21893,27 +21892,27 @@
         <v>40</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.74037112654474202</v>
       </c>
       <c r="F80">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.65561263492645938</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.42923494259316725</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.32590042332626529</v>
       </c>
       <c r="I80">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.1060471166639463</v>
       </c>
     </row>
@@ -21925,27 +21924,27 @@
         <v>41</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1.0132435054235573</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.95654492427468973</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.66199233637468557</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.58051032249760937</v>
       </c>
       <c r="I81">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.25933464199128892</v>
       </c>
     </row>
@@ -21957,27 +21956,27 @@
         <v>35</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.91842711769462704</v>
       </c>
       <c r="F82">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.88553491141565022</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.55636291028423746</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.54508436162686269</v>
       </c>
       <c r="I82">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.3334187692711359</v>
       </c>
     </row>
@@ -21989,27 +21988,27 @@
         <v>42</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.90940071715024406</v>
       </c>
       <c r="F83">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.75528135029279431</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.72884005664714269</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.69801573514423099</v>
       </c>
       <c r="I83">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0.47433688703445515</v>
       </c>
     </row>

--- a/PR1.xlsx
+++ b/PR1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sec. O0" sheetId="2" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="PROGRESO" sheetId="9" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="14" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>Operaciones</t>
   </si>
@@ -205,6 +205,9 @@
   <si>
     <t>Secundaria</t>
   </si>
+  <si>
+    <t>Talla:</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -317,11 +320,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -348,6 +364,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,11 +496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329172096"/>
-        <c:axId val="329173632"/>
+        <c:axId val="84526208"/>
+        <c:axId val="84528512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329172096"/>
+        <c:axId val="84526208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,12 +529,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329173632"/>
+        <c:crossAx val="84528512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329173632"/>
+        <c:axId val="84528512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329172096"/>
+        <c:crossAx val="84526208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,25 +651,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,25 +727,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,25 +803,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,25 +879,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,25 +955,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,25 +1031,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,37 +1094,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445157760"/>
-        <c:axId val="445159296"/>
+        <c:axId val="535278336"/>
+        <c:axId val="535281024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445157760"/>
+        <c:axId val="535278336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445159296"/>
+        <c:crossAx val="535281024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445159296"/>
+        <c:axId val="535281024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445157760"/>
+        <c:crossAx val="535278336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,25 +1249,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,25 +1325,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,25 +1401,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,25 +1477,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,25 +1553,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,25 +1629,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,37 +1692,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445216640"/>
-        <c:axId val="445218176"/>
+        <c:axId val="495451520"/>
+        <c:axId val="502346880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445216640"/>
+        <c:axId val="495451520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445218176"/>
+        <c:crossAx val="502346880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445218176"/>
+        <c:axId val="502346880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445216640"/>
+        <c:crossAx val="495451520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1719,6 +1812,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1748,25 +1842,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,25 +1918,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,25 +1994,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,25 +2070,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,25 +2146,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,25 +2222,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,43 +2285,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445398400"/>
-        <c:axId val="445502592"/>
+        <c:axId val="336213120"/>
+        <c:axId val="336214656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445398400"/>
+        <c:axId val="336213120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445502592"/>
+        <c:crossAx val="336214656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445502592"/>
+        <c:axId val="336214656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445398400"/>
+        <c:crossAx val="336213120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2277,6 +2410,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2306,25 +2440,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,25 +2516,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,25 +2592,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,25 +2668,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,25 +2744,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,25 +2820,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,43 +2883,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446293120"/>
-        <c:axId val="446294656"/>
+        <c:axId val="336251520"/>
+        <c:axId val="336253312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446293120"/>
+        <c:axId val="336251520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446294656"/>
+        <c:crossAx val="336253312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446294656"/>
+        <c:axId val="336253312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446293120"/>
+        <c:crossAx val="336251520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3303,37 +3476,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446336000"/>
-        <c:axId val="446337792"/>
+        <c:axId val="346706688"/>
+        <c:axId val="346708224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446336000"/>
+        <c:axId val="346706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446337792"/>
+        <c:crossAx val="346708224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446337792"/>
+        <c:axId val="346708224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>MOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446336000"/>
+        <c:crossAx val="346706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3403,7 +3614,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOPS 2 procesadores</c:v>
+                  <c:v>MOPS 1 procesador</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3479,7 +3690,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOPS 4 procesadores</c:v>
+                  <c:v>MOPS 2 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3555,7 +3766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOPS 8 procesadores</c:v>
+                  <c:v>MOPS 4 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3631,7 +3842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOPS 12 procesadores</c:v>
+                  <c:v>MOPS 8 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3707,7 +3918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOPS 24 procesadores</c:v>
+                  <c:v>MOPS 12 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3783,7 +3994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOPS </c:v>
+                  <c:v>MOPS 24 procesadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3858,37 +4069,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446456576"/>
-        <c:axId val="446458112"/>
+        <c:axId val="346740992"/>
+        <c:axId val="347738112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446456576"/>
+        <c:axId val="346740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446458112"/>
+        <c:crossAx val="347738112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446458112"/>
+        <c:axId val="347738112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>MOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446456576"/>
+        <c:crossAx val="346740992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3970,25 +4219,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,25 +4295,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,25 +4371,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,25 +4447,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4274,25 +4523,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4350,25 +4599,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,37 +4662,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446798080"/>
-        <c:axId val="446808064"/>
+        <c:axId val="347774976"/>
+        <c:axId val="347776512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446798080"/>
+        <c:axId val="347774976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446808064"/>
+        <c:crossAx val="347776512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446808064"/>
+        <c:axId val="347776512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446798080"/>
+        <c:crossAx val="347774976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4932,37 +5219,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="447111168"/>
-        <c:axId val="447112704"/>
+        <c:axId val="351999488"/>
+        <c:axId val="352001024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="447111168"/>
+        <c:axId val="351999488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bloques por procesador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447112704"/>
+        <c:crossAx val="352001024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447112704"/>
+        <c:axId val="352001024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447111168"/>
+        <c:crossAx val="351999488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5456,37 +5781,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="450954368"/>
-        <c:axId val="450955904"/>
+        <c:axId val="352029312"/>
+        <c:axId val="352039296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="450954368"/>
+        <c:axId val="352029312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bloques por procesador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450955904"/>
+        <c:crossAx val="352039296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="450955904"/>
+        <c:axId val="352039296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450954368"/>
+        <c:crossAx val="352029312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5574,13 +5937,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5638,13 +6001,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,13 +6065,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,13 +6129,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5830,13 +6193,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5894,13 +6257,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5958,13 +6321,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6022,13 +6385,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6067,37 +6430,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451002752"/>
-        <c:axId val="451004288"/>
+        <c:axId val="353851264"/>
+        <c:axId val="353852800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451002752"/>
+        <c:axId val="353851264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451004288"/>
+        <c:crossAx val="353852800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451004288"/>
+        <c:axId val="353852800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451002752"/>
+        <c:crossAx val="353851264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6236,11 +6637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333089408"/>
-        <c:axId val="338665856"/>
+        <c:axId val="185956608"/>
+        <c:axId val="186286848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333089408"/>
+        <c:axId val="185956608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6274,12 +6675,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338665856"/>
+        <c:crossAx val="186286848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338665856"/>
+        <c:axId val="186286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,7 +6763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333089408"/>
+        <c:crossAx val="185956608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6455,13 +6856,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6519,13 +6920,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,13 +6984,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6647,13 +7048,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,13 +7112,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6775,13 +7176,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6839,13 +7240,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6890,6 +7291,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Datos finales OMP Adecuados'!$D$83:$H$83</c:f>
@@ -6924,37 +7349,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451173760"/>
-        <c:axId val="451175552"/>
+        <c:axId val="452400256"/>
+        <c:axId val="452401792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451173760"/>
+        <c:axId val="452400256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451175552"/>
+        <c:crossAx val="452401792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451175552"/>
+        <c:axId val="452401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451173760"/>
+        <c:crossAx val="452400256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7006,7 +7469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7099,11 +7561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410591616"/>
-        <c:axId val="410593152"/>
+        <c:axId val="209995264"/>
+        <c:axId val="210002304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410591616"/>
+        <c:axId val="209995264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7125,19 +7587,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410593152"/>
+        <c:crossAx val="210002304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410593152"/>
+        <c:axId val="210002304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7160,21 +7621,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410591616"/>
+        <c:crossAx val="209995264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7312,11 +7771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410908544"/>
-        <c:axId val="410910080"/>
+        <c:axId val="213744640"/>
+        <c:axId val="213757312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410908544"/>
+        <c:axId val="213744640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7345,12 +7804,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410910080"/>
+        <c:crossAx val="213757312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410910080"/>
+        <c:axId val="213757312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7380,7 +7839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410908544"/>
+        <c:crossAx val="213744640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7525,11 +7984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412528000"/>
-        <c:axId val="413295744"/>
+        <c:axId val="214746624"/>
+        <c:axId val="214770816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412528000"/>
+        <c:axId val="214746624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7558,12 +8017,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413295744"/>
+        <c:crossAx val="214770816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413295744"/>
+        <c:axId val="214770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7593,7 +8052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412528000"/>
+        <c:crossAx val="214746624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8082,37 +8541,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439805824"/>
-        <c:axId val="439807360"/>
+        <c:axId val="306625152"/>
+        <c:axId val="308839168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439805824"/>
+        <c:axId val="306625152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439807360"/>
+        <c:crossAx val="308839168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439807360"/>
+        <c:axId val="308839168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo(Microsegundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439805824"/>
+        <c:crossAx val="306625152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8601,37 +9098,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="439967104"/>
-        <c:axId val="439981184"/>
+        <c:axId val="333080832"/>
+        <c:axId val="335179776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="439967104"/>
+        <c:axId val="333080832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Talla</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439981184"/>
+        <c:crossAx val="335179776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439981184"/>
+        <c:axId val="335179776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo(microsegundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439967104"/>
+        <c:crossAx val="333080832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9120,37 +9655,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="440042624"/>
-        <c:axId val="440044160"/>
+        <c:axId val="412391296"/>
+        <c:axId val="412524928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="440042624"/>
+        <c:axId val="412391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bloques por procesador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440044160"/>
+        <c:crossAx val="412524928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440044160"/>
+        <c:axId val="412524928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t>(Microsegundos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440042624"/>
+        <c:crossAx val="412391296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9644,37 +10222,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="440638080"/>
-        <c:axId val="440689024"/>
+        <c:axId val="431419392"/>
+        <c:axId val="431420928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="440638080"/>
+        <c:axId val="431419392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Bloques por procesador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440689024"/>
+        <c:crossAx val="431420928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440689024"/>
+        <c:axId val="431420928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo(Microsegundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440638080"/>
+        <c:crossAx val="431419392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9865,16 +10481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89807</xdr:rowOff>
+      <xdr:rowOff>11366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505047</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>182366</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9897,16 +10513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>35379</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>697164</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>111579</xdr:rowOff>
+      <xdr:colOff>759017</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4672</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9929,16 +10545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>16809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1766828</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>187809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9961,16 +10577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>760879</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273644</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168759</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9999,10 +10615,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>465265</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10031,10 +10647,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>570040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10063,10 +10679,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>503365</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10089,16 +10705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>407333</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>491598</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>74629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10121,16 +10737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>189940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>566118</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10153,16 +10769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>747091</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>186687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10191,10 +10807,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>408115</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10223,10 +10839,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>560515</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10255,10 +10871,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>484315</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10282,15 +10898,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
+      <xdr:colOff>598712</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>70759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>40820</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>146959</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257153</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>51259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10313,16 +10929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>362588</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>90769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>704588</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>71269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11676,8 +12292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11772,35 +12388,35 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f>O32</f>
+        <f t="shared" ref="D3:K4" si="0">O32</f>
         <v>190000</v>
       </c>
       <c r="E3" s="1">
-        <f>P32</f>
+        <f t="shared" si="0"/>
         <v>3040000</v>
       </c>
       <c r="F3" s="1">
-        <f>Q32</f>
+        <f t="shared" si="0"/>
         <v>15390000</v>
       </c>
       <c r="G3" s="1">
-        <f>R32</f>
+        <f t="shared" si="0"/>
         <v>37240000</v>
       </c>
       <c r="H3" s="1">
-        <f>S32</f>
+        <f t="shared" si="0"/>
         <v>100510000</v>
       </c>
       <c r="I3" s="1">
-        <f>T32</f>
+        <f t="shared" si="0"/>
         <v>494190000</v>
       </c>
       <c r="J3" s="1">
-        <f>U32</f>
+        <f t="shared" si="0"/>
         <v>2921440000</v>
       </c>
       <c r="K3" s="1">
-        <f>V32</f>
+        <f t="shared" si="0"/>
         <v>149823360000</v>
       </c>
     </row>
@@ -11809,35 +12425,35 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <f>O33</f>
+        <f t="shared" si="0"/>
         <v>252.99600532623168</v>
       </c>
       <c r="E4" s="7">
-        <f>P33</f>
+        <f t="shared" si="0"/>
         <v>393.92525786554711</v>
       </c>
       <c r="F4" s="7">
-        <f>Q33</f>
+        <f t="shared" si="0"/>
         <v>510.94938978234018</v>
       </c>
       <c r="G4" s="7">
-        <f>R33</f>
+        <f t="shared" si="0"/>
         <v>427.9131763705517</v>
       </c>
       <c r="H4" s="7">
-        <f>S33</f>
+        <f t="shared" si="0"/>
         <v>489.63537728863491</v>
       </c>
       <c r="I4" s="7">
-        <f>T33</f>
+        <f t="shared" si="0"/>
         <v>460.29352455802263</v>
       </c>
       <c r="J4" s="7">
-        <f>U33</f>
+        <f t="shared" si="0"/>
         <v>522.12013688675188</v>
       </c>
       <c r="K4" s="7">
-        <f>V33</f>
+        <f t="shared" si="0"/>
         <v>556.27993883042086</v>
       </c>
     </row>
@@ -11950,31 +12566,31 @@
         <v>190000</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:K9" si="0">E3</f>
+        <f t="shared" ref="E9:K9" si="1">E3</f>
         <v>3040000</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15390000</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37240000</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100510000</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>494190000</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2921440000</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149823360000</v>
       </c>
     </row>
@@ -11983,35 +12599,35 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <f>O34</f>
+        <f t="shared" ref="D10:K10" si="2">O34</f>
         <v>1024.8112189859762</v>
       </c>
       <c r="E10" s="7">
-        <f>P34</f>
+        <f t="shared" si="2"/>
         <v>1320.935082992961</v>
       </c>
       <c r="F10" s="7">
-        <f>Q34</f>
+        <f t="shared" si="2"/>
         <v>1556.2746485994539</v>
       </c>
       <c r="G10" s="7">
-        <f>R34</f>
+        <f t="shared" si="2"/>
         <v>1234.4451295106637</v>
       </c>
       <c r="H10" s="7">
-        <f>S34</f>
+        <f t="shared" si="2"/>
         <v>1464.95534152655</v>
       </c>
       <c r="I10" s="7">
-        <f>T34</f>
+        <f t="shared" si="2"/>
         <v>1131.8937088615191</v>
       </c>
       <c r="J10" s="7">
-        <f>U34</f>
+        <f t="shared" si="2"/>
         <v>1358.1205141355288</v>
       </c>
       <c r="K10" s="7">
-        <f>V34</f>
+        <f t="shared" si="2"/>
         <v>1363.9730290442267</v>
       </c>
     </row>
@@ -12031,35 +12647,35 @@
         <v>31</v>
       </c>
       <c r="O31">
-        <f>D1*100</f>
+        <f t="shared" ref="O31:V31" si="3">D1*100</f>
         <v>100</v>
       </c>
       <c r="P31">
-        <f>E1*100</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="Q31">
-        <f>F1*100</f>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="R31">
-        <f>G1*100</f>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="S31">
-        <f>H1*100</f>
+        <f t="shared" si="3"/>
         <v>2300</v>
       </c>
       <c r="T31">
-        <f>I1*100</f>
+        <f t="shared" si="3"/>
         <v>5100</v>
       </c>
       <c r="U31">
-        <f>J1*100</f>
+        <f t="shared" si="3"/>
         <v>12400</v>
       </c>
       <c r="V31">
-        <f>K1*100</f>
+        <f t="shared" si="3"/>
         <v>88800</v>
       </c>
     </row>
@@ -12072,19 +12688,19 @@
         <v>190000</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:V32" si="1">19*P31*P31</f>
+        <f t="shared" ref="P32:V32" si="4">19*P31*P31</f>
         <v>3040000</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15390000</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37240000</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>100510000</v>
       </c>
       <c r="T32">
@@ -12092,11 +12708,11 @@
         <v>494190000</v>
       </c>
       <c r="U32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2921440000</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>149823360000</v>
       </c>
     </row>
@@ -12105,35 +12721,35 @@
         <v>50</v>
       </c>
       <c r="O33" s="1">
-        <f>O$32/(D2/1000000)/10^6</f>
+        <f t="shared" ref="O33:V33" si="5">O$32/(D2/1000000)/10^6</f>
         <v>252.99600532623168</v>
       </c>
       <c r="P33" s="1">
-        <f>P$32/(E2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>393.92525786554711</v>
       </c>
       <c r="Q33" s="1">
-        <f>Q$32/(F2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>510.94938978234018</v>
       </c>
       <c r="R33" s="1">
-        <f>R$32/(G2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>427.9131763705517</v>
       </c>
       <c r="S33" s="1">
-        <f>S$32/(H2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>489.63537728863491</v>
       </c>
       <c r="T33" s="1">
-        <f>T$32/(I2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>460.29352455802263</v>
       </c>
       <c r="U33" s="1">
-        <f>U$32/(J2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>522.12013688675188</v>
       </c>
       <c r="V33" s="1">
-        <f>V$32/(K2/1000000)/10^6</f>
+        <f t="shared" si="5"/>
         <v>556.27993883042086</v>
       </c>
     </row>
@@ -12142,35 +12758,35 @@
         <v>51</v>
       </c>
       <c r="O34" s="1">
-        <f>O$32/(D8/1000000)/10^6</f>
+        <f t="shared" ref="O34:V34" si="6">O$32/(D8/1000000)/10^6</f>
         <v>1024.8112189859762</v>
       </c>
       <c r="P34" s="1">
-        <f>P$32/(E8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1320.935082992961</v>
       </c>
       <c r="Q34" s="1">
-        <f>Q$32/(F8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1556.2746485994539</v>
       </c>
       <c r="R34" s="1">
-        <f>R$32/(G8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1234.4451295106637</v>
       </c>
       <c r="S34" s="1">
-        <f>S$32/(H8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1464.95534152655</v>
       </c>
       <c r="T34" s="1">
-        <f>T$32/(I8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1131.8937088615191</v>
       </c>
       <c r="U34" s="1">
-        <f>U$32/(J8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1358.1205141355288</v>
       </c>
       <c r="V34" s="1">
-        <f>V$32/(K8/1000000)/10^6</f>
+        <f t="shared" si="6"/>
         <v>1363.9730290442267</v>
       </c>
     </row>
@@ -12179,35 +12795,35 @@
         <v>32</v>
       </c>
       <c r="O36" s="1">
-        <f>D1</f>
+        <f t="shared" ref="O36:V36" si="7">D1</f>
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <f>E1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q36" s="1">
-        <f>F1</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="R36" s="1">
-        <f>G1</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="S36" s="1">
-        <f>H1</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="T36" s="1">
-        <f>I1</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="U36" s="1">
-        <f>J1</f>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="V36" s="1">
-        <f>K1</f>
+        <f t="shared" si="7"/>
         <v>888</v>
       </c>
     </row>
@@ -12217,35 +12833,35 @@
         <v>Tiempo</v>
       </c>
       <c r="O37" s="1">
-        <f>D2/D8</f>
+        <f t="shared" ref="O37:V37" si="8">D2/D8</f>
         <v>4.0507011866235167</v>
       </c>
       <c r="P37" s="1">
-        <f>E2/E8</f>
+        <f t="shared" si="8"/>
         <v>3.3532632310767356</v>
       </c>
       <c r="Q37" s="1">
-        <f>F2/F8</f>
+        <f t="shared" si="8"/>
         <v>3.0458489230458086</v>
       </c>
       <c r="R37" s="1">
-        <f>G2/G8</f>
+        <f t="shared" si="8"/>
         <v>2.8848028003739135</v>
       </c>
       <c r="S37" s="1">
-        <f>H2/H8</f>
+        <f t="shared" si="8"/>
         <v>2.9919311583218673</v>
       </c>
       <c r="T37" s="1">
-        <f>I2/I8</f>
+        <f t="shared" si="8"/>
         <v>2.4590693730666144</v>
       </c>
       <c r="U37" s="1">
-        <f>J2/J8</f>
+        <f t="shared" si="8"/>
         <v>2.6011647860080638</v>
       </c>
       <c r="V37" s="1">
-        <f>K2/K8</f>
+        <f t="shared" si="8"/>
         <v>2.4519543737492699</v>
       </c>
     </row>
@@ -16731,8 +17347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="H70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16845,55 +17461,63 @@
         <v>6</v>
       </c>
       <c r="AF1" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AG1" s="1">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="AH1" s="1">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="AI1" s="1">
-        <v>14</v>
+        <v>1400</v>
       </c>
       <c r="AJ1" s="1">
-        <v>23</v>
+        <v>2300</v>
       </c>
       <c r="AK1" s="1">
-        <v>51</v>
+        <v>5100</v>
       </c>
       <c r="AL1" s="1">
-        <v>124</v>
+        <v>12400</v>
       </c>
       <c r="AM1" s="1">
-        <v>888</v>
+        <v>88800</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AQ1" s="1">
-        <v>1</v>
+        <f>AF1</f>
+        <v>100</v>
       </c>
       <c r="AR1" s="1">
-        <v>4</v>
+        <f t="shared" ref="AR1:AX1" si="1">AG1</f>
+        <v>400</v>
       </c>
       <c r="AS1" s="1">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="AT1" s="1">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="AU1" s="1">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>2300</v>
       </c>
       <c r="AV1" s="1">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>5100</v>
       </c>
       <c r="AW1" s="1">
-        <v>124</v>
+        <f t="shared" si="1"/>
+        <v>12400</v>
       </c>
       <c r="AX1" s="1">
-        <v>888</v>
+        <f t="shared" si="1"/>
+        <v>88800</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
@@ -16934,7 +17558,7 @@
         <v>269330870.19999999</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M7" si="1">C2</f>
+        <f t="shared" ref="M2:M7" si="2">C2</f>
         <v>1 procesador</v>
       </c>
       <c r="N2" s="1">
@@ -16962,74 +17586,74 @@
         <v>6401187.2000000002</v>
       </c>
       <c r="U2" t="str">
-        <f t="shared" ref="U2:U7" si="2">C2</f>
+        <f t="shared" ref="U2:U7" si="3">C2</f>
         <v>1 procesador</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:AC7" si="3">LOG10(D2)</f>
+        <f t="shared" ref="V2:AC7" si="4">LOG10(D2)</f>
         <v>2.8756399370041685</v>
       </c>
       <c r="W2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8874597556303927</v>
       </c>
       <c r="X2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4788607350133667</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9396540127547519</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3123364839359324</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.030859087897352</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7478265280758656</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4302861342847262</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AM7" si="4">D$2/D2</f>
+        <f t="shared" ref="AF2:AM7" si="5">D$2/D2</f>
         <v>1</v>
       </c>
       <c r="AG2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AL2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO2">
@@ -17043,31 +17667,31 @@
         <v>1</v>
       </c>
       <c r="AR2" s="1">
-        <f t="shared" ref="AR2:AX7" si="5">AG2/$AO2</f>
+        <f t="shared" ref="AR2:AX7" si="6">AG2/$AO2</f>
         <v>1</v>
       </c>
       <c r="AS2" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AT2" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AU2" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AV2" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AW2" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AX2" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -17109,7 +17733,7 @@
         <v>147805353</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2 procesadores</v>
       </c>
       <c r="N3" s="1">
@@ -17137,74 +17761,74 @@
         <v>4835473.5999999996</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2 procesadores</v>
       </c>
       <c r="V3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0088555639962125</v>
       </c>
       <c r="W3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8510992821765293</v>
       </c>
       <c r="X3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3151177043823914</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6239188283733963</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0397947036955335</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7548008977037135</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4181418660410579</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1696901629915768</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7358416617675877</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0873277538253445</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4579513441823093</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0688794431448621</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8730172634037741</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8882443339884016</v>
       </c>
       <c r="AL3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1364102947096919</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8221997020635645</v>
       </c>
       <c r="AO3">
@@ -17214,35 +17838,35 @@
         <v>24</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" ref="AQ3:AQ7" si="6">AF3/$AO3</f>
+        <f t="shared" ref="AQ3:AQ7" si="7">AF3/$AO3</f>
         <v>0.36792083088379385</v>
       </c>
       <c r="AR3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54366387691267226</v>
       </c>
       <c r="AS3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72897567209115466</v>
       </c>
       <c r="AT3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.034439721572431</v>
       </c>
       <c r="AU3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93650863170188703</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94412216699420082</v>
       </c>
       <c r="AW3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.068205147354846</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91109985103178226</v>
       </c>
     </row>
@@ -17284,7 +17908,7 @@
         <v>81986493.799999997</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4 procesadores</v>
       </c>
       <c r="N4" s="1">
@@ -17312,74 +17936,74 @@
         <v>4133369.6</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4 procesadores</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2268060495007274</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6442809937183442</v>
       </c>
       <c r="X4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1429523073434318</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4423135451456348</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8405702652717864</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5005024056237692</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2385359017906241</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9137423139538274</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44548582275477522</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7505670991743036</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1672470859116419</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1429716786929291</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9632358460605714</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3912256020174749</v>
       </c>
       <c r="AL4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2306553263998854</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2850638893890594</v>
       </c>
       <c r="AO4">
@@ -17389,35 +18013,35 @@
         <v>25</v>
       </c>
       <c r="AQ4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1113714556886938</v>
+      </c>
+      <c r="AR4" s="1">
         <f t="shared" si="6"/>
-        <v>0.1113714556886938</v>
-      </c>
-      <c r="AR4" s="1">
-        <f t="shared" si="5"/>
         <v>0.43764177479357591</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54181177147791049</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.78574291967323229</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74080896151514286</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84780640050436873</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.80766383159997135</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82126597234726484</v>
       </c>
     </row>
@@ -17459,7 +18083,7 @@
         <v>47755538</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8 procesadores</v>
       </c>
       <c r="N5" s="1">
@@ -17487,74 +18111,74 @@
         <v>5304184.4000000004</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8 procesadores</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5084219736424691</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7095243558763409</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0502714591847404</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3283999923724243</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.708386903149929</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3565314106724706</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1161317514829028</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6790237420638414</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23292599714657902</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5063829787234042</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6828060424682914</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0855828364865499</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.017441678409269</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7241934944496364</v>
       </c>
       <c r="AL5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2824744108071897</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.639782975536785</v>
       </c>
       <c r="AO5">
@@ -17564,35 +18188,35 @@
         <v>26</v>
       </c>
       <c r="AQ5" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9115749643322378E-2</v>
+      </c>
+      <c r="AR5" s="1">
         <f t="shared" si="6"/>
-        <v>2.9115749643322378E-2</v>
-      </c>
-      <c r="AR5" s="1">
-        <f t="shared" si="5"/>
         <v>0.18829787234042553</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33535075530853642</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51069785456081873</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50218020980115863</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59052418680620455</v>
       </c>
       <c r="AW5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53530930135089871</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70497287194209812</v>
       </c>
     </row>
@@ -17634,7 +18258,7 @@
         <v>32661632.199999999</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12 procesadores</v>
       </c>
       <c r="N6" s="1">
@@ -17662,74 +18286,74 @@
         <v>5629653.4000000004</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12 procesadores</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6859207921945352</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8095058453122137</v>
       </c>
       <c r="X6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0104271727170495</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2555474712117656</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5877715600214843</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2173333626912077</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9584913514203501</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5140378839444724</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15478153338829348</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1966135334615147</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.940583813335937</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8317732103001427</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3035287065887449</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5091716643587967</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1565183272630124</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2460934147681701</v>
       </c>
       <c r="AO6">
@@ -17739,35 +18363,35 @@
         <v>27</v>
       </c>
       <c r="AQ6" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2898461115691123E-2</v>
+      </c>
+      <c r="AR6" s="1">
         <f t="shared" si="6"/>
-        <v>1.2898461115691123E-2</v>
-      </c>
-      <c r="AR6" s="1">
-        <f t="shared" si="5"/>
         <v>9.9717794455126227E-2</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24504865111132809</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40264776752501191</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44196072554906207</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54243097202989976</v>
       </c>
       <c r="AW6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51304319393858433</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68717445123068088</v>
       </c>
     </row>
@@ -17809,7 +18433,7 @@
         <v>24178014.600000001</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24 procesadores</v>
       </c>
       <c r="N7" s="1">
@@ -17837,74 +18461,74 @@
         <v>9115544.5999999996</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24 procesadores</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9974300737974713</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0867512312420571</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1718551144398051</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3545847487930294</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5994791431874269</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1235818374464515</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7883033068332663</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3834206354964005</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5545719746504369E-2</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6319875522070264</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0277089616544592</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8465312400551608</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1624676206523654</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0775052777138292</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1101016166311819</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.139494894671788</v>
       </c>
       <c r="AO7">
@@ -17914,35 +18538,35 @@
         <v>28</v>
       </c>
       <c r="AQ7" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1477383227710154E-3</v>
+      </c>
+      <c r="AR7" s="1">
         <f t="shared" si="6"/>
-        <v>3.1477383227710154E-3</v>
-      </c>
-      <c r="AR7" s="1">
-        <f t="shared" si="5"/>
         <v>2.6332814675292766E-2</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.448787340226914E-2</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16027213500229837</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21510281752718188</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3365627199047429</v>
       </c>
       <c r="AW7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37958756735963256</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46414562061132453</v>
       </c>
     </row>
@@ -17988,23 +18612,23 @@
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ref="O9:S9" si="7">O1</f>
+        <f t="shared" ref="O9:S9" si="8">O1</f>
         <v>2</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="U9" t="str">
@@ -18020,82 +18644,98 @@
         <v>4</v>
       </c>
       <c r="X9">
-        <f t="shared" ref="X9:AC9" si="8">F9</f>
+        <f t="shared" ref="X9:AC9" si="9">F9</f>
         <v>9</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>888</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <f>AF1</f>
+        <v>100</v>
       </c>
       <c r="AG9" s="1">
-        <v>4</v>
+        <f t="shared" ref="AG9:AM9" si="10">AG1</f>
+        <v>400</v>
       </c>
       <c r="AH9" s="1">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>900</v>
       </c>
       <c r="AI9" s="1">
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>1400</v>
       </c>
       <c r="AJ9" s="1">
-        <v>23</v>
+        <f t="shared" si="10"/>
+        <v>2300</v>
       </c>
       <c r="AK9" s="1">
-        <v>51</v>
+        <f t="shared" si="10"/>
+        <v>5100</v>
       </c>
       <c r="AL9" s="1">
-        <v>124</v>
+        <f t="shared" si="10"/>
+        <v>12400</v>
       </c>
       <c r="AM9" s="1">
-        <v>888</v>
+        <f t="shared" si="10"/>
+        <v>88800</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <f>AQ1</f>
+        <v>100</v>
       </c>
       <c r="AR9" s="1">
-        <v>4</v>
+        <f t="shared" ref="AR9:AX9" si="11">AR1</f>
+        <v>400</v>
       </c>
       <c r="AS9" s="1">
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
       <c r="AT9" s="1">
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>1400</v>
       </c>
       <c r="AU9" s="1">
-        <v>23</v>
+        <f t="shared" si="11"/>
+        <v>2300</v>
       </c>
       <c r="AV9" s="1">
-        <v>51</v>
+        <f t="shared" si="11"/>
+        <v>5100</v>
       </c>
       <c r="AW9" s="1">
-        <v>124</v>
+        <f t="shared" si="11"/>
+        <v>12400</v>
       </c>
       <c r="AX9" s="1">
-        <v>888</v>
+        <f t="shared" si="11"/>
+        <v>88800</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -18164,74 +18804,74 @@
         <v>2163034</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" ref="U10:U15" si="9">C10</f>
+        <f t="shared" ref="U10:U15" si="12">C10</f>
         <v>1 procesador</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10:AC15" si="10">LOG10(D10)</f>
+        <f t="shared" ref="V10:AC15" si="13">LOG10(D10)</f>
         <v>2.2681097298084785</v>
       </c>
       <c r="W10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.3619921087578137</v>
       </c>
       <c r="X10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.9951523768914536</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.4795378817921394</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.83638488735878</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.6400883070581704</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.3326586620825775</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.0407737497651368</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" ref="AF10:AM15" si="11">D$10/D10</f>
+        <f t="shared" ref="AF10:AM15" si="14">D$10/D10</f>
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AO10">
@@ -18245,37 +18885,37 @@
         <v>1</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" ref="AR10:AX15" si="12">AG10/$AO10</f>
+        <f t="shared" ref="AR10:AX15" si="15">AG10/$AO10</f>
         <v>1</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="str">
-        <f t="shared" ref="C11:C15" si="13">C3</f>
+        <f t="shared" ref="C11:C15" si="16">C3</f>
         <v>2 procesadores</v>
       </c>
       <c r="D11" s="1">
@@ -18311,7 +18951,7 @@
         <v>60393258.399999999</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f t="shared" ref="M11:M14" si="14">M3</f>
+        <f t="shared" ref="M11:M14" si="17">M3</f>
         <v>2 procesadores</v>
       </c>
       <c r="N11" s="1">
@@ -18339,62 +18979,62 @@
         <v>2445643.4</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2 procesadores</v>
       </c>
       <c r="V11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.553640336231354</v>
       </c>
       <c r="W11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.4234097277330933</v>
       </c>
       <c r="X11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.927903919621254</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.246099555670785</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.6659054181709312</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.3333444826643968</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.068583968094587</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.7809884617488123</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.51816657350475126</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.8681252357600906</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1674773328296184</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7117420760562423</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.480742253089484</v>
       </c>
       <c r="AK11" s="1">
@@ -18402,11 +19042,11 @@
         <v>2.0264870108471147</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8368542353892541</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8188014343004881</v>
       </c>
       <c r="AO11">
@@ -18416,23 +19056,23 @@
         <v>24</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" ref="AQ11:AQ15" si="15">AF11/$AO11</f>
+        <f t="shared" ref="AQ11:AQ15" si="18">AF11/$AO11</f>
         <v>0.25908328675237563</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.4340626178800453</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.5837386664148092</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.85587103802812114</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.74037112654474202</v>
       </c>
       <c r="AV11" s="1">
@@ -18440,17 +19080,17 @@
         <v>1.0132435054235573</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.91842711769462704</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.90940071715024406</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4 procesadores</v>
       </c>
       <c r="D12" s="1">
@@ -18486,7 +19126,7 @@
         <v>36358419.600000001</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4 procesadores</v>
       </c>
       <c r="N12" s="1">
@@ -18514,62 +19154,62 @@
         <v>2811537.8</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4 procesadores</v>
       </c>
       <c r="V12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.1305267453841634</v>
       </c>
       <c r="W12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.3658996207237877</v>
       </c>
       <c r="X12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.7325224206095422</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.062717327650617</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.4176775813551066</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.0573229441829506</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.783392983222539</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.5606049973795217</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.13727232341181697</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.99104297648781337</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8307538507109002</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.6110822600747818</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.6224505397058375</v>
       </c>
       <c r="AK12" s="1">
@@ -18577,11 +19217,11 @@
         <v>3.8261796970987589</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.5421396456626009</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.0211254011711772</v>
       </c>
       <c r="AO12">
@@ -18591,41 +19231,41 @@
         <v>25</v>
       </c>
       <c r="AQ12" s="1">
+        <f t="shared" si="18"/>
+        <v>3.4318080852954243E-2</v>
+      </c>
+      <c r="AR12" s="1">
+        <f>AG12/$AO12</f>
+        <v>0.24776074412195334</v>
+      </c>
+      <c r="AS12" s="1">
         <f t="shared" si="15"/>
-        <v>3.4318080852954243E-2</v>
-      </c>
-      <c r="AR12" s="1">
-        <f t="shared" si="12"/>
-        <v>0.24776074412195334</v>
-      </c>
-      <c r="AS12" s="1">
-        <f t="shared" si="12"/>
         <v>0.45768846267772506</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.65277056501869546</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.65561263492645938</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.95654492427468973</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.88553491141565022</v>
       </c>
       <c r="AX12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.75528135029279431</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8 procesadores</v>
       </c>
       <c r="D13" s="1">
@@ -18661,7 +19301,7 @@
         <v>18838726</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8 procesadores</v>
       </c>
       <c r="N13" s="1">
@@ -18689,74 +19329,74 @@
         <v>3651355.2</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8 procesadores</v>
       </c>
       <c r="V13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.4096964782179531</v>
       </c>
       <c r="W13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.5357244028061992</v>
       </c>
       <c r="X13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.8258673289207414</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.9756615331810585</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.3005998311603166</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.916145358254095</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.6842105048773677</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.275051529567361</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7.217939733707078E-2</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.67029766412302672</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4766754270696452</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.1906292966684298</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.433879540745338</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.2959386909974846</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.4509032822738996</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.8307204531771415</v>
       </c>
       <c r="AO13">
@@ -18766,41 +19406,41 @@
         <v>26</v>
       </c>
       <c r="AQ13" s="1">
+        <f t="shared" si="18"/>
+        <v>9.0224246671338475E-3</v>
+      </c>
+      <c r="AR13" s="1">
         <f t="shared" si="15"/>
-        <v>9.0224246671338475E-3</v>
-      </c>
-      <c r="AR13" s="1">
-        <f t="shared" si="12"/>
         <v>8.3787208015378339E-2</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.18458442838370565</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.39882866208355372</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.42923494259316725</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.66199233637468557</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.55636291028423746</v>
       </c>
       <c r="AX13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.72884005664714269</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12 procesadores</v>
       </c>
       <c r="D14" s="1">
@@ -18836,7 +19476,7 @@
         <v>13113761.800000001</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12 procesadores</v>
       </c>
       <c r="N14" s="1">
@@ -18864,74 +19504,74 @@
         <v>4354875</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12 procesadores</v>
       </c>
       <c r="V14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.5621500592328821</v>
       </c>
       <c r="W14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.7487615372999561</v>
       </c>
       <c r="X14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.8406078790092901</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.0063462203469946</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.2441187167216121</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.7970971143452665</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.5170136936597682</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.1177272908231677</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.0811225608419205E-2</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.41042194243321328</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4273960739030023</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.9729777672658466</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.9108050799151832</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.9661238699713124</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5410123395223527</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.3761888217307714</v>
       </c>
       <c r="AO14">
@@ -18941,41 +19581,41 @@
         <v>27</v>
       </c>
       <c r="AQ14" s="1">
+        <f t="shared" si="18"/>
+        <v>4.2342688007016007E-3</v>
+      </c>
+      <c r="AR14" s="1">
         <f t="shared" si="15"/>
-        <v>4.2342688007016007E-3</v>
-      </c>
-      <c r="AR14" s="1">
-        <f t="shared" si="12"/>
         <v>3.4201828536101105E-2</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.11894967282525019</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.24774814727215388</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.32590042332626529</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.58051032249760937</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.54508436162686269</v>
       </c>
       <c r="AX14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.69801573514423099</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24 procesadores</v>
       </c>
       <c r="D15" s="1">
@@ -19039,74 +19679,74 @@
         <v>6757349.4000000004</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>24 procesadores</v>
       </c>
       <c r="V15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.9489701484173123</v>
       </c>
       <c r="W15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.9955211224810658</v>
       </c>
       <c r="X15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.0415900468893664</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.2139743893350694</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.4306747807527342</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.846016531528357</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.4294573762843701</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.984475608970695</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.0851609420338757E-2</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.23252571382383255</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.89859154929577467</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8431619336233442</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.5451307999347113</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2240314077909336</v>
       </c>
       <c r="AL15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.0020504625072615</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11.384085288826924</v>
       </c>
       <c r="AO15">
@@ -19116,35 +19756,35 @@
         <v>28</v>
       </c>
       <c r="AQ15" s="1">
+        <f t="shared" si="18"/>
+        <v>8.688170591807815E-4</v>
+      </c>
+      <c r="AR15" s="1">
         <f t="shared" si="15"/>
-        <v>8.688170591807815E-4</v>
-      </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="12"/>
         <v>9.6885714093263558E-3</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.7441314553990614E-2</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.6798413900972681E-2</v>
       </c>
       <c r="AU15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.1060471166639463</v>
       </c>
       <c r="AV15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.25933464199128892</v>
       </c>
       <c r="AW15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.3334187692711359</v>
       </c>
       <c r="AX15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.47433688703445515</v>
       </c>
     </row>
@@ -19153,19 +19793,19 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:K48" si="16">19*D49*D49</f>
+        <f t="shared" ref="D48:K48" si="19">19*D49*D49</f>
         <v>190000</v>
       </c>
       <c r="E48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3040000</v>
       </c>
       <c r="F48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>15390000</v>
       </c>
       <c r="G48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>37240000</v>
       </c>
       <c r="H48">
@@ -19173,85 +19813,88 @@
         <v>100510000</v>
       </c>
       <c r="I48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>494190000</v>
       </c>
       <c r="J48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2921440000</v>
       </c>
       <c r="K48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>149823360000</v>
       </c>
     </row>
     <row r="49" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D49">
-        <f t="shared" ref="D49:K49" si="17">D1*100</f>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ref="D49:K49" si="20">D1*100</f>
         <v>100</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="17"/>
+      <c r="E49" s="1">
+        <f t="shared" si="20"/>
         <v>400</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="17"/>
+      <c r="F49" s="1">
+        <f t="shared" si="20"/>
         <v>900</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="17"/>
+      <c r="G49" s="1">
+        <f t="shared" si="20"/>
         <v>1400</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="17"/>
+      <c r="H49" s="1">
+        <f t="shared" si="20"/>
         <v>2300</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="17"/>
+      <c r="I49" s="1">
+        <f t="shared" si="20"/>
         <v>5100</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="17"/>
+      <c r="J49" s="1">
+        <f t="shared" si="20"/>
         <v>12400</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="17"/>
+      <c r="K49" s="1">
+        <f t="shared" si="20"/>
         <v>88800</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="1">
-        <f>D1</f>
-        <v>1</v>
+        <f>D49</f>
+        <v>100</v>
       </c>
       <c r="O49" s="1">
-        <f>E1</f>
-        <v>4</v>
+        <f t="shared" ref="O49:U49" si="21">E49</f>
+        <v>400</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" ref="P49:U49" si="18">F1</f>
-        <v>9</v>
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="21"/>
+        <v>1400</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="21"/>
+        <v>2300</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="18"/>
-        <v>51</v>
+        <f t="shared" si="21"/>
+        <v>5100</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="18"/>
-        <v>124</v>
+        <f t="shared" si="21"/>
+        <v>12400</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="18"/>
-        <v>888</v>
+        <f t="shared" si="21"/>
+        <v>88800</v>
       </c>
     </row>
     <row r="50" spans="3:27" x14ac:dyDescent="0.25">
@@ -19260,19 +19903,19 @@
         <v>MOPS 1 procesador</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" ref="D50:K55" si="19">D$48/(D2/1000000)/10^6</f>
+        <f t="shared" ref="D50:K55" si="22">D$48/(D2/1000000)/10^6</f>
         <v>252.99600532623168</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>393.92525786554711</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>510.94938978234018</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>427.9131763705517</v>
       </c>
       <c r="H50" s="1">
@@ -19280,493 +19923,497 @@
         <v>489.63537728863491</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>460.29352455802263</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>522.12013688675188</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>556.27993883042086</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f t="shared" ref="M50:M55" si="20">C10</f>
+        <f t="shared" ref="M50:M55" si="23">C10</f>
         <v>1 procesador</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" ref="N50:U55" si="21">D2/D10</f>
+        <f t="shared" ref="N50:U55" si="24">D2/D10</f>
         <v>4.0507011866235167</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3.3532632310767356</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3.0458489230458086</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.8848028003739135</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.9919311583218673</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4590693730666144</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6011647860080638</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4519543737492699</v>
       </c>
     </row>
     <row r="51" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="str">
-        <f t="shared" ref="C51:C55" si="22">"MOPS "&amp;C3</f>
+        <f t="shared" ref="C51:C55" si="25">"MOPS "&amp;C3</f>
         <v>MOPS 2 procesadores</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>186.1650009798158</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>428.32586581001499</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>744.93934964229356</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>885.30077404385599</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>917.09551443483338</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>869.14663971823745</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1115.46283552009</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1013.6531388007307</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2 procesadores</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.8524315259921744</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6772538664654846</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4390111446921043</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.3868178258945294</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.3653166316316532</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6391034537175848</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2364433301766842</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4473816600695284</v>
       </c>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>MOPS 4 procesadores</v>
+      </c>
+      <c r="D52" s="1">
         <f t="shared" si="22"/>
-        <v>MOPS 4 procesadores</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="19"/>
         <v>112.70613358642782</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>689.59259595318031</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1107.3535760541083</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1344.9189942721762</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1450.905101481075</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1560.9591849240257</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1686.790201253822</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1827.4151394433704</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4 procesadores</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.2481859914112248</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.8983722332271122</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.5729413507109005</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.3966036560033235</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6478457633856221</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7744663473251201</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.8519566411586248</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2549520771799441</v>
       </c>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>MOPS 8 procesadores</v>
+      </c>
+      <c r="D53" s="1">
         <f t="shared" si="22"/>
-        <v>MOPS 8 procesadores</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="19"/>
         <v>58.929346814713732</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>593.40230333788804</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1370.7781103035484</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1748.2747288859678</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1967.0815719430091</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2174.5156742543045</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2235.9661255846618</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3137.2981286484514</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8 procesadores</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.2552363155026085</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.4921069493796237</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6765022100107514</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2528820729772607</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.5573317584408564</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7566780767915149</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7034680825089543</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.534966430320182</v>
       </c>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>MOPS 12 procesadores</v>
+      </c>
+      <c r="D54" s="1">
         <f t="shared" si="22"/>
-        <v>MOPS 12 procesadores</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="19"/>
         <v>39.159109645507009</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>471.37629473423061</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1502.489505027824</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2067.5794219216718</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2596.7952792116862</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2996.1295673409204</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3214.4421917763607</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4587.1363403571731</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12 procesadores</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.3297522473141854</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.1501230516817063</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.4784930715935334</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.7750118259224219</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2062404523586951</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6316991993668966</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7636157415572487</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4906379037630528</v>
       </c>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="str">
+      <c r="C55" s="14" t="str">
+        <f t="shared" si="25"/>
+        <v>MOPS 24 procesadores</v>
+      </c>
+      <c r="D55" s="14">
         <f t="shared" si="22"/>
-        <v>MOPS 24 procesadores</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="19"/>
         <v>19.11276531536063</v>
       </c>
-      <c r="E55" s="1">
-        <f t="shared" si="19"/>
+      <c r="E55" s="14">
+        <f t="shared" si="22"/>
         <v>248.95585947096882</v>
       </c>
-      <c r="F55" s="1">
-        <f t="shared" si="19"/>
+      <c r="F55" s="14">
+        <f t="shared" si="22"/>
         <v>1036.0566566135285</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="19"/>
+      <c r="G55" s="14">
+        <f t="shared" si="22"/>
         <v>1645.9814009405609</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" si="19"/>
+      <c r="H55" s="14">
+        <f t="shared" si="22"/>
         <v>2527.7267811784827</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="19"/>
+      <c r="I55" s="14">
+        <f t="shared" si="22"/>
         <v>3718.023373914928</v>
       </c>
-      <c r="J55" s="1">
-        <f t="shared" si="19"/>
+      <c r="J55" s="14">
+        <f t="shared" si="22"/>
         <v>4756.5675031276924</v>
       </c>
-      <c r="K55" s="1">
-        <f t="shared" si="19"/>
+      <c r="K55" s="14">
+        <f t="shared" si="22"/>
         <v>6196.6775386098079</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24 procesadores</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.1180466518208607</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.2337583607816194</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.3497864606996819</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.3823256268634829</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.4750419183001202</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.8948084198881796</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2847881126742537</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.5057920470366466</v>
       </c>
     </row>
     <row r="56" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D56">
+      <c r="C56" s="1" t="str">
+        <f>C49</f>
+        <v>Talla:</v>
+      </c>
+      <c r="D56" s="1">
         <f>D49</f>
         <v>100</v>
       </c>
-      <c r="E56">
-        <f t="shared" ref="E56:K56" si="23">E49</f>
+      <c r="E56" s="1">
+        <f t="shared" ref="E56:K56" si="26">E49</f>
         <v>400</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="23"/>
+      <c r="F56" s="1">
+        <f t="shared" si="26"/>
         <v>900</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="23"/>
+      <c r="G56" s="1">
+        <f t="shared" si="26"/>
         <v>1400</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="23"/>
+      <c r="H56" s="1">
+        <f t="shared" si="26"/>
         <v>2300</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="23"/>
+      <c r="I56" s="1">
+        <f t="shared" si="26"/>
         <v>5100</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="23"/>
+      <c r="J56" s="1">
+        <f t="shared" si="26"/>
         <v>12400</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="23"/>
+      <c r="K56" s="1">
+        <f t="shared" si="26"/>
         <v>88800</v>
       </c>
     </row>
     <row r="57" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="str">
-        <f>"MOPS "&amp;C11</f>
-        <v>MOPS 2 procesadores</v>
+        <f>"MOPS "&amp;C10</f>
+        <v>MOPS 1 procesador</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57:K62" si="24">D$48/(D10/1000000)/10^6</f>
+        <f>D$48/(D10/1000000)/10^6</f>
         <v>1024.8112189859762</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="D57:K62" si="27">E$48/(E10/1000000)/10^6</f>
         <v>1320.935082992961</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1556.2746485994539</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1234.4451295106637</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1464.95534152655</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1131.8937088615191</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1358.1205141355288</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1363.9730290442267</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -19777,23 +20424,23 @@
         <v>1</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" ref="O57:S57" si="25">O1</f>
+        <f t="shared" ref="O57:S57" si="28">O1</f>
         <v>2</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>128</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>512</v>
       </c>
       <c r="U57" s="1"/>
@@ -19806,39 +20453,39 @@
     </row>
     <row r="58" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="str">
-        <f t="shared" ref="C58:C62" si="26">"MOPS "&amp;C12</f>
-        <v>MOPS 4 procesadores</v>
+        <f t="shared" ref="C58:C62" si="29">"MOPS "&amp;C11</f>
+        <v>MOPS 2 procesadores</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>531.02291783119063</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1146.7370803470387</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1816.9153758972423</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2113.0516687661006</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2169.2212730874985</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2293.7678986674341</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2494.6694185588772</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2480.7961015728206</v>
       </c>
       <c r="M58" s="1" t="str">
@@ -19846,27 +20493,27 @@
         <v>1 procesador</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" ref="N58:S59" si="27">$N$2/N2</f>
+        <f t="shared" ref="N58:S59" si="30">$N$2/N2</f>
         <v>1</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.99284284618207286</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.96283686268854829</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.95263222053821539</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.90694147443919582</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.87410982137813431</v>
       </c>
       <c r="U58" s="1"/>
@@ -19879,43 +20526,43 @@
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>MOPS 8 procesadores</v>
+        <f t="shared" si="29"/>
+        <v>MOPS 4 procesadores</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>140.6782170887013</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1309.1034363965207</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2849.1558056872036</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3223.2377787010105</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3841.7729260312503</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4330.828728119759</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4810.6525167071313</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4120.7335645579051</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" ref="M59:M63" si="28">M3</f>
+        <f t="shared" ref="M59:M63" si="31">M3</f>
         <v>2 procesadores</v>
       </c>
       <c r="N59" s="1">
@@ -19923,7 +20570,7 @@
         <v>2.1364102947096919</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.9416942119450058</v>
       </c>
       <c r="P59" s="1">
@@ -19952,43 +20599,43 @@
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>MOPS 12 procesadores</v>
+        <f t="shared" si="29"/>
+        <v>MOPS 8 procesadores</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>73.970256170676635</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>885.41970058833806</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2298.1125313582606</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3938.6567953463777</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5030.4801753736201</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5994.4396868563617</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6044.8630540893409</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7952.9454380301504</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4 procesadores</v>
       </c>
       <c r="N60" s="1">
@@ -20000,7 +20647,7 @@
         <v>3.3719192808649234</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" ref="P60" si="29">$N$2/P4</f>
+        <f t="shared" ref="P60" si="32">$N$2/P4</f>
         <v>3.4349606013436476</v>
       </c>
       <c r="Q60" s="1">
@@ -20025,43 +20672,43 @@
     </row>
     <row r="61" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>MOPS 24 procesadores</v>
+        <f t="shared" si="29"/>
+        <v>MOPS 12 procesadores</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>52.071914053935537</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>542.14074259014876</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2221.4203233256349</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3669.9779249448125</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5729.1547914909142</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7884.9117835705874</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8883.4830415189354</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>11424.89563902251</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8 procesadores</v>
       </c>
       <c r="N61" s="1">
@@ -20077,7 +20724,7 @@
         <v>4.1172962864468916</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" ref="Q61" si="30">$N$2/Q5</f>
+        <f t="shared" ref="Q61" si="33">$N$2/Q5</f>
         <v>3.4208687805268734</v>
       </c>
       <c r="R61" s="1">
@@ -20098,43 +20745,43 @@
     </row>
     <row r="62" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">MOPS </v>
+        <f t="shared" si="29"/>
+        <v>MOPS 24 procesadores</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="24"/>
+        <f>D$48/(D15/1000000)/10^6</f>
         <v>21.368963267876826</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>307.15137308788167</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1398.4552476147205</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2275.2822718607945</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3728.5029602480968</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7044.9419942350623</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>10867.748888278809</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>15527.585294299079</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>12 procesadores</v>
       </c>
       <c r="N62" s="1">
@@ -20154,7 +20801,7 @@
         <v>4.5460739911173738</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" ref="R62" si="31">$N$2/R6</f>
+        <f t="shared" ref="R62" si="34">$N$2/R6</f>
         <v>2.5391991268046503</v>
       </c>
       <c r="S62" s="1">
@@ -20171,7 +20818,7 @@
     </row>
     <row r="63" spans="3:27" x14ac:dyDescent="0.25">
       <c r="M63" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>24 procesadores</v>
       </c>
       <c r="N63" s="1">
@@ -20195,7 +20842,7 @@
         <v>1.3804190484949808</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" ref="S63" si="32">$N$2/S7</f>
+        <f t="shared" ref="S63" si="35">$N$2/S7</f>
         <v>0.61382406049551885</v>
       </c>
       <c r="U63" s="1"/>
@@ -20236,20 +20883,16 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:I65" si="33">P65</f>
+        <v>4</v>
+      </c>
+      <c r="G65">
         <v>8</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="33"/>
-        <v>32</v>
-      </c>
       <c r="H65">
-        <f t="shared" si="33"/>
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I65">
-        <f t="shared" si="33"/>
-        <v>512</v>
+        <v>24</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>33</v>
@@ -20259,23 +20902,23 @@
         <v>1</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" ref="O65:S65" si="34">O57</f>
+        <f t="shared" ref="O65:S65" si="36">O57</f>
         <v>2</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>128</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>512</v>
       </c>
       <c r="U65" s="1"/>
@@ -20302,19 +20945,19 @@
         <v>0.36792083088379385</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:I66" ca="1" si="35">INDIRECT($B66&amp;F$64)</f>
+        <f ca="1">INDIRECT($B66&amp;F$64)</f>
         <v>0.1113714556886938</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">INDIRECT($B66&amp;G$64)</f>
         <v>2.9115749643322378E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="F66:I66" ca="1" si="37">INDIRECT($B66&amp;H$64)</f>
         <v>1.2898461115691123E-2</v>
       </c>
       <c r="I66">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>3.1477383227710154E-3</v>
       </c>
       <c r="M66" s="1" t="str">
@@ -20322,27 +20965,27 @@
         <v>1 procesador</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ref="N66:S71" si="36">$N$10/N10</f>
+        <f t="shared" ref="N66:S71" si="38">$N$10/N10</f>
         <v>1</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0233004910969938</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0091938339206055</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0173816921368732</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0029483858105226</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.99447831148285226</v>
       </c>
       <c r="U66" s="1"/>
@@ -20361,31 +21004,31 @@
         <v>36</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:I73" ca="1" si="37">INDIRECT($B67&amp;D$64)</f>
+        <f t="shared" ref="D67:I73" ca="1" si="39">INDIRECT($B67&amp;D$64)</f>
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.54366387691267226</v>
       </c>
       <c r="F67">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.43764177479357591</v>
       </c>
       <c r="G67">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.18829787234042553</v>
       </c>
       <c r="H67">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>9.9717794455126227E-2</v>
       </c>
       <c r="I67">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.6332814675292766E-2</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" ref="M67:M71" si="38">M11</f>
+        <f t="shared" ref="M67:M71" si="40">M11</f>
         <v>2 procesadores</v>
       </c>
       <c r="N67" s="1">
@@ -20393,23 +21036,23 @@
         <v>1.8368542353892541</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.1412360036639377</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.8077699409822794</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.8192553190049807</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.3418266789594699</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.87956011902634701</v>
       </c>
       <c r="U67" s="1"/>
@@ -20428,31 +21071,31 @@
         <v>37</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.72897567209115466</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.54181177147791049</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.33535075530853642</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.24504865111132809</v>
       </c>
       <c r="I68">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>8.448787340226914E-2</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4 procesadores</v>
       </c>
       <c r="N68" s="1">
@@ -20464,19 +21107,19 @@
         <v>3.5060426575045063</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.5320382304493232</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.8296523528142741</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.7147551709932056</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.76509389274439066</v>
       </c>
       <c r="U68" s="1"/>
@@ -20495,31 +21138,31 @@
         <v>38</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1.034439721572431</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.78574291967323229</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.51069785456081873</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.40264776752501191</v>
       </c>
       <c r="I69">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.16027213500229837</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8 procesadores</v>
       </c>
       <c r="N69" s="1">
@@ -20535,15 +21178,15 @@
         <v>4.0838903277568699</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.8697765857417452</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.5057430729279611</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.58912110221432301</v>
       </c>
       <c r="U69" s="1"/>
@@ -20562,31 +21205,31 @@
         <v>39</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.93650863170188703</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.74080896151514286</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.50218020980115863</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.44196072554906207</v>
       </c>
       <c r="I70">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.21510281752718188</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>12 procesadores</v>
       </c>
       <c r="N70" s="1">
@@ -20606,11 +21249,11 @@
         <v>2.9425304589032906</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.4025983035989771</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.49394997560205517</v>
       </c>
       <c r="U70" s="1"/>
@@ -20629,31 +21272,31 @@
         <v>40</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.94412216699420082</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.84780640050436873</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.59052418680620455</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.54243097202989976</v>
       </c>
       <c r="I71">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.3365627199047429</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>24 procesadores</v>
       </c>
       <c r="N71" s="1">
@@ -20677,7 +21320,7 @@
         <v>0.76868543590637139</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.318333457790417</v>
       </c>
       <c r="U71" s="1"/>
@@ -20696,27 +21339,27 @@
         <v>34</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1.068205147354846</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.80766383159997135</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.53530930135089871</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.51304319393858433</v>
       </c>
       <c r="I72">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.37958756735963256</v>
       </c>
     </row>
@@ -20728,27 +21371,27 @@
         <v>41</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.91109985103178226</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.82126597234726484</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.70497287194209812</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.68717445123068088</v>
       </c>
       <c r="I73">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.46414562061132453</v>
       </c>
     </row>
@@ -20782,20 +21425,17 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:H75" si="39">P65</f>
+        <v>4</v>
+      </c>
+      <c r="G75">
         <v>8</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="39"/>
-        <v>32</v>
-      </c>
       <c r="H75">
-        <f t="shared" si="39"/>
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I75">
         <f>I65</f>
-        <v>512</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -20810,23 +21450,23 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76:I76" ca="1" si="40">INDIRECT($B76&amp;E$74)</f>
+        <f t="shared" ref="E76:I76" ca="1" si="41">INDIRECT($B76&amp;E$74)</f>
         <v>0.25908328675237563</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>3.4318080852954243E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>9.0224246671338475E-3</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>4.2342688007016007E-3</v>
       </c>
       <c r="I76">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>8.688170591807815E-4</v>
       </c>
     </row>
@@ -20838,27 +21478,27 @@
         <v>36</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:I83" ca="1" si="41">INDIRECT($B77&amp;D$74)</f>
+        <f t="shared" ref="D77:I83" ca="1" si="42">INDIRECT($B77&amp;D$74)</f>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.4340626178800453</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.24776074412195334</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>8.3787208015378339E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>3.4201828536101105E-2</v>
       </c>
       <c r="I77">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>9.6885714093263558E-3</v>
       </c>
     </row>
@@ -20870,27 +21510,27 @@
         <v>37</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.5837386664148092</v>
       </c>
       <c r="F78">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.45768846267772506</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.18458442838370565</v>
       </c>
       <c r="H78">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.11894967282525019</v>
       </c>
       <c r="I78">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>3.7441314553990614E-2</v>
       </c>
     </row>
@@ -20902,27 +21542,27 @@
         <v>38</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.85587103802812114</v>
       </c>
       <c r="F79">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.65277056501869546</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.39882866208355372</v>
       </c>
       <c r="H79">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.24774814727215388</v>
       </c>
       <c r="I79">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>7.6798413900972681E-2</v>
       </c>
     </row>
@@ -20934,27 +21574,27 @@
         <v>39</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.74037112654474202</v>
       </c>
       <c r="F80">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.65561263492645938</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.42923494259316725</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.32590042332626529</v>
       </c>
       <c r="I80">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.1060471166639463</v>
       </c>
     </row>
@@ -20966,27 +21606,27 @@
         <v>40</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1.0132435054235573</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.95654492427468973</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.66199233637468557</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.58051032249760937</v>
       </c>
       <c r="I81">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.25933464199128892</v>
       </c>
     </row>
@@ -20998,27 +21638,27 @@
         <v>34</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.91842711769462704</v>
       </c>
       <c r="F82">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.88553491141565022</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.55636291028423746</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.54508436162686269</v>
       </c>
       <c r="I82">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.3334187692711359</v>
       </c>
     </row>
@@ -21030,27 +21670,27 @@
         <v>41</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.90940071715024406</v>
       </c>
       <c r="F83">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.75528135029279431</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.72884005664714269</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.69801573514423099</v>
       </c>
       <c r="I83">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.47433688703445515</v>
       </c>
     </row>

--- a/PR1.xlsx
+++ b/PR1.xlsx
@@ -16,12 +16,12 @@
     <sheet name="PROGRESO" sheetId="9" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="14" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>Operaciones</t>
   </si>
@@ -125,54 +125,6 @@
     <t>Speed-Up por sobreasignacion</t>
   </si>
   <si>
-    <t>Talla 12400</t>
-  </si>
-  <si>
-    <t>Talla 100</t>
-  </si>
-  <si>
-    <t>Talla 400</t>
-  </si>
-  <si>
-    <t>Talla 900</t>
-  </si>
-  <si>
-    <t>Talla 1400</t>
-  </si>
-  <si>
-    <t>Talla 2300</t>
-  </si>
-  <si>
-    <t>Talla 5100</t>
-  </si>
-  <si>
-    <t>Talla 88800</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
     <t>MOPS O0</t>
   </si>
   <si>
@@ -207,6 +159,15 @@
   </si>
   <si>
     <t>Talla:</t>
+  </si>
+  <si>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>Procesadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño </t>
   </si>
 </sst>
 </file>
@@ -409,7 +370,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -496,11 +456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84526208"/>
-        <c:axId val="84528512"/>
+        <c:axId val="85128320"/>
+        <c:axId val="85136512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84526208"/>
+        <c:axId val="85128320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,19 +482,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84528512"/>
+        <c:crossAx val="85136512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84528512"/>
+        <c:axId val="85136512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,21 +516,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84526208"/>
+        <c:crossAx val="85128320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1094,11 +1051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="535278336"/>
-        <c:axId val="535281024"/>
+        <c:axId val="3409408"/>
+        <c:axId val="3411328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="535278336"/>
+        <c:axId val="3409408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,12 +1084,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535281024"/>
+        <c:crossAx val="3411328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535281024"/>
+        <c:axId val="3411328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535278336"/>
+        <c:crossAx val="3409408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1692,11 +1649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="495451520"/>
-        <c:axId val="502346880"/>
+        <c:axId val="3469312"/>
+        <c:axId val="3471232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="495451520"/>
+        <c:axId val="3469312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,12 +1682,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502346880"/>
+        <c:crossAx val="3471232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502346880"/>
+        <c:axId val="3471232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495451520"/>
+        <c:crossAx val="3469312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2285,11 +2242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336213120"/>
-        <c:axId val="336214656"/>
+        <c:axId val="3520768"/>
+        <c:axId val="3522944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336213120"/>
+        <c:axId val="3520768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,12 +2275,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336214656"/>
+        <c:crossAx val="3522944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336214656"/>
+        <c:axId val="3522944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336213120"/>
+        <c:crossAx val="3520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2435,10 +2392,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AW$9</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2456,19 +2413,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$10:$AW$10</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$10:$AV$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2485,9 +2439,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2511,10 +2462,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AW$9</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2532,19 +2483,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$11:$AW$11</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$11:$AV$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.25908328675237563</c:v>
                 </c:pt>
@@ -2562,9 +2510,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0132435054235573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.91842711769462704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,10 +2532,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AW$9</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2608,19 +2553,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$12:$AW$12</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$12:$AV$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.4318080852954243E-2</c:v>
                 </c:pt>
@@ -2638,9 +2580,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.95654492427468973</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88553491141565022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,10 +2602,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AW$9</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2684,19 +2623,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$13:$AW$13</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$13:$AV$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9.0224246671338475E-3</c:v>
                 </c:pt>
@@ -2714,9 +2650,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.66199233637468557</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55636291028423746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,10 +2672,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AW$9</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2760,19 +2693,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$14:$AW$14</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$14:$AV$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.2342688007016007E-3</c:v>
                 </c:pt>
@@ -2790,9 +2720,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.58051032249760937</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.54508436162686269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2815,10 +2742,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AW$9</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$9:$AV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2836,19 +2763,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$AQ$15:$AW$15</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$AQ$15:$AV$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8.688170591807815E-4</c:v>
                 </c:pt>
@@ -2866,9 +2790,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.25933464199128892</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3334187692711359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,11 +2804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336251520"/>
-        <c:axId val="336253312"/>
+        <c:axId val="3556096"/>
+        <c:axId val="3558016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336251520"/>
+        <c:axId val="3556096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,12 +2837,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336253312"/>
+        <c:crossAx val="3558016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336253312"/>
+        <c:axId val="3558016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336251520"/>
+        <c:crossAx val="3556096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3476,11 +3397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346706688"/>
-        <c:axId val="346708224"/>
+        <c:axId val="3599744"/>
+        <c:axId val="3741184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346706688"/>
+        <c:axId val="3599744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,12 +3430,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346708224"/>
+        <c:crossAx val="3741184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346708224"/>
+        <c:axId val="3741184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +3465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346706688"/>
+        <c:crossAx val="3599744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4069,11 +3990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346740992"/>
-        <c:axId val="347738112"/>
+        <c:axId val="3782528"/>
+        <c:axId val="3801088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346740992"/>
+        <c:axId val="3782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,12 +4023,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347738112"/>
+        <c:crossAx val="3801088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347738112"/>
+        <c:axId val="3801088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346740992"/>
+        <c:crossAx val="3782528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4662,11 +4583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347774976"/>
-        <c:axId val="347776512"/>
+        <c:axId val="3842432"/>
+        <c:axId val="3844352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347774976"/>
+        <c:axId val="3842432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,12 +4616,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347776512"/>
+        <c:crossAx val="3844352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347776512"/>
+        <c:axId val="3844352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347774976"/>
+        <c:crossAx val="3842432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5219,11 +5140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="351999488"/>
-        <c:axId val="352001024"/>
+        <c:axId val="4213376"/>
+        <c:axId val="4215552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="351999488"/>
+        <c:axId val="4213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5252,12 +5173,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="352001024"/>
+        <c:crossAx val="4215552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352001024"/>
+        <c:axId val="4215552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,7 +5208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="351999488"/>
+        <c:crossAx val="4213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5781,11 +5702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352029312"/>
-        <c:axId val="352039296"/>
+        <c:axId val="4272896"/>
+        <c:axId val="4274816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352029312"/>
+        <c:axId val="4272896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5814,12 +5735,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="352039296"/>
+        <c:crossAx val="4274816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352039296"/>
+        <c:axId val="4274816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,7 +5770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="352029312"/>
+        <c:crossAx val="4272896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5895,9 +5816,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Escalabilidad -O0</a:t>
+              <a:rPr lang="es-ES"/>
+              <a:t>Escalabilidad</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> -O2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5906,27 +5832,53 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7443493118625093E-2"/>
+          <c:y val="0.14844027777777777"/>
+          <c:w val="0.86434811914171261"/>
+          <c:h val="0.68837638888888886"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$66</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$D$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Talla 100</c:v>
+                  <c:v>Eficiencia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$E$80:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5950,7 +5902,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$66:$H$66</c:f>
+              <c:f>'Datos finales OMP Adecuados'!$E$84:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5958,464 +5910,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36792083088379385</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1113714556886938</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9115749643322378E-2</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2898461115691123E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$67:$H$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54366387691267226</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43764177479357591</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18829787234042553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9717794455126227E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 900</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$68:$H$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72897567209115466</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54181177147791049</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33535075530853642</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24504865111132809</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 1400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$69:$H$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.034439721572431</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78574291967323229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51069785456081873</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.40264776752501191</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 2300</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$70:$H$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93650863170188703</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74080896151514286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50218020980115863</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44196072554906207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 5100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$71:$H$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94412216699420082</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84780640050436873</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59052418680620455</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54243097202989976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$72</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 12400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$72:$H$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.068205147354846</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80766383159997135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53530930135089871</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51304319393858433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 88800</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$65:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$73:$H$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91109985103178226</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82126597234726484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70497287194209812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68717445123068088</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6430,11 +5934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353851264"/>
-        <c:axId val="353852800"/>
+        <c:axId val="4316160"/>
+        <c:axId val="4322432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353851264"/>
+        <c:axId val="4316160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6463,12 +5967,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353852800"/>
+        <c:crossAx val="4322432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353852800"/>
+        <c:axId val="4322432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6485,7 +5989,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Eficiencia</a:t>
                 </a:r>
               </a:p>
@@ -6498,15 +6002,31 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353851264"/>
+        <c:crossAx val="4316160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60316889273210039"/>
+          <c:y val="0.18054583333333329"/>
+          <c:w val="0.12030017731320224"/>
+          <c:h val="6.3792500000000002E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6550,7 +6070,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6637,11 +6156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185956608"/>
-        <c:axId val="186286848"/>
+        <c:axId val="86697472"/>
+        <c:axId val="87470080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185956608"/>
+        <c:axId val="86697472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6668,19 +6187,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186286848"/>
+        <c:crossAx val="87470080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186286848"/>
+        <c:axId val="87470080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6756,675 +6274,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185956608"/>
+        <c:crossAx val="86697472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Escalabilidad</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> -O2</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$76:$H$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25908328675237563</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4318080852954243E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0224246671338475E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2342688007016007E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$77:$H$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4340626178800453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24776074412195334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.3787208015378339E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4201828536101105E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$78</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 900</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$78:$H$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5837386664148092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45768846267772506</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18458442838370565</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11894967282525019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$79</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 1400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$79:$H$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85587103802812114</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65277056501869546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39882866208355372</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24774814727215388</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$80</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 2300</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$80:$H$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74037112654474202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65561263492645938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42923494259316725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32590042332626529</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 5100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$81:$H$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0132435054235573</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95654492427468973</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66199233637468557</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58051032249760937</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$82</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 12400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$82:$H$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91842711769462704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88553491141565022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55636291028423746</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54508436162686269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos finales OMP Adecuados'!$C$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Talla 88800</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$75:$H$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos finales OMP Adecuados'!$D$83:$H$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90940071715024406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75528135029279431</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72884005664714269</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69801573514423099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="452400256"/>
-        <c:axId val="452401792"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="452400256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Procesadores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452401792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="452401792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Eficiencia</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452400256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7561,11 +6423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209995264"/>
-        <c:axId val="210002304"/>
+        <c:axId val="87092608"/>
+        <c:axId val="87115264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209995264"/>
+        <c:axId val="87092608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7593,12 +6455,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210002304"/>
+        <c:crossAx val="87115264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210002304"/>
+        <c:axId val="87115264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7627,7 +6489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209995264"/>
+        <c:crossAx val="87092608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7678,7 +6540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7771,11 +6632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213744640"/>
-        <c:axId val="213757312"/>
+        <c:axId val="98178944"/>
+        <c:axId val="98197504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213744640"/>
+        <c:axId val="98178944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,19 +6658,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213757312"/>
+        <c:crossAx val="98197504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213757312"/>
+        <c:axId val="98197504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7832,21 +6692,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213744640"/>
+        <c:crossAx val="98178944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7891,7 +6749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7984,11 +6841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214746624"/>
-        <c:axId val="214770816"/>
+        <c:axId val="182210944"/>
+        <c:axId val="182212864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214746624"/>
+        <c:axId val="182210944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,19 +6867,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214770816"/>
+        <c:crossAx val="182212864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214770816"/>
+        <c:axId val="182212864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8045,21 +6901,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214746624"/>
+        <c:crossAx val="182210944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8541,11 +7395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306625152"/>
-        <c:axId val="308839168"/>
+        <c:axId val="3211264"/>
+        <c:axId val="3213184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306625152"/>
+        <c:axId val="3211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8574,12 +7428,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308839168"/>
+        <c:crossAx val="3213184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308839168"/>
+        <c:axId val="3213184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8609,7 +7463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306625152"/>
+        <c:crossAx val="3211264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9098,11 +7952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333080832"/>
-        <c:axId val="335179776"/>
+        <c:axId val="3246336"/>
+        <c:axId val="3260800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333080832"/>
+        <c:axId val="3246336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9131,12 +7985,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335179776"/>
+        <c:crossAx val="3260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="335179776"/>
+        <c:axId val="3260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9166,7 +8020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333080832"/>
+        <c:crossAx val="3246336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9655,11 +8509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412391296"/>
-        <c:axId val="412524928"/>
+        <c:axId val="3298048"/>
+        <c:axId val="3299968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412391296"/>
+        <c:axId val="3298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9688,12 +8542,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412524928"/>
+        <c:crossAx val="3299968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412524928"/>
+        <c:axId val="3299968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9728,7 +8582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412391296"/>
+        <c:crossAx val="3298048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10222,11 +9076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="431419392"/>
-        <c:axId val="431420928"/>
+        <c:axId val="3619840"/>
+        <c:axId val="3622016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="431419392"/>
+        <c:axId val="3619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10255,12 +9109,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431420928"/>
+        <c:crossAx val="3622016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431420928"/>
+        <c:axId val="3622016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10290,7 +9144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431419392"/>
+        <c:crossAx val="3619840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10705,16 +9559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>407333</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94129</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>472532</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>491598</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>74629</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10897,48 +9751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>598712</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>70759</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>855647</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257153</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>51259</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="16 Gráfico"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>362588</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>90769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>704588</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>71269</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514088</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>160917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10953,7 +9775,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12718,7 +11540,7 @@
     </row>
     <row r="33" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N33" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" ref="O33:V33" si="5">O$32/(D2/1000000)/10^6</f>
@@ -12755,7 +11577,7 @@
     </row>
     <row r="34" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N34" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" ref="O34:V34" si="6">O$32/(D8/1000000)/10^6</f>
@@ -15112,8 +13934,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17345,15 +16167,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX83"/>
+  <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X78" sqref="X78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
@@ -19827,7 +18650,7 @@
     </row>
     <row r="49" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" ref="D49:K49" si="20">D1*100</f>
@@ -20853,47 +19676,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
-      </c>
-      <c r="I64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D65">
-        <f>N65</f>
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <f>O65</f>
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>4</v>
-      </c>
-      <c r="G65">
-        <v>8</v>
-      </c>
-      <c r="H65">
-        <v>12</v>
-      </c>
-      <c r="I65">
-        <v>24</v>
-      </c>
+    <row r="65" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M65" s="1" t="s">
         <v>33</v>
       </c>
@@ -20929,63 +19712,33 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66">
-        <f ca="1">INDIRECT($B66&amp;D$64)</f>
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <f ca="1">INDIRECT($B66&amp;E$64)</f>
-        <v>0.36792083088379385</v>
-      </c>
-      <c r="F66">
-        <f ca="1">INDIRECT($B66&amp;F$64)</f>
-        <v>0.1113714556886938</v>
-      </c>
-      <c r="G66">
-        <f ca="1">INDIRECT($B66&amp;G$64)</f>
-        <v>2.9115749643322378E-2</v>
-      </c>
-      <c r="H66">
-        <f t="shared" ref="F66:I66" ca="1" si="37">INDIRECT($B66&amp;H$64)</f>
-        <v>1.2898461115691123E-2</v>
-      </c>
-      <c r="I66">
-        <f t="shared" ca="1" si="37"/>
-        <v>3.1477383227710154E-3</v>
-      </c>
+    <row r="66" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M66" s="1" t="str">
         <f>M10</f>
         <v>1 procesador</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ref="N66:S71" si="38">$N$10/N10</f>
+        <f t="shared" ref="N66:S71" si="37">$N$10/N10</f>
         <v>1</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.0233004910969938</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.0091938339206055</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.0173816921368732</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.0029483858105226</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.99447831148285226</v>
       </c>
       <c r="U66" s="1"/>
@@ -20996,39 +19749,9 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:I73" ca="1" si="39">INDIRECT($B67&amp;D$64)</f>
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.54366387691267226</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.43764177479357591</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.18829787234042553</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ca="1" si="39"/>
-        <v>9.9717794455126227E-2</v>
-      </c>
-      <c r="I67">
-        <f t="shared" ca="1" si="39"/>
-        <v>2.6332814675292766E-2</v>
-      </c>
+    <row r="67" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M67" s="1" t="str">
-        <f t="shared" ref="M67:M71" si="40">M11</f>
+        <f t="shared" ref="M67:M71" si="38">M11</f>
         <v>2 procesadores</v>
       </c>
       <c r="N67" s="1">
@@ -21036,23 +19759,23 @@
         <v>1.8368542353892541</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2.1412360036639377</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.8077699409822794</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.8192553190049807</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.3418266789594699</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.87956011902634701</v>
       </c>
       <c r="U67" s="1"/>
@@ -21063,39 +19786,9 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.72897567209115466</v>
-      </c>
-      <c r="F68">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.54181177147791049</v>
-      </c>
-      <c r="G68">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.33535075530853642</v>
-      </c>
-      <c r="H68">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.24504865111132809</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ca="1" si="39"/>
-        <v>8.448787340226914E-2</v>
-      </c>
+    <row r="68" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M68" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4 procesadores</v>
       </c>
       <c r="N68" s="1">
@@ -21107,19 +19800,19 @@
         <v>3.5060426575045063</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3.5320382304493232</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2.8296523528142741</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.7147551709932056</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.76509389274439066</v>
       </c>
       <c r="U68" s="1"/>
@@ -21130,39 +19823,9 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="39"/>
-        <v>1.034439721572431</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.78574291967323229</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.51069785456081873</v>
-      </c>
-      <c r="H69">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.40264776752501191</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.16027213500229837</v>
-      </c>
+    <row r="69" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M69" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>8 procesadores</v>
       </c>
       <c r="N69" s="1">
@@ -21178,15 +19841,15 @@
         <v>4.0838903277568699</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2.8697765857417452</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.5057430729279611</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.58912110221432301</v>
       </c>
       <c r="U69" s="1"/>
@@ -21197,39 +19860,9 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.93650863170188703</v>
-      </c>
-      <c r="F70">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.74080896151514286</v>
-      </c>
-      <c r="G70">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.50218020980115863</v>
-      </c>
-      <c r="H70">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.44196072554906207</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.21510281752718188</v>
-      </c>
+    <row r="70" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M70" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12 procesadores</v>
       </c>
       <c r="N70" s="1">
@@ -21249,11 +19882,11 @@
         <v>2.9425304589032906</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.4025983035989771</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.49394997560205517</v>
       </c>
       <c r="U70" s="1"/>
@@ -21264,39 +19897,9 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.94412216699420082</v>
-      </c>
-      <c r="F71">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.84780640050436873</v>
-      </c>
-      <c r="G71">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.59052418680620455</v>
-      </c>
-      <c r="H71">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.54243097202989976</v>
-      </c>
-      <c r="I71">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.3365627199047429</v>
-      </c>
+    <row r="71" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M71" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>24 procesadores</v>
       </c>
       <c r="N71" s="1">
@@ -21320,7 +19923,7 @@
         <v>0.76868543590637139</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.318333457790417</v>
       </c>
       <c r="U71" s="1"/>
@@ -21331,367 +19934,229 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="39"/>
+    <row r="73" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="39"/>
-        <v>1.068205147354846</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.80766383159997135</v>
-      </c>
-      <c r="G72">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.53530930135089871</v>
-      </c>
-      <c r="H72">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.51304319393858433</v>
-      </c>
-      <c r="I72">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.37958756735963256</v>
-      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="39"/>
+    <row r="74" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="E74" s="1">
+        <f>E73</f>
         <v>1</v>
       </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.91109985103178226</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.82126597234726484</v>
-      </c>
-      <c r="G73">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.70497287194209812</v>
-      </c>
-      <c r="H73">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.68717445123068088</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.46414562061132453</v>
+      <c r="F74" s="1">
+        <f t="shared" ref="F74:J74" si="39">F73</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>11</v>
-      </c>
-      <c r="F74">
+    <row r="75" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <f>E73</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" ref="F75:I75" si="40">F73</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" ref="J75" si="41">J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="E76" s="1">
+        <f>E73</f>
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" ref="F76:I76" si="42">F73</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" ref="J76" si="43">J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="E77" s="1">
+        <f>E73</f>
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" ref="F77:I77" si="44">F73</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" ref="J77" si="45">J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>8</v>
+      </c>
+      <c r="I80" s="1">
         <v>12</v>
       </c>
-      <c r="G74">
-        <v>13</v>
-      </c>
-      <c r="H74">
-        <v>14</v>
-      </c>
-      <c r="I74">
-        <v>15</v>
-      </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D75">
-        <f>N65</f>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <f>(19*E81*E81)/E80</f>
+        <v>19000000</v>
+      </c>
+      <c r="F82" s="1">
+        <f>(19*F81*F81)/F80</f>
+        <v>18620000</v>
+      </c>
+      <c r="G82" s="1">
+        <f>(19*G81*G81)/G80</f>
+        <v>19000000</v>
+      </c>
+      <c r="H82" s="1">
+        <f>(19*H81*H81)/H80</f>
+        <v>18620000</v>
+      </c>
+      <c r="I82" s="1">
+        <f>(19*I81*I81)/I80</f>
+        <v>19395833.333333332</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1">
+        <f>F82/E82</f>
+        <v>0.98</v>
+      </c>
+      <c r="G83" s="1">
+        <f>G82/F82</f>
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="H83" s="1">
+        <f>H82/G82</f>
+        <v>0.98</v>
+      </c>
+      <c r="I83" s="1">
+        <f>I82/H82</f>
+        <v>1.0416666666666665</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="1">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="E75">
-        <f>O65</f>
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-      <c r="G75">
-        <v>8</v>
-      </c>
-      <c r="H75">
-        <v>12</v>
-      </c>
-      <c r="I75">
-        <f>I65</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76">
-        <f ca="1">INDIRECT($B76&amp;D$74)</f>
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ref="E76:I76" ca="1" si="41">INDIRECT($B76&amp;E$74)</f>
-        <v>0.25908328675237563</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ca="1" si="41"/>
-        <v>3.4318080852954243E-2</v>
-      </c>
-      <c r="G76">
-        <f t="shared" ca="1" si="41"/>
-        <v>9.0224246671338475E-3</v>
-      </c>
-      <c r="H76">
-        <f t="shared" ca="1" si="41"/>
-        <v>4.2342688007016007E-3</v>
-      </c>
-      <c r="I76">
-        <f t="shared" ca="1" si="41"/>
-        <v>8.688170591807815E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ref="D77:I83" ca="1" si="42">INDIRECT($B77&amp;D$74)</f>
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.4340626178800453</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.24776074412195334</v>
-      </c>
-      <c r="G77">
-        <f t="shared" ca="1" si="42"/>
-        <v>8.3787208015378339E-2</v>
-      </c>
-      <c r="H77">
-        <f t="shared" ca="1" si="42"/>
-        <v>3.4201828536101105E-2</v>
-      </c>
-      <c r="I77">
-        <f t="shared" ca="1" si="42"/>
-        <v>9.6885714093263558E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.5837386664148092</v>
-      </c>
-      <c r="F78">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.45768846267772506</v>
-      </c>
-      <c r="G78">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.18458442838370565</v>
-      </c>
-      <c r="H78">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.11894967282525019</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ca="1" si="42"/>
-        <v>3.7441314553990614E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.85587103802812114</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.65277056501869546</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.39882866208355372</v>
-      </c>
-      <c r="H79">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.24774814727215388</v>
-      </c>
-      <c r="I79">
-        <f t="shared" ca="1" si="42"/>
-        <v>7.6798413900972681E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.74037112654474202</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.65561263492645938</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.42923494259316725</v>
-      </c>
-      <c r="H80">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.32590042332626529</v>
-      </c>
-      <c r="I80">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.1060471166639463</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="42"/>
-        <v>1.0132435054235573</v>
-      </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.95654492427468973</v>
-      </c>
-      <c r="G81">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.66199233637468557</v>
-      </c>
-      <c r="H81">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.58051032249760937</v>
-      </c>
-      <c r="I81">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.25933464199128892</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.91842711769462704</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.88553491141565022</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.55636291028423746</v>
-      </c>
-      <c r="H82">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.54508436162686269</v>
-      </c>
-      <c r="I82">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.3334187692711359</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.90940071715024406</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.75528135029279431</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.72884005664714269</v>
-      </c>
-      <c r="H83">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.69801573514423099</v>
-      </c>
-      <c r="I83">
-        <f t="shared" ca="1" si="42"/>
-        <v>0.47433688703445515</v>
+      <c r="F84" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -22001,22 +20466,22 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22040,7 +20505,7 @@
         <v>7.7827453613281254E-5</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22152,7 +20617,7 @@
         <v>0.19378960132598877</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22198,7 +20663,7 @@
         <v>58.751106262207031</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
